--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="100">
   <si>
     <t>REMISION</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>REMISIONES    POR     CREDITOS         DE   JULIO        2 0 2 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMA LEDO    Central </t>
+  </si>
+  <si>
+    <t>ALBICIA</t>
   </si>
 </sst>
 </file>
@@ -1492,11 +1498,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF990033"/>
@@ -4473,7 +4479,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B43:B44"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4552,8 +4558,8 @@
       <c r="E4" s="15">
         <v>11152</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H45" si="0">E4-G4</f>
         <v>11152</v>
@@ -4649,8 +4655,8 @@
       <c r="E8" s="20">
         <v>42624</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>42624</v>
@@ -4695,8 +4701,8 @@
       <c r="E10" s="20">
         <v>12024</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>12024</v>
@@ -4716,8 +4722,8 @@
       <c r="E11" s="20">
         <v>21279</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>21279</v>
@@ -4762,8 +4768,8 @@
       <c r="E13" s="20">
         <v>8935</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
         <v>8935</v>
@@ -4783,8 +4789,8 @@
       <c r="E14" s="20">
         <v>11919</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
         <v>11919</v>
@@ -4804,8 +4810,8 @@
       <c r="E15" s="20">
         <v>41552</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
         <v>41552</v>
@@ -4850,8 +4856,8 @@
       <c r="E17" s="20">
         <v>0</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4871,8 +4877,8 @@
       <c r="E18" s="20">
         <v>63711</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>63711</v>
@@ -4892,8 +4898,8 @@
       <c r="E19" s="20">
         <v>8500</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>8500</v>
@@ -4913,8 +4919,8 @@
       <c r="E20" s="20">
         <v>6673</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
         <v>6673</v>
@@ -4934,8 +4940,8 @@
       <c r="E21" s="20">
         <v>0</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="84"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4955,8 +4961,8 @@
       <c r="E22" s="20">
         <v>12311</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
         <v>12311</v>
@@ -4976,8 +4982,8 @@
       <c r="E23" s="20">
         <v>24473</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>24473</v>
@@ -4997,8 +5003,8 @@
       <c r="E24" s="20">
         <v>29600</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
         <v>29600</v>
@@ -5018,8 +5024,8 @@
       <c r="E25" s="20">
         <v>9022</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>9022</v>
@@ -5039,8 +5045,8 @@
       <c r="E26" s="20">
         <v>0</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="84"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5110,13 +5116,11 @@
       <c r="E29" s="20">
         <v>14700</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>14700</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5179,8 +5183,8 @@
       <c r="E32" s="20">
         <v>16229</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="18">
         <v>0</v>
       </c>
@@ -5199,8 +5203,8 @@
       <c r="E33" s="20">
         <v>10085</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
       <c r="H33" s="18">
         <v>0</v>
       </c>
@@ -5219,8 +5223,8 @@
       <c r="E34" s="20">
         <v>19131</v>
       </c>
-      <c r="F34" s="125"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="18">
         <v>0</v>
       </c>
@@ -5239,8 +5243,8 @@
       <c r="E35" s="20">
         <v>74746</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
         <v>74746</v>
@@ -5260,8 +5264,8 @@
       <c r="E36" s="20">
         <v>31738</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
         <v>31738</v>
@@ -5281,8 +5285,8 @@
       <c r="E37" s="20">
         <v>8280</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
         <v>8280</v>
@@ -5302,8 +5306,8 @@
       <c r="E38" s="20">
         <v>4048</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
         <v>4048</v>
@@ -5323,11 +5327,15 @@
       <c r="E39" s="20">
         <v>1863</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="85">
+        <v>44748</v>
+      </c>
+      <c r="G39" s="86">
+        <v>1863</v>
+      </c>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>1863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,8 +5352,8 @@
       <c r="E40" s="20">
         <v>24380</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
         <v>24380</v>
@@ -5365,8 +5373,8 @@
       <c r="E41" s="20">
         <v>12560</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
         <v>12560</v>
@@ -5386,8 +5394,8 @@
       <c r="E42" s="20">
         <v>19173</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
         <v>19173</v>
@@ -5446,11 +5454,11 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39">
         <f>SUM(G4:G45)</f>
-        <v>83621</v>
-      </c>
-      <c r="H46" s="40" t="e">
+        <v>85484</v>
+      </c>
+      <c r="H46" s="40">
         <f>SUM(H4:H45)</f>
-        <v>#VALUE!</v>
+        <v>493400</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -5494,7 +5502,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="183">
         <f>E46-G46</f>
-        <v>540708</v>
+        <v>538845</v>
       </c>
       <c r="F50" s="184"/>
       <c r="G50" s="185"/>
@@ -6926,7 +6934,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6992,94 +7000,130 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12">
+        <v>44746</v>
+      </c>
       <c r="B4" s="13">
         <v>413</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="15">
+        <v>6477</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H45" si="0">E4-G4</f>
-        <v>0</v>
+        <v>6477</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12">
+        <v>44747</v>
+      </c>
       <c r="B5" s="13">
         <v>414</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="20">
+        <v>19633</v>
+      </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19633</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12">
+        <v>44748</v>
+      </c>
       <c r="B6" s="13">
         <v>415</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="20">
+        <v>14155</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14155</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="23">
+        <v>44748</v>
+      </c>
       <c r="B7" s="13">
         <v>416</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1461</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="81">
+        <v>44748</v>
+      </c>
       <c r="B8" s="13">
         <v>417</v>
       </c>
       <c r="C8" s="82"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="20">
+        <v>29414</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29414</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>44748</v>
+      </c>
       <c r="B9" s="13">
         <v>418</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="20">
+        <v>73994</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73994</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7620,7 +7664,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="39">
         <f>SUM(E4:E45)</f>
-        <v>0</v>
+        <v>145134</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39">
@@ -7629,7 +7673,7 @@
       </c>
       <c r="H46" s="40">
         <f>SUM(H4:H45)</f>
-        <v>0</v>
+        <v>145134</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -7673,7 +7717,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="183">
         <f>E46-G46</f>
-        <v>0</v>
+        <v>145134</v>
       </c>
       <c r="F50" s="184"/>
       <c r="G50" s="185"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="101">
   <si>
     <t>REMISION</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>ALBICIA</t>
+  </si>
+  <si>
+    <t>ABASTOS 11 SUR</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1432,6 +1435,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3181,24 +3192,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="189"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4344,12 +4355,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="183">
+      <c r="D55" s="187">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="184"/>
-      <c r="F55" s="185"/>
+      <c r="E55" s="188"/>
+      <c r="F55" s="189"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,11 +4374,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="186" t="s">
+      <c r="D57" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="190"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4478,8 +4489,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4496,25 +4507,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4877,11 +4888,15 @@
       <c r="E18" s="20">
         <v>63711</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
+      <c r="F18" s="85">
+        <v>44750</v>
+      </c>
+      <c r="G18" s="86">
+        <v>63711</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>63711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5454,11 +5469,11 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39">
         <f>SUM(G4:G45)</f>
-        <v>85484</v>
+        <v>149195</v>
       </c>
       <c r="H46" s="40">
         <f>SUM(H4:H45)</f>
-        <v>493400</v>
+        <v>429689</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -5500,12 +5515,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="183">
+      <c r="E50" s="187">
         <f>E46-G46</f>
-        <v>538845</v>
-      </c>
-      <c r="F50" s="184"/>
-      <c r="G50" s="185"/>
+        <v>475134</v>
+      </c>
+      <c r="F50" s="188"/>
+      <c r="G50" s="189"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5521,11 +5536,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="186" t="s">
+      <c r="E52" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="190"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5691,8 +5706,8 @@
   </sheetPr>
   <dimension ref="B1:AJ68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5722,18 +5737,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="193"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -6370,18 +6385,24 @@
       <c r="AJ18" s="121"/>
     </row>
     <row r="19" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="130"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="130">
+        <v>44746</v>
+      </c>
+      <c r="C19" s="136">
+        <v>44747</v>
+      </c>
+      <c r="D19" s="77">
+        <v>62065.5</v>
+      </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>766123</v>
       </c>
       <c r="S19" s="130"/>
-      <c r="T19" s="199" t="s">
+      <c r="T19" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="200"/>
+      <c r="U19" s="204"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -6399,12 +6420,18 @@
       <c r="AJ19" s="121"/>
     </row>
     <row r="20" spans="2:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="130"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="130">
+        <v>44747</v>
+      </c>
+      <c r="C20" s="136">
+        <v>44751</v>
+      </c>
+      <c r="D20" s="20">
+        <v>25042</v>
+      </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>791165</v>
       </c>
       <c r="R20" s="121"/>
       <c r="S20" s="130"/>
@@ -6430,12 +6457,18 @@
       <c r="AJ20" s="121"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="130"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="130">
+        <v>44748</v>
+      </c>
+      <c r="C21" s="136">
+        <v>44751</v>
+      </c>
+      <c r="D21" s="20">
+        <v>34750</v>
+      </c>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>825915</v>
       </c>
       <c r="R21" s="121"/>
       <c r="S21" s="130"/>
@@ -6461,12 +6494,18 @@
       <c r="AJ21" s="121"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="130"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="130">
+        <v>44749</v>
+      </c>
+      <c r="C22" s="136">
+        <v>44751</v>
+      </c>
+      <c r="D22" s="20">
+        <v>47083</v>
+      </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>872998</v>
       </c>
       <c r="R22" s="121"/>
       <c r="S22" s="130"/>
@@ -6492,12 +6531,18 @@
       <c r="AJ22" s="129"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="130"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="130">
+        <v>44750</v>
+      </c>
+      <c r="C23" s="136">
+        <v>44751</v>
+      </c>
+      <c r="D23" s="20">
+        <v>87636</v>
+      </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>960634</v>
       </c>
       <c r="R23" s="121"/>
       <c r="S23" s="130"/>
@@ -6520,12 +6565,18 @@
       <c r="AJ23" s="121"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="130"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="130">
+        <v>44751</v>
+      </c>
+      <c r="C24" s="136">
+        <v>44753</v>
+      </c>
+      <c r="D24" s="20">
+        <v>43500</v>
+      </c>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1004134</v>
       </c>
       <c r="R24" s="121"/>
       <c r="S24" s="130"/>
@@ -6548,12 +6599,18 @@
       <c r="AJ24" s="121"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="130"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="182">
+        <v>44751</v>
+      </c>
+      <c r="C25" s="136">
+        <v>44753</v>
+      </c>
+      <c r="D25" s="20">
+        <v>200</v>
+      </c>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1004334</v>
       </c>
       <c r="R25" s="121"/>
       <c r="S25" s="130"/>
@@ -6569,9 +6626,18 @@
       <c r="AC25" s="60"/>
     </row>
     <row r="26" spans="2:36" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="184">
+        <v>44752</v>
+      </c>
+      <c r="C26" s="183">
+        <v>44753</v>
+      </c>
+      <c r="D26" s="185">
+        <v>38583.5</v>
+      </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1042917.5</v>
       </c>
       <c r="S26" s="157"/>
       <c r="T26" s="157"/>
@@ -6586,48 +6652,77 @@
       <c r="AC26" s="157"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B27" s="184"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="185"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1042917.5</v>
       </c>
     </row>
     <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="184"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="185">
+        <v>49006</v>
+      </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1091923.5</v>
       </c>
     </row>
     <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="184"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="185">
+        <v>40724</v>
+      </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1132647.5</v>
       </c>
     </row>
     <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="184"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="185">
+        <v>34935</v>
+      </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1167582.5</v>
       </c>
     </row>
     <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="184"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="185">
+        <v>42175</v>
+      </c>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
+        <v>1209757.5</v>
       </c>
     </row>
     <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="184"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="185"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1209757.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="184"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="185"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>704057.5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1209757.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="181" t="s">
         <v>96</v>
       </c>
@@ -6636,31 +6731,31 @@
       </c>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>-506636.18999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-936.18999999994412</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35" s="179">
         <f t="shared" si="0"/>
-        <v>-506636.18999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-936.18999999994412</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB39" s="178"/>
     </row>
-    <row r="40" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB40" s="178"/>
     </row>
-    <row r="41" spans="3:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB41" s="178"/>
     </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
       <c r="AB42" s="178"/>
     </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R43" s="121"/>
       <c r="S43" s="121"/>
       <c r="T43" s="121"/>
@@ -6671,7 +6766,7 @@
       <c r="Y43" s="121"/>
       <c r="AB43" s="178"/>
     </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R44" s="121"/>
       <c r="S44" s="121"/>
       <c r="T44" s="121"/>
@@ -6685,7 +6780,7 @@
       <c r="AB44" s="178"/>
       <c r="AC44" s="60"/>
     </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R45" s="121"/>
       <c r="S45" s="121"/>
       <c r="T45" s="121"/>
@@ -6699,7 +6794,7 @@
       <c r="AB45" s="178"/>
       <c r="AC45" s="60"/>
     </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R46" s="121"/>
       <c r="S46" s="121"/>
       <c r="T46" s="121"/>
@@ -6713,7 +6808,7 @@
       <c r="AB46" s="178"/>
       <c r="AC46" s="60"/>
     </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R47" s="121"/>
       <c r="S47" s="121"/>
       <c r="T47" s="121"/>
@@ -6727,7 +6822,7 @@
       <c r="AB47" s="178"/>
       <c r="AC47" s="60"/>
     </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R48" s="121"/>
       <c r="S48" s="121"/>
       <c r="T48" s="121"/>
@@ -6908,8 +7003,8 @@
       <c r="AC62" s="121"/>
     </row>
     <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB63" s="197"/>
-      <c r="AC63" s="198"/>
+      <c r="AB63" s="201"/>
+      <c r="AC63" s="202"/>
     </row>
     <row r="68" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB68" s="54"/>
@@ -6933,8 +7028,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6951,25 +7046,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7127,43 +7222,61 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12">
+        <v>44749</v>
+      </c>
       <c r="B10" s="13">
         <v>419</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="20">
+        <v>12052</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12052</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12">
+        <v>44750</v>
+      </c>
       <c r="B11" s="13">
         <v>420</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="20">
+        <v>12144</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12">
+        <v>44750</v>
+      </c>
       <c r="B12" s="13">
         <v>421</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="18">
@@ -7172,123 +7285,171 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>44750</v>
+      </c>
       <c r="B13" s="13">
         <v>422</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="20">
+        <v>30086</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30086</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>44751</v>
+      </c>
       <c r="B14" s="13">
         <v>423</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="20">
+        <v>15014</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15014</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>44751</v>
+      </c>
       <c r="B15" s="13">
         <v>424</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1550</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>44751</v>
+      </c>
       <c r="B16" s="13">
         <v>425</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1550</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12">
+        <v>44751</v>
+      </c>
       <c r="B17" s="13">
         <v>426</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="20">
+        <v>409</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>44751</v>
+      </c>
       <c r="B18" s="13">
         <v>427</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="20">
+        <v>159350</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159350</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>44751</v>
+      </c>
       <c r="B19" s="13">
         <v>428</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1704</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>44752</v>
+      </c>
       <c r="B20" s="13">
         <v>429</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1395</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7664,7 +7825,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="39">
         <f>SUM(E4:E45)</f>
-        <v>145134</v>
+        <v>380388</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39">
@@ -7673,7 +7834,7 @@
       </c>
       <c r="H46" s="40">
         <f>SUM(H4:H45)</f>
-        <v>145134</v>
+        <v>380388</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -7715,12 +7876,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="183">
+      <c r="E50" s="187">
         <f>E46-G46</f>
-        <v>145134</v>
-      </c>
-      <c r="F50" s="184"/>
-      <c r="G50" s="185"/>
+        <v>380388</v>
+      </c>
+      <c r="F50" s="188"/>
+      <c r="G50" s="189"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -7736,11 +7897,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="186" t="s">
+      <c r="E52" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="190"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -7955,25 +8116,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="193"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9703,12 +9864,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="183">
+      <c r="E76" s="187">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="184"/>
-      <c r="G76" s="185"/>
+      <c r="F76" s="188"/>
+      <c r="G76" s="189"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9724,11 +9885,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="186" t="s">
+      <c r="E78" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="186"/>
-      <c r="G78" s="186"/>
+      <c r="F78" s="190"/>
+      <c r="G78" s="190"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -9869,25 +10030,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="189"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="193"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10736,12 +10897,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="183">
+      <c r="E41" s="187">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="184"/>
-      <c r="G41" s="185"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="189"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10757,11 +10918,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="186" t="s">
+      <c r="E43" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="190"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10905,25 +11066,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12263,12 +12424,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="183">
+      <c r="E60" s="187">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="184"/>
-      <c r="G60" s="185"/>
+      <c r="F60" s="188"/>
+      <c r="G60" s="189"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -12284,11 +12445,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="186" t="s">
+      <c r="E62" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="190"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -12429,25 +12590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13848,12 +14009,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="183">
+      <c r="E61" s="187">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="184"/>
-      <c r="G61" s="185"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="189"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -13869,11 +14030,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="186" t="s">
+      <c r="E63" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="186"/>
-      <c r="G63" s="186"/>
+      <c r="F63" s="190"/>
+      <c r="G63" s="190"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -14014,25 +14175,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15482,12 +15643,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="183">
+      <c r="E64" s="187">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="184"/>
-      <c r="G64" s="185"/>
+      <c r="F64" s="188"/>
+      <c r="G64" s="189"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15503,11 +15664,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="186" t="s">
+      <c r="E66" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="186"/>
-      <c r="G66" s="186"/>
+      <c r="F66" s="190"/>
+      <c r="G66" s="190"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15648,25 +15809,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17067,12 +17228,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="183">
+      <c r="E65" s="187">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="184"/>
-      <c r="G65" s="185"/>
+      <c r="F65" s="188"/>
+      <c r="G65" s="189"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17088,11 +17249,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="186" t="s">
+      <c r="E67" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
+      <c r="F67" s="190"/>
+      <c r="G67" s="190"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -17274,25 +17435,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="192"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18171,12 +18332,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="183">
+      <c r="E43" s="187">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="184"/>
-      <c r="G43" s="185"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="189"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -18192,11 +18353,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="186" t="s">
+      <c r="E45" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="186"/>
-      <c r="G45" s="186"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -18382,18 +18543,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="193"/>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
+      <c r="A1" s="197"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -19632,11 +19793,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="195">
+      <c r="K63" s="199">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="196"/>
+      <c r="L63" s="200"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="102">
   <si>
     <t>REMISION</t>
   </si>
@@ -500,6 +500,9 @@
   <si>
     <t>ABASTOS 11 SUR</t>
   </si>
+  <si>
+    <t>ABASTO ZAVALETA</t>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +515,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +703,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFCC0099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1062,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1443,6 +1454,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3192,24 +3207,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="195"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4355,12 +4370,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="187">
+      <c r="D55" s="189">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="188"/>
-      <c r="F55" s="189"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="191"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4374,11 +4389,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="190" t="s">
+      <c r="D57" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="190"/>
-      <c r="F57" s="190"/>
+      <c r="E57" s="192"/>
+      <c r="F57" s="192"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4507,25 +4522,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5515,12 +5530,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="187">
+      <c r="E50" s="189">
         <f>E46-G46</f>
         <v>475134</v>
       </c>
-      <c r="F50" s="188"/>
-      <c r="G50" s="189"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="191"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5536,11 +5551,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="190" t="s">
+      <c r="E52" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="190"/>
-      <c r="G52" s="190"/>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5707,7 +5722,7 @@
   <dimension ref="B1:AJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C27" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5737,18 +5752,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="197"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -6391,18 +6406,21 @@
       <c r="C19" s="136">
         <v>44747</v>
       </c>
-      <c r="D19" s="77">
-        <v>62065.5</v>
+      <c r="D19" s="187">
+        <v>0</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>766123</v>
+        <v>704057.5</v>
+      </c>
+      <c r="F19" s="186" t="s">
+        <v>101</v>
       </c>
       <c r="S19" s="130"/>
-      <c r="T19" s="203" t="s">
+      <c r="T19" s="205" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="204"/>
+      <c r="U19" s="206"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -6431,7 +6449,7 @@
       </c>
       <c r="E20" s="20">
         <f t="shared" si="0"/>
-        <v>791165</v>
+        <v>729099.5</v>
       </c>
       <c r="R20" s="121"/>
       <c r="S20" s="130"/>
@@ -6468,7 +6486,7 @@
       </c>
       <c r="E21" s="20">
         <f t="shared" si="0"/>
-        <v>825915</v>
+        <v>763849.5</v>
       </c>
       <c r="R21" s="121"/>
       <c r="S21" s="130"/>
@@ -6505,7 +6523,7 @@
       </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>872998</v>
+        <v>810932.5</v>
       </c>
       <c r="R22" s="121"/>
       <c r="S22" s="130"/>
@@ -6542,7 +6560,7 @@
       </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>960634</v>
+        <v>898568.5</v>
       </c>
       <c r="R23" s="121"/>
       <c r="S23" s="130"/>
@@ -6576,7 +6594,7 @@
       </c>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>1004134</v>
+        <v>942068.5</v>
       </c>
       <c r="R24" s="121"/>
       <c r="S24" s="130"/>
@@ -6610,7 +6628,7 @@
       </c>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>1004334</v>
+        <v>942268.5</v>
       </c>
       <c r="R25" s="121"/>
       <c r="S25" s="130"/>
@@ -6637,7 +6655,7 @@
       </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>1042917.5</v>
+        <v>980852</v>
       </c>
       <c r="S26" s="157"/>
       <c r="T26" s="157"/>
@@ -6657,7 +6675,7 @@
       <c r="D27" s="185"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>1042917.5</v>
+        <v>980852</v>
       </c>
     </row>
     <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -6668,7 +6686,7 @@
       </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1091923.5</v>
+        <v>1029858</v>
       </c>
     </row>
     <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -6679,7 +6697,7 @@
       </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1132647.5</v>
+        <v>1070582</v>
       </c>
     </row>
     <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -6690,7 +6708,7 @@
       </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1167582.5</v>
+        <v>1105517</v>
       </c>
     </row>
     <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -6701,7 +6719,7 @@
       </c>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1209757.5</v>
+        <v>1147692</v>
       </c>
     </row>
     <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -6710,7 +6728,7 @@
       <c r="D32" s="185"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1209757.5</v>
+        <v>1147692</v>
       </c>
     </row>
     <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -6719,7 +6737,7 @@
       <c r="D33" s="185"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1209757.5</v>
+        <v>1147692</v>
       </c>
     </row>
     <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -6731,13 +6749,13 @@
       </c>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>-936.18999999994412</v>
+        <v>-63001.689999999944</v>
       </c>
     </row>
     <row r="35" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E35" s="179">
         <f t="shared" si="0"/>
-        <v>-936.18999999994412</v>
+        <v>-63001.689999999944</v>
       </c>
     </row>
     <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7003,8 +7021,8 @@
       <c r="AC62" s="121"/>
     </row>
     <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB63" s="201"/>
-      <c r="AC63" s="202"/>
+      <c r="AB63" s="203"/>
+      <c r="AC63" s="204"/>
     </row>
     <row r="68" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB68" s="54"/>
@@ -7046,25 +7064,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7876,12 +7894,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="187">
+      <c r="E50" s="189">
         <f>E46-G46</f>
         <v>380388</v>
       </c>
-      <c r="F50" s="188"/>
-      <c r="G50" s="189"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="191"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -7897,11 +7915,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="190" t="s">
+      <c r="E52" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="190"/>
-      <c r="G52" s="190"/>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8116,25 +8134,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9864,12 +9882,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="187">
+      <c r="E76" s="189">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="188"/>
-      <c r="G76" s="189"/>
+      <c r="F76" s="190"/>
+      <c r="G76" s="191"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9885,11 +9903,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="190" t="s">
+      <c r="E78" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="190"/>
-      <c r="G78" s="190"/>
+      <c r="F78" s="192"/>
+      <c r="G78" s="192"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10030,25 +10048,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="193"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10897,12 +10915,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="187">
+      <c r="E41" s="189">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="191"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10918,11 +10936,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="190" t="s">
+      <c r="E43" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="190"/>
-      <c r="G43" s="190"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="192"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -11066,25 +11084,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12424,12 +12442,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="187">
+      <c r="E60" s="189">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="188"/>
-      <c r="G60" s="189"/>
+      <c r="F60" s="190"/>
+      <c r="G60" s="191"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -12445,11 +12463,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="190" t="s">
+      <c r="E62" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="190"/>
-      <c r="G62" s="190"/>
+      <c r="F62" s="192"/>
+      <c r="G62" s="192"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -12590,25 +12608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14009,12 +14027,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="187">
+      <c r="E61" s="189">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="188"/>
-      <c r="G61" s="189"/>
+      <c r="F61" s="190"/>
+      <c r="G61" s="191"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -14030,11 +14048,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="190" t="s">
+      <c r="E63" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="190"/>
-      <c r="G63" s="190"/>
+      <c r="F63" s="192"/>
+      <c r="G63" s="192"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -14175,25 +14193,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15643,12 +15661,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="187">
+      <c r="E64" s="189">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="188"/>
-      <c r="G64" s="189"/>
+      <c r="F64" s="190"/>
+      <c r="G64" s="191"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15664,11 +15682,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="190" t="s">
+      <c r="E66" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="190"/>
-      <c r="G66" s="190"/>
+      <c r="F66" s="192"/>
+      <c r="G66" s="192"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15809,25 +15827,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17228,12 +17246,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="187">
+      <c r="E65" s="189">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="188"/>
-      <c r="G65" s="189"/>
+      <c r="F65" s="190"/>
+      <c r="G65" s="191"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17249,11 +17267,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="190" t="s">
+      <c r="E67" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="190"/>
-      <c r="G67" s="190"/>
+      <c r="F67" s="192"/>
+      <c r="G67" s="192"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -17435,25 +17453,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18332,12 +18350,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="187">
+      <c r="E43" s="189">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="188"/>
-      <c r="G43" s="189"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="191"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -18353,11 +18371,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="190" t="s">
+      <c r="E45" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -18543,18 +18561,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="197"/>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
+      <c r="A1" s="199"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -19793,11 +19811,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="199">
+      <c r="K63" s="201">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="200"/>
+      <c r="L63" s="202"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="103">
   <si>
     <t>REMISION</t>
   </si>
@@ -503,6 +503,9 @@
   <si>
     <t>ABASTO ZAVALETA</t>
   </si>
+  <si>
+    <t>SE APLICO PAGO 18-Julio-2022</t>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +518,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +718,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -814,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1068,12 +1079,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1441,7 +1514,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1514,6 +1586,26 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1774,15 +1866,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>81169</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9938</xdr:rowOff>
+      <xdr:colOff>23190</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>509068</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:colOff>451089</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>284922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1799,7 +1891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16927995" y="250134"/>
+          <a:off x="25078081" y="0"/>
           <a:ext cx="8147291" cy="10074965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1811,14 +1903,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>347868</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621194</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101756</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1716865</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104144</xdr:rowOff>
     </xdr:to>
@@ -1837,7 +1929,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5971759" y="0"/>
+          <a:off x="5582477" y="0"/>
           <a:ext cx="10885714" cy="8361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1956,6 +2048,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447048</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="381000"/>
+          <a:ext cx="5019048" cy="6914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3207,24 +3342,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="195"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="194"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4370,12 +4505,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="189">
+      <c r="D55" s="188">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="190"/>
-      <c r="F55" s="191"/>
+      <c r="E55" s="189"/>
+      <c r="F55" s="190"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4389,11 +4524,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="192" t="s">
+      <c r="D57" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="192"/>
-      <c r="F57" s="192"/>
+      <c r="E57" s="191"/>
+      <c r="F57" s="191"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,25 +4657,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5530,12 +5665,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="189">
+      <c r="E50" s="188">
         <f>E46-G46</f>
         <v>475134</v>
       </c>
-      <c r="F50" s="190"/>
-      <c r="G50" s="191"/>
+      <c r="F50" s="189"/>
+      <c r="G50" s="190"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5551,11 +5686,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="192" t="s">
+      <c r="E52" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5719,10 +5854,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:AJ68"/>
+  <dimension ref="B1:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C26:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I37" sqref="I36:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5752,18 +5887,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="199"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -5958,7 +6093,7 @@
         <v>43790.5</v>
       </c>
       <c r="E7" s="20">
-        <f t="shared" ref="E7:E35" si="0">E6+D7</f>
+        <f t="shared" ref="E7:E36" si="0">E6+D7</f>
         <v>123411</v>
       </c>
       <c r="S7" s="130">
@@ -6406,21 +6541,21 @@
       <c r="C19" s="136">
         <v>44747</v>
       </c>
-      <c r="D19" s="187">
+      <c r="D19" s="186">
         <v>0</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>704057.5</v>
       </c>
-      <c r="F19" s="186" t="s">
+      <c r="F19" s="185" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="130"/>
-      <c r="T19" s="205" t="s">
+      <c r="T19" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="206"/>
+      <c r="U19" s="205"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -6617,7 +6752,7 @@
       <c r="AJ24" s="121"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="182">
+      <c r="B25" s="181">
         <v>44751</v>
       </c>
       <c r="C25" s="136">
@@ -6644,13 +6779,13 @@
       <c r="AC25" s="60"/>
     </row>
     <row r="26" spans="2:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="184">
+      <c r="B26" s="183">
         <v>44752</v>
       </c>
-      <c r="C26" s="183">
+      <c r="C26" s="182">
         <v>44753</v>
       </c>
-      <c r="D26" s="185">
+      <c r="D26" s="184">
         <v>38583.5</v>
       </c>
       <c r="E26" s="20">
@@ -6670,18 +6805,18 @@
       <c r="AC26" s="157"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="184"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="185"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="184"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
         <v>980852</v>
       </c>
     </row>
     <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="184"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="185">
+      <c r="B28" s="183"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="184">
         <v>49006</v>
       </c>
       <c r="E28" s="20">
@@ -6690,9 +6825,9 @@
       </c>
     </row>
     <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="184"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="185">
+      <c r="B29" s="183"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="184">
         <v>40724</v>
       </c>
       <c r="E29" s="20">
@@ -6701,20 +6836,23 @@
       </c>
     </row>
     <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="184"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="185">
+      <c r="B30" s="183"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="184">
         <v>34935</v>
       </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>1105517</v>
       </c>
+      <c r="N30" s="114" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="184"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="185">
+      <c r="B31" s="183"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="184">
         <v>42175</v>
       </c>
       <c r="E31" s="20">
@@ -6723,65 +6861,78 @@
       </c>
     </row>
     <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="184"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="185"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="206">
+        <v>936.5</v>
+      </c>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1147692</v>
+        <v>1148628.5</v>
       </c>
     </row>
     <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="184"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="185"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="206">
+        <v>61056</v>
+      </c>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1147692</v>
+        <v>1209684.5</v>
       </c>
     </row>
     <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="181" t="s">
+      <c r="B34" s="183"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="206">
+        <v>1009.5</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>1210694</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="180">
+      <c r="D35" s="179">
         <v>-1210693.69</v>
       </c>
-      <c r="E34" s="20">
-        <f t="shared" si="0"/>
-        <v>-63001.689999999944</v>
-      </c>
-    </row>
-    <row r="35" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="179">
-        <f t="shared" si="0"/>
-        <v>-63001.689999999944</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>0.31000000005587935</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="208" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="209"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="207">
+        <f t="shared" si="0"/>
+        <v>0.31000000005587935</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="211"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="213"/>
+    </row>
     <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB39" s="178"/>
-    </row>
+    <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB40" s="178"/>
     </row>
     <row r="41" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB41" s="178"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AB42" s="178"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
       <c r="AB43" s="178"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.3">
@@ -6793,10 +6944,7 @@
       <c r="W44" s="121"/>
       <c r="X44" s="121"/>
       <c r="Y44" s="121"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="137"/>
       <c r="AB44" s="178"/>
-      <c r="AC44" s="60"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R45" s="121"/>
@@ -7009,29 +7157,44 @@
       <c r="AC59" s="60"/>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R60" s="121"/>
+      <c r="S60" s="121"/>
+      <c r="T60" s="121"/>
+      <c r="U60" s="121"/>
+      <c r="V60" s="121"/>
+      <c r="W60" s="121"/>
+      <c r="X60" s="121"/>
+      <c r="Y60" s="121"/>
+      <c r="Z60" s="101"/>
+      <c r="AA60" s="137"/>
       <c r="AB60" s="178"/>
       <c r="AC60" s="60"/>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.3">
       <c r="AB61" s="178"/>
-      <c r="AC61" s="129"/>
-    </row>
-    <row r="62" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC61" s="60"/>
+    </row>
+    <row r="62" spans="18:29" x14ac:dyDescent="0.3">
       <c r="AB62" s="178"/>
-      <c r="AC62" s="121"/>
+      <c r="AC62" s="129"/>
     </row>
     <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB63" s="203"/>
-      <c r="AC63" s="204"/>
-    </row>
-    <row r="68" spans="28:28" x14ac:dyDescent="0.3">
-      <c r="AB68" s="54"/>
+      <c r="AB63" s="178"/>
+      <c r="AC63" s="121"/>
+    </row>
+    <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB64" s="202"/>
+      <c r="AC64" s="203"/>
+    </row>
+    <row r="69" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB69" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="R1:AC1"/>
-    <mergeCell ref="AB63:AC63"/>
+    <mergeCell ref="AB64:AC64"/>
     <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7064,25 +7227,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7894,12 +8057,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="189">
+      <c r="E50" s="188">
         <f>E46-G46</f>
         <v>380388</v>
       </c>
-      <c r="F50" s="190"/>
-      <c r="G50" s="191"/>
+      <c r="F50" s="189"/>
+      <c r="G50" s="190"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -7915,11 +8078,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="192" t="s">
+      <c r="E52" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8082,11 +8245,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M8:M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8134,25 +8300,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="194"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9882,12 +10048,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="189">
+      <c r="E76" s="188">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="190"/>
-      <c r="G76" s="191"/>
+      <c r="F76" s="189"/>
+      <c r="G76" s="190"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9903,11 +10069,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="192" t="s">
+      <c r="E78" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="192"/>
-      <c r="G78" s="192"/>
+      <c r="F78" s="191"/>
+      <c r="G78" s="191"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10048,25 +10214,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="193" t="s">
+      <c r="B1" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="195"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="194"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10915,12 +11081,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="189">
+      <c r="E41" s="188">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="190"/>
-      <c r="G41" s="191"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="190"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10936,11 +11102,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="192" t="s">
+      <c r="E43" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="192"/>
-      <c r="G43" s="192"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -11084,25 +11250,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12442,12 +12608,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="189">
+      <c r="E60" s="188">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="190"/>
-      <c r="G60" s="191"/>
+      <c r="F60" s="189"/>
+      <c r="G60" s="190"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -12463,11 +12629,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="192" t="s">
+      <c r="E62" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="192"/>
-      <c r="G62" s="192"/>
+      <c r="F62" s="191"/>
+      <c r="G62" s="191"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -12608,25 +12774,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14027,12 +14193,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="189">
+      <c r="E61" s="188">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="190"/>
-      <c r="G61" s="191"/>
+      <c r="F61" s="189"/>
+      <c r="G61" s="190"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -14048,11 +14214,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="192" t="s">
+      <c r="E63" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="192"/>
-      <c r="G63" s="192"/>
+      <c r="F63" s="191"/>
+      <c r="G63" s="191"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -14193,25 +14359,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15661,12 +15827,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="189">
+      <c r="E64" s="188">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="190"/>
-      <c r="G64" s="191"/>
+      <c r="F64" s="189"/>
+      <c r="G64" s="190"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15682,11 +15848,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="192" t="s">
+      <c r="E66" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="192"/>
-      <c r="G66" s="192"/>
+      <c r="F66" s="191"/>
+      <c r="G66" s="191"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15827,25 +15993,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17246,12 +17412,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="189">
+      <c r="E65" s="188">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="190"/>
-      <c r="G65" s="191"/>
+      <c r="F65" s="189"/>
+      <c r="G65" s="190"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17267,11 +17433,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="192" t="s">
+      <c r="E67" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="192"/>
-      <c r="G67" s="192"/>
+      <c r="F67" s="191"/>
+      <c r="G67" s="191"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -17453,25 +17619,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="198"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="197"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18350,12 +18516,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="189">
+      <c r="E43" s="188">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="190"/>
-      <c r="G43" s="191"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="190"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -18371,11 +18537,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="192" t="s">
+      <c r="E45" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="192"/>
-      <c r="G45" s="192"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -18538,8 +18704,8 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -18555,24 +18721,24 @@
     <col min="13" max="13" width="11.42578125" style="142"/>
     <col min="14" max="15" width="11.42578125" style="114"/>
     <col min="16" max="16" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="114"/>
+    <col min="17" max="17" width="12.140625" style="114" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="11.42578125" style="114"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="199"/>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
+      <c r="A1" s="198"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -19811,11 +19977,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="201">
+      <c r="K63" s="200">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="202"/>
+      <c r="L63" s="201"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="103">
   <si>
     <t>REMISION</t>
   </si>
@@ -1530,6 +1530,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1587,8 +1589,6 @@
     <xf numFmtId="164" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="15" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3342,24 +3342,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="196"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4505,12 +4505,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="188">
+      <c r="D55" s="190">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="189"/>
-      <c r="F55" s="190"/>
+      <c r="E55" s="191"/>
+      <c r="F55" s="192"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4524,11 +4524,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="191" t="s">
+      <c r="D57" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="191"/>
-      <c r="F57" s="191"/>
+      <c r="E57" s="193"/>
+      <c r="F57" s="193"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4657,25 +4657,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5665,12 +5665,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="188">
+      <c r="E50" s="190">
         <f>E46-G46</f>
         <v>475134</v>
       </c>
-      <c r="F50" s="189"/>
-      <c r="G50" s="190"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5686,11 +5686,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="191" t="s">
+      <c r="E52" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191"/>
+      <c r="F52" s="193"/>
+      <c r="G52" s="193"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5856,8 +5856,8 @@
   </sheetPr>
   <dimension ref="B1:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I37" sqref="I36:I37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5887,18 +5887,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="198"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -6552,10 +6552,10 @@
         <v>101</v>
       </c>
       <c r="S19" s="130"/>
-      <c r="T19" s="204" t="s">
+      <c r="T19" s="206" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="205"/>
+      <c r="U19" s="207"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -6863,7 +6863,7 @@
     <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="183"/>
       <c r="C32" s="182"/>
-      <c r="D32" s="206">
+      <c r="D32" s="187">
         <v>936.5</v>
       </c>
       <c r="E32" s="20">
@@ -6874,7 +6874,7 @@
     <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="183"/>
       <c r="C33" s="182"/>
-      <c r="D33" s="206">
+      <c r="D33" s="187">
         <v>61056</v>
       </c>
       <c r="E33" s="20">
@@ -6885,7 +6885,7 @@
     <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="183"/>
       <c r="C34" s="182"/>
-      <c r="D34" s="206">
+      <c r="D34" s="187">
         <v>1009.5</v>
       </c>
       <c r="E34" s="20">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="C36" s="209"/>
       <c r="D36" s="210"/>
-      <c r="E36" s="207">
+      <c r="E36" s="188">
         <f t="shared" si="0"/>
         <v>0.31000000005587935</v>
       </c>
@@ -7183,8 +7183,8 @@
       <c r="AC63" s="121"/>
     </row>
     <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB64" s="202"/>
-      <c r="AC64" s="203"/>
+      <c r="AB64" s="204"/>
+      <c r="AC64" s="205"/>
     </row>
     <row r="69" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB69" s="54"/>
@@ -7209,8 +7209,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7227,25 +7227,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7353,11 +7353,15 @@
       <c r="E7" s="20">
         <v>1461</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="21">
+        <v>44755</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1461</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>1461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -7521,11 +7525,15 @@
       <c r="E15" s="20">
         <v>1550</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="69">
+        <v>44753</v>
+      </c>
+      <c r="G15" s="70">
+        <v>1550</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -7542,11 +7550,15 @@
       <c r="E16" s="20">
         <v>1550</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="21">
+        <v>44754</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1550</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>1550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -7634,108 +7646,150 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>44753</v>
+      </c>
       <c r="B21" s="13">
         <v>430</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="20">
+        <v>12784</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44753</v>
+      </c>
       <c r="B22" s="13">
         <v>431</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="20">
+        <v>155040</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155040</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44754</v>
+      </c>
       <c r="B23" s="13">
         <v>432</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="20">
+        <v>103870</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103870</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44755</v>
+      </c>
       <c r="B24" s="13">
         <v>433</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1512</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44755</v>
+      </c>
       <c r="B25" s="13">
         <v>434</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="20">
+        <v>20000</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44756</v>
+      </c>
       <c r="B26" s="13">
         <v>435</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="20">
+        <v>43214</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43214</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44758</v>
+      </c>
       <c r="B27" s="13">
         <v>436</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="20">
+        <v>5000</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -8006,16 +8060,16 @@
       <c r="D46" s="2"/>
       <c r="E46" s="39">
         <f>SUM(E4:E45)</f>
-        <v>380388</v>
+        <v>721808</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39">
         <f>SUM(G4:G45)</f>
-        <v>0</v>
+        <v>4561</v>
       </c>
       <c r="H46" s="40">
         <f>SUM(H4:H45)</f>
-        <v>380388</v>
+        <v>717247</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -8057,12 +8111,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="188">
+      <c r="E50" s="190">
         <f>E46-G46</f>
-        <v>380388</v>
-      </c>
-      <c r="F50" s="189"/>
-      <c r="G50" s="190"/>
+        <v>717247</v>
+      </c>
+      <c r="F50" s="191"/>
+      <c r="G50" s="192"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -8078,11 +8132,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="191" t="s">
+      <c r="E52" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191"/>
+      <c r="F52" s="193"/>
+      <c r="G52" s="193"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8300,25 +8354,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10048,12 +10102,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="188">
+      <c r="E76" s="190">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="189"/>
-      <c r="G76" s="190"/>
+      <c r="F76" s="191"/>
+      <c r="G76" s="192"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -10069,11 +10123,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="191" t="s">
+      <c r="E78" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="191"/>
-      <c r="G78" s="191"/>
+      <c r="F78" s="193"/>
+      <c r="G78" s="193"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10214,25 +10268,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="194"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="196"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11081,12 +11135,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="188">
+      <c r="E41" s="190">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="189"/>
-      <c r="G41" s="190"/>
+      <c r="F41" s="191"/>
+      <c r="G41" s="192"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -11102,11 +11156,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="191" t="s">
+      <c r="E43" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -11250,25 +11304,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12608,12 +12662,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="188">
+      <c r="E60" s="190">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="189"/>
-      <c r="G60" s="190"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="192"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -12629,11 +12683,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="191" t="s">
+      <c r="E62" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="191"/>
-      <c r="G62" s="191"/>
+      <c r="F62" s="193"/>
+      <c r="G62" s="193"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -12774,25 +12828,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14193,12 +14247,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="188">
+      <c r="E61" s="190">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="189"/>
-      <c r="G61" s="190"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="192"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -14214,11 +14268,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="191" t="s">
+      <c r="E63" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="191"/>
-      <c r="G63" s="191"/>
+      <c r="F63" s="193"/>
+      <c r="G63" s="193"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -14359,25 +14413,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15827,12 +15881,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="188">
+      <c r="E64" s="190">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="189"/>
-      <c r="G64" s="190"/>
+      <c r="F64" s="191"/>
+      <c r="G64" s="192"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15848,11 +15902,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="191" t="s">
+      <c r="E66" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="191"/>
-      <c r="G66" s="191"/>
+      <c r="F66" s="193"/>
+      <c r="G66" s="193"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15993,25 +16047,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17412,12 +17466,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="188">
+      <c r="E65" s="190">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="189"/>
-      <c r="G65" s="190"/>
+      <c r="F65" s="191"/>
+      <c r="G65" s="192"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17433,11 +17487,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="191" t="s">
+      <c r="E67" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="191"/>
-      <c r="G67" s="191"/>
+      <c r="F67" s="193"/>
+      <c r="G67" s="193"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -17619,25 +17673,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="197"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="199"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18516,12 +18570,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="188">
+      <c r="E43" s="190">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="189"/>
-      <c r="G43" s="190"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="192"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -18537,11 +18591,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="191" t="s">
+      <c r="E45" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="193"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -18727,18 +18781,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="198"/>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
+      <c r="A1" s="200"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -19977,11 +20031,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="200">
+      <c r="K63" s="202">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="201"/>
+      <c r="L63" s="203"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="REMISIONES  MAYO   2022   " sheetId="14" r:id="rId8"/>
     <sheet name="DEPOSITOS   ODELPA   Y  NORMA L" sheetId="8" r:id="rId9"/>
     <sheet name="  REMISIONES   JUNIO  2022   " sheetId="5" r:id="rId10"/>
-    <sheet name="DEPOSITOS A NORMA LEDO  central" sheetId="17" r:id="rId11"/>
+    <sheet name="DEPOSITOS A ODELPA   De Zavalet" sheetId="17" r:id="rId11"/>
     <sheet name="  REMISIONES    JULIO   2022   " sheetId="9" r:id="rId12"/>
-    <sheet name="Hoja5" sheetId="10" r:id="rId13"/>
-    <sheet name="Hoja4" sheetId="16" r:id="rId14"/>
+    <sheet name="DEPOSITOS A ODELPA   Zavaleta  " sheetId="16" r:id="rId13"/>
+    <sheet name="Hoja5" sheetId="10" r:id="rId14"/>
+    <sheet name="Hoja1" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="106">
   <si>
     <t>REMISION</t>
   </si>
@@ -506,6 +507,15 @@
   <si>
     <t>SE APLICO PAGO 18-Julio-2022</t>
   </si>
+  <si>
+    <t>SE APLICO PAGO ????</t>
+  </si>
+  <si>
+    <t>23-,Julio-2022</t>
+  </si>
+  <si>
+    <t>abastos Zav</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +528,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +732,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF990033"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1146,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1532,6 +1550,14 @@
     <xf numFmtId="44" fontId="2" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="15" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,6 +1633,24 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1616,14 +1660,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF990033"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF990033"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
     </mruColors>
@@ -1948,13 +1992,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2001,13 +2045,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2057,16 +2101,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23190</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447048</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>56286</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>451089</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,8 +2127,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="381000"/>
-          <a:ext cx="5019048" cy="6914286"/>
+          <a:off x="25083465" y="0"/>
+          <a:ext cx="8143149" cy="10048047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>610186</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>260465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="0"/>
+          <a:ext cx="7028571" cy="8847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3342,24 +3424,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="196"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="200"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4505,12 +4587,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="190">
+      <c r="D55" s="194">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="191"/>
-      <c r="F55" s="192"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="196"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4524,11 +4606,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="193" t="s">
+      <c r="D57" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="193"/>
-      <c r="F57" s="193"/>
+      <c r="E57" s="197"/>
+      <c r="F57" s="197"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4657,25 +4739,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5665,12 +5747,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="190">
+      <c r="E50" s="194">
         <f>E46-G46</f>
         <v>475134</v>
       </c>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="196"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5686,11 +5768,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="193" t="s">
+      <c r="E52" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
+      <c r="F52" s="197"/>
+      <c r="G52" s="197"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5856,8 +5938,8 @@
   </sheetPr>
   <dimension ref="B1:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5887,18 +5969,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="200"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -6552,10 +6634,10 @@
         <v>101</v>
       </c>
       <c r="S19" s="130"/>
-      <c r="T19" s="206" t="s">
+      <c r="T19" s="210" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="207"/>
+      <c r="U19" s="211"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -6805,89 +6887,117 @@
       <c r="AC26" s="157"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="183"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="184"/>
+      <c r="B27" s="183">
+        <v>44753</v>
+      </c>
+      <c r="C27" s="182">
+        <v>44757</v>
+      </c>
+      <c r="D27" s="184">
+        <v>42175</v>
+      </c>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>980852</v>
+        <v>1023027</v>
       </c>
     </row>
     <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="183"/>
-      <c r="C28" s="182"/>
+      <c r="B28" s="183">
+        <v>44754</v>
+      </c>
+      <c r="C28" s="182">
+        <v>44757</v>
+      </c>
       <c r="D28" s="184">
-        <v>49006</v>
+        <v>34935</v>
       </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>1029858</v>
+        <v>1057962</v>
       </c>
     </row>
     <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="183"/>
-      <c r="C29" s="182"/>
+      <c r="B29" s="183">
+        <v>44755</v>
+      </c>
+      <c r="C29" s="182">
+        <v>44757</v>
+      </c>
       <c r="D29" s="184">
         <v>40724</v>
       </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1070582</v>
+        <v>1098686</v>
       </c>
     </row>
     <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="183"/>
-      <c r="C30" s="182"/>
+      <c r="B30" s="183">
+        <v>44756</v>
+      </c>
+      <c r="C30" s="182">
+        <v>44757</v>
+      </c>
       <c r="D30" s="184">
-        <v>34935</v>
+        <v>49006</v>
       </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1105517</v>
+        <v>1147692</v>
       </c>
       <c r="N30" s="114" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="183"/>
-      <c r="C31" s="182"/>
+      <c r="B31" s="183">
+        <v>44757</v>
+      </c>
+      <c r="C31" s="182">
+        <v>44760</v>
+      </c>
       <c r="D31" s="184">
-        <v>42175</v>
+        <v>61056</v>
       </c>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1147692</v>
+        <v>1208748</v>
       </c>
     </row>
     <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="183"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="187">
+      <c r="B32" s="183">
+        <v>44757</v>
+      </c>
+      <c r="C32" s="182">
+        <v>44760</v>
+      </c>
+      <c r="D32" s="189">
         <v>936.5</v>
       </c>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1148628.5</v>
+        <v>1209684.5</v>
       </c>
     </row>
     <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="183"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="187">
-        <v>61056</v>
+      <c r="B33" s="183">
+        <v>44758</v>
+      </c>
+      <c r="C33" s="182">
+        <v>44760</v>
+      </c>
+      <c r="D33" s="189">
+        <v>1009.5</v>
       </c>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1209684.5</v>
+        <v>1210694</v>
       </c>
     </row>
     <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="183"/>
       <c r="C34" s="182"/>
-      <c r="D34" s="187">
-        <v>1009.5</v>
-      </c>
+      <c r="D34" s="187"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
         <v>1210694</v>
@@ -6906,20 +7016,20 @@
       </c>
     </row>
     <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="208" t="s">
+      <c r="B36" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="210"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="214"/>
       <c r="E36" s="188">
         <f t="shared" si="0"/>
         <v>0.31000000005587935</v>
       </c>
     </row>
     <row r="37" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="211"/>
-      <c r="C37" s="212"/>
-      <c r="D37" s="213"/>
+      <c r="B37" s="215"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="217"/>
     </row>
     <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7183,8 +7293,8 @@
       <c r="AC63" s="121"/>
     </row>
     <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB64" s="204"/>
-      <c r="AC64" s="205"/>
+      <c r="AB64" s="208"/>
+      <c r="AC64" s="209"/>
     </row>
     <row r="69" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB69" s="54"/>
@@ -7207,10 +7317,10 @@
   <sheetPr>
     <tabColor rgb="FF66FFFF"/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7227,25 +7337,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7292,7 +7402,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H45" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H65" si="0">E4-G4</f>
         <v>6477</v>
       </c>
       <c r="I4" s="2"/>
@@ -7378,11 +7488,15 @@
       <c r="E8" s="20">
         <v>29414</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="21">
+        <v>44762</v>
+      </c>
+      <c r="G8" s="22">
+        <v>29414</v>
+      </c>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>29414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -7638,11 +7752,15 @@
       <c r="E20" s="20">
         <v>1395</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="21">
+        <v>44765</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1395</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>1395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7722,11 +7840,15 @@
       <c r="E24" s="20">
         <v>1512</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="21">
+        <v>44744</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1512</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>1512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7793,115 +7915,167 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44760</v>
+      </c>
       <c r="B28" s="13">
         <v>437</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="20">
+        <v>15340</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15340</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44760</v>
+      </c>
       <c r="B29" s="13">
         <v>438</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="D29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="20">
+        <v>34432</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44760</v>
+      </c>
+      <c r="G29" s="22">
+        <v>34432</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44761</v>
+      </c>
       <c r="B30" s="13">
         <v>439</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="20">
+        <v>16640</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16640</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44762</v>
+      </c>
       <c r="B31" s="13">
         <v>440</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1245</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="23">
+        <v>44763</v>
+      </c>
       <c r="B32" s="13">
         <v>441</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="20">
+        <v>15341</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>44763</v>
+      </c>
       <c r="B33" s="13">
         <v>442</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="20">
+        <v>221</v>
+      </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>44764</v>
+      </c>
       <c r="B34" s="13">
         <v>443</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="20">
+        <v>26596</v>
+      </c>
       <c r="F34" s="125"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>44764</v>
+      </c>
       <c r="B35" s="13">
         <v>444</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
@@ -7909,67 +8083,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>44764</v>
+      </c>
       <c r="B36" s="13">
         <v>445</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="20">
+        <v>2640</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>44765</v>
+      </c>
       <c r="B37" s="13">
         <v>446</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1414</v>
+      </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>44765</v>
+      </c>
       <c r="B38" s="13">
         <v>447</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="20">
+        <v>42041</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+        <v>42041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>44765</v>
+      </c>
       <c r="B39" s="13">
         <v>448</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="20">
+        <v>3100</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="13">
         <v>449</v>
@@ -7984,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="13">
         <v>450</v>
@@ -7999,9 +8197,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
-      <c r="B42" s="13"/>
+      <c r="B42" s="13">
+        <v>451</v>
+      </c>
       <c r="C42" s="24"/>
       <c r="D42" s="19"/>
       <c r="E42" s="20"/>
@@ -8012,9 +8212,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="13">
+        <v>452</v>
+      </c>
       <c r="C43" s="24"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
@@ -8025,259 +8227,555 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
-      <c r="B44" s="13"/>
+      <c r="B44" s="13">
+        <v>453</v>
+      </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="62"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34">
-        <v>0</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13">
+        <v>454</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="39">
-        <f>SUM(E4:E45)</f>
-        <v>721808</v>
-      </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39">
-        <f>SUM(G4:G45)</f>
-        <v>4561</v>
-      </c>
-      <c r="H46" s="40">
-        <f>SUM(H4:H45)</f>
-        <v>717247</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="45" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13">
+        <v>455</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="13">
+        <v>456</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="13">
+        <v>457</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="13">
+        <v>458</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="13">
+        <v>459</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="13">
+        <v>460</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="13">
+        <v>461</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="13">
+        <v>462</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="13">
+        <v>463</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="13">
+        <v>464</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="13">
+        <v>465</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="13">
+        <v>466</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="13">
+        <v>467</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="13">
+        <v>468</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="13">
+        <v>469</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="13">
+        <v>470</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="34">
+        <v>0</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="39">
+        <f>SUM(E4:E65)</f>
+        <v>880818</v>
+      </c>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39">
+        <f>SUM(G4:G65)</f>
+        <v>71314</v>
+      </c>
+      <c r="H66" s="40">
+        <f>SUM(H4:H65)</f>
+        <v>767346</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="37"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="46" t="s">
+      <c r="F68" s="42"/>
+      <c r="G68" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="190">
-        <f>E46-G46</f>
-        <v>717247</v>
-      </c>
-      <c r="F50" s="191"/>
-      <c r="G50" s="192"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="193" t="s">
+      <c r="H68" s="44"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="37"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="37"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="194">
+        <f>E66-G66</f>
+        <v>809504</v>
+      </c>
+      <c r="F70" s="195"/>
+      <c r="G70" s="196"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="43"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="111"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="117"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="101"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="118"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="118"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="118"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="118"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="118"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="118"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="118"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="118"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="123"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="118"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="104"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="105"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="104"/>
+      <c r="F72" s="197"/>
+      <c r="G72" s="197"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="111"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="117"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="101"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="118"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="120"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="123"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="118"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="120"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="123"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="118"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="123"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="118"/>
+      <c r="B78" s="119"/>
+      <c r="C78" s="120"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="118"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="120"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="122"/>
+      <c r="F79" s="123"/>
+      <c r="G79" s="124"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="118"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="121"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="123"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="118"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="122"/>
+      <c r="F81" s="123"/>
+      <c r="G81" s="124"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="118"/>
+      <c r="B82" s="119"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="123"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="118"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="122"/>
+      <c r="F83" s="123"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="118"/>
+      <c r="B84" s="119"/>
+      <c r="C84" s="120"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="123"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="104"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="105"/>
+      <c r="B85" s="106"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="109"/>
+      <c r="G85" s="110"/>
+      <c r="H85" s="104"/>
     </row>
   </sheetData>
   <sortState ref="A4:H31">
@@ -8286,8 +8784,8 @@
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E72:G72"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8297,35 +8795,1237 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:AJ69"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="14" style="114" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="114"/>
+    <col min="4" max="4" width="15" style="114" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="11.42578125" style="114"/>
+    <col min="13" max="14" width="39.140625" style="114" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" style="114" customWidth="1"/>
+    <col min="16" max="18" width="14.7109375" style="114" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="114" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="114" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" style="114" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="114" customWidth="1"/>
+    <col min="23" max="26" width="11.42578125" style="114"/>
+    <col min="27" max="27" width="14.85546875" style="138" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="115" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" style="142"/>
+    <col min="31" max="32" width="11.42578125" style="114"/>
+    <col min="33" max="33" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="114"/>
+    <col min="35" max="35" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="114"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="R1" s="204"/>
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+    </row>
+    <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="158" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="S2" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="121"/>
+    </row>
+    <row r="3" spans="2:36" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="177" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="121"/>
+    </row>
+    <row r="4" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="130">
+        <v>44759</v>
+      </c>
+      <c r="C4" s="135">
+        <v>44760</v>
+      </c>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="192" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" s="130">
+        <v>44720</v>
+      </c>
+      <c r="T4" s="135">
+        <v>44722</v>
+      </c>
+      <c r="U4" s="131">
+        <v>45730</v>
+      </c>
+      <c r="V4" s="131">
+        <f>U4</f>
+        <v>45730</v>
+      </c>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="169"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="121"/>
+    </row>
+    <row r="5" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="130"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="130">
+        <v>44721</v>
+      </c>
+      <c r="T5" s="136">
+        <v>44722</v>
+      </c>
+      <c r="U5" s="20">
+        <v>44700</v>
+      </c>
+      <c r="V5" s="20">
+        <f>V4+U5</f>
+        <v>90430</v>
+      </c>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="169"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="170"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="121"/>
+    </row>
+    <row r="6" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="130"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <f>E5+D6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="130">
+        <v>44722</v>
+      </c>
+      <c r="T6" s="136">
+        <v>44725</v>
+      </c>
+      <c r="U6" s="20">
+        <v>45943</v>
+      </c>
+      <c r="V6" s="20">
+        <f>V5+U6</f>
+        <v>136373</v>
+      </c>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="168"/>
+      <c r="AF6" s="169"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="170"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="121"/>
+    </row>
+    <row r="7" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="130"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20">
+        <f t="shared" ref="E7:E36" si="0">E6+D7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="130">
+        <v>44723</v>
+      </c>
+      <c r="T7" s="136">
+        <v>44725</v>
+      </c>
+      <c r="U7" s="20">
+        <v>16613.5</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" ref="V7:V22" si="1">V6+U7</f>
+        <v>152986.5</v>
+      </c>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="137"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="121"/>
+    </row>
+    <row r="8" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="130"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="130">
+        <v>44724</v>
+      </c>
+      <c r="T8" s="136">
+        <v>44725</v>
+      </c>
+      <c r="U8" s="20">
+        <v>17154</v>
+      </c>
+      <c r="V8" s="20">
+        <f t="shared" si="1"/>
+        <v>170140.5</v>
+      </c>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="166"/>
+      <c r="AE8" s="168"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="121"/>
+    </row>
+    <row r="9" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="130"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="130">
+        <v>44725</v>
+      </c>
+      <c r="T9" s="136">
+        <v>44728</v>
+      </c>
+      <c r="U9" s="20">
+        <v>50350</v>
+      </c>
+      <c r="V9" s="20">
+        <f t="shared" si="1"/>
+        <v>220490.5</v>
+      </c>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="168"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="170"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="121"/>
+    </row>
+    <row r="10" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="130"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="130">
+        <v>44726</v>
+      </c>
+      <c r="T10" s="136">
+        <v>44728</v>
+      </c>
+      <c r="U10" s="20">
+        <v>44920</v>
+      </c>
+      <c r="V10" s="20">
+        <f t="shared" si="1"/>
+        <v>265410.5</v>
+      </c>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="168"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="170"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="121"/>
+    </row>
+    <row r="11" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="130"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="130">
+        <v>44727</v>
+      </c>
+      <c r="T11" s="136">
+        <v>44728</v>
+      </c>
+      <c r="U11" s="20">
+        <v>36290.5</v>
+      </c>
+      <c r="V11" s="20">
+        <f t="shared" si="1"/>
+        <v>301701</v>
+      </c>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="168"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="170"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="121"/>
+    </row>
+    <row r="12" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="130"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="130">
+        <v>44728</v>
+      </c>
+      <c r="T12" s="136">
+        <v>44732</v>
+      </c>
+      <c r="U12" s="20">
+        <v>49576</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="1"/>
+        <v>351277</v>
+      </c>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="166"/>
+      <c r="AE12" s="168"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="170"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="121"/>
+    </row>
+    <row r="13" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="130"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="130">
+        <v>44729</v>
+      </c>
+      <c r="T13" s="136">
+        <v>44732</v>
+      </c>
+      <c r="U13" s="22">
+        <v>48123</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="1"/>
+        <v>399400</v>
+      </c>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="168"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="170"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="121"/>
+    </row>
+    <row r="14" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="130"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="130">
+        <v>44730</v>
+      </c>
+      <c r="T14" s="136">
+        <v>44732</v>
+      </c>
+      <c r="U14" s="20">
+        <v>66300</v>
+      </c>
+      <c r="V14" s="20">
+        <f t="shared" si="1"/>
+        <v>465700</v>
+      </c>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="166"/>
+      <c r="AE14" s="168"/>
+      <c r="AF14" s="169"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="170"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="121"/>
+    </row>
+    <row r="15" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="130"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="130">
+        <v>44731</v>
+      </c>
+      <c r="T15" s="136">
+        <v>44732</v>
+      </c>
+      <c r="U15" s="20">
+        <v>75117</v>
+      </c>
+      <c r="V15" s="20">
+        <f t="shared" si="1"/>
+        <v>540817</v>
+      </c>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="168"/>
+      <c r="AF15" s="169"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="170"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="121"/>
+    </row>
+    <row r="16" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="130"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="130"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20">
+        <f t="shared" si="1"/>
+        <v>540817</v>
+      </c>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="168"/>
+      <c r="AF16" s="169"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="170"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="121"/>
+    </row>
+    <row r="17" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="130"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="130"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="20">
+        <v>-529362.74</v>
+      </c>
+      <c r="V17" s="20">
+        <f t="shared" si="1"/>
+        <v>11454.260000000009</v>
+      </c>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="166"/>
+      <c r="AE17" s="168"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="170"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="121"/>
+    </row>
+    <row r="18" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="130"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="130"/>
+      <c r="T18" s="136"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20">
+        <f t="shared" si="1"/>
+        <v>11454.260000000009</v>
+      </c>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="166"/>
+      <c r="AE18" s="168"/>
+      <c r="AF18" s="169"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="170"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="121"/>
+    </row>
+    <row r="19" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="130"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="190"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="210" t="s">
+        <v>95</v>
+      </c>
+      <c r="U19" s="211"/>
+      <c r="V19" s="77">
+        <f t="shared" si="1"/>
+        <v>11454.260000000009</v>
+      </c>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="166"/>
+      <c r="AE19" s="168"/>
+      <c r="AF19" s="169"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="170"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="121"/>
+    </row>
+    <row r="20" spans="2:36" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="130"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="121"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20">
+        <f t="shared" si="1"/>
+        <v>11454.260000000009</v>
+      </c>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="166"/>
+      <c r="AE20" s="168"/>
+      <c r="AF20" s="169"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="170"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="121"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="130"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="121"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20">
+        <f t="shared" si="1"/>
+        <v>11454.260000000009</v>
+      </c>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="166"/>
+      <c r="AE21" s="168"/>
+      <c r="AF21" s="169"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="170"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="121"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B22" s="130"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="121"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="160">
+        <f t="shared" si="1"/>
+        <v>11454.260000000009</v>
+      </c>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="168"/>
+      <c r="AF22" s="169"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="170"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="129"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B23" s="130"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="121"/>
+      <c r="S23" s="130"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="166"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="174"/>
+      <c r="AJ23" s="121"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="130"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="121"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="166"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B25" s="181"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="121"/>
+      <c r="S25" s="130"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+    </row>
+    <row r="26" spans="2:36" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="183"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="157"/>
+      <c r="T26" s="157"/>
+      <c r="U26" s="157"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="157"/>
+      <c r="X26" s="157"/>
+      <c r="Y26" s="157"/>
+      <c r="Z26" s="157"/>
+      <c r="AA26" s="157"/>
+      <c r="AB26" s="157"/>
+      <c r="AC26" s="157"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B27" s="183"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="183"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="183"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="183"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="183"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="183"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="183"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="183"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="191" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="180" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="179">
+        <v>-1798927.83</v>
+      </c>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>-1798927.83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="218" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="219"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="188">
+        <f t="shared" si="0"/>
+        <v>-1798927.83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="221"/>
+      <c r="C37" s="222"/>
+      <c r="D37" s="223"/>
+    </row>
+    <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB40" s="178"/>
+    </row>
+    <row r="41" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB41" s="178"/>
+    </row>
+    <row r="42" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB42" s="178"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AB43" s="178"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="R44" s="121"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="121"/>
+      <c r="U44" s="121"/>
+      <c r="V44" s="121"/>
+      <c r="W44" s="121"/>
+      <c r="X44" s="121"/>
+      <c r="Y44" s="121"/>
+      <c r="AB44" s="178"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="121"/>
+      <c r="V45" s="121"/>
+      <c r="W45" s="121"/>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="121"/>
+      <c r="Z45" s="101"/>
+      <c r="AA45" s="137"/>
+      <c r="AB45" s="178"/>
+      <c r="AC45" s="60"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="R46" s="121"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="121"/>
+      <c r="V46" s="121"/>
+      <c r="W46" s="121"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="101"/>
+      <c r="AA46" s="137"/>
+      <c r="AB46" s="178"/>
+      <c r="AC46" s="60"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="R47" s="121"/>
+      <c r="S47" s="121"/>
+      <c r="T47" s="121"/>
+      <c r="U47" s="121"/>
+      <c r="V47" s="121"/>
+      <c r="W47" s="121"/>
+      <c r="X47" s="121"/>
+      <c r="Y47" s="121"/>
+      <c r="Z47" s="101"/>
+      <c r="AA47" s="137"/>
+      <c r="AB47" s="178"/>
+      <c r="AC47" s="60"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="R48" s="121"/>
+      <c r="S48" s="121"/>
+      <c r="T48" s="121"/>
+      <c r="U48" s="121"/>
+      <c r="V48" s="121"/>
+      <c r="W48" s="121"/>
+      <c r="X48" s="121"/>
+      <c r="Y48" s="121"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="137"/>
+      <c r="AB48" s="178"/>
+      <c r="AC48" s="60"/>
+    </row>
+    <row r="49" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R49" s="121"/>
+      <c r="S49" s="121"/>
+      <c r="T49" s="121"/>
+      <c r="U49" s="121"/>
+      <c r="V49" s="121"/>
+      <c r="W49" s="121"/>
+      <c r="X49" s="121"/>
+      <c r="Y49" s="121"/>
+      <c r="Z49" s="101"/>
+      <c r="AA49" s="137"/>
+      <c r="AB49" s="178"/>
+      <c r="AC49" s="60"/>
+    </row>
+    <row r="50" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R50" s="121"/>
+      <c r="S50" s="121"/>
+      <c r="T50" s="121"/>
+      <c r="U50" s="121"/>
+      <c r="V50" s="121"/>
+      <c r="W50" s="121"/>
+      <c r="X50" s="121"/>
+      <c r="Y50" s="121"/>
+      <c r="Z50" s="101"/>
+      <c r="AA50" s="137"/>
+      <c r="AB50" s="178"/>
+      <c r="AC50" s="60"/>
+    </row>
+    <row r="51" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R51" s="121"/>
+      <c r="S51" s="121"/>
+      <c r="T51" s="121"/>
+      <c r="U51" s="121"/>
+      <c r="V51" s="121"/>
+      <c r="W51" s="121"/>
+      <c r="X51" s="121"/>
+      <c r="Y51" s="121"/>
+      <c r="Z51" s="101"/>
+      <c r="AA51" s="137"/>
+      <c r="AB51" s="178"/>
+      <c r="AC51" s="60"/>
+    </row>
+    <row r="52" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R52" s="121"/>
+      <c r="S52" s="121"/>
+      <c r="T52" s="121"/>
+      <c r="U52" s="121"/>
+      <c r="V52" s="121"/>
+      <c r="W52" s="121"/>
+      <c r="X52" s="121"/>
+      <c r="Y52" s="121"/>
+      <c r="Z52" s="101"/>
+      <c r="AA52" s="137"/>
+      <c r="AB52" s="178"/>
+      <c r="AC52" s="60"/>
+    </row>
+    <row r="53" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R53" s="121"/>
+      <c r="S53" s="121"/>
+      <c r="T53" s="121"/>
+      <c r="U53" s="121"/>
+      <c r="V53" s="121"/>
+      <c r="W53" s="121"/>
+      <c r="X53" s="121"/>
+      <c r="Y53" s="121"/>
+      <c r="Z53" s="101"/>
+      <c r="AA53" s="137"/>
+      <c r="AB53" s="178"/>
+      <c r="AC53" s="60"/>
+    </row>
+    <row r="54" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R54" s="121"/>
+      <c r="S54" s="121"/>
+      <c r="T54" s="121"/>
+      <c r="U54" s="121"/>
+      <c r="V54" s="121"/>
+      <c r="W54" s="121"/>
+      <c r="X54" s="121"/>
+      <c r="Y54" s="121"/>
+      <c r="Z54" s="101"/>
+      <c r="AA54" s="137"/>
+      <c r="AB54" s="178"/>
+      <c r="AC54" s="60"/>
+    </row>
+    <row r="55" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R55" s="121"/>
+      <c r="S55" s="121"/>
+      <c r="T55" s="121"/>
+      <c r="U55" s="121"/>
+      <c r="V55" s="121"/>
+      <c r="W55" s="121"/>
+      <c r="X55" s="121"/>
+      <c r="Y55" s="121"/>
+      <c r="Z55" s="101"/>
+      <c r="AA55" s="137"/>
+      <c r="AB55" s="178"/>
+      <c r="AC55" s="60"/>
+    </row>
+    <row r="56" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R56" s="121"/>
+      <c r="S56" s="121"/>
+      <c r="T56" s="121"/>
+      <c r="U56" s="121"/>
+      <c r="V56" s="121"/>
+      <c r="W56" s="121"/>
+      <c r="X56" s="121"/>
+      <c r="Y56" s="121"/>
+      <c r="Z56" s="101"/>
+      <c r="AA56" s="137"/>
+      <c r="AB56" s="178"/>
+      <c r="AC56" s="60"/>
+    </row>
+    <row r="57" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R57" s="121"/>
+      <c r="S57" s="121"/>
+      <c r="T57" s="121"/>
+      <c r="U57" s="121"/>
+      <c r="V57" s="121"/>
+      <c r="W57" s="121"/>
+      <c r="X57" s="121"/>
+      <c r="Y57" s="121"/>
+      <c r="Z57" s="101"/>
+      <c r="AA57" s="137"/>
+      <c r="AB57" s="178"/>
+      <c r="AC57" s="60"/>
+    </row>
+    <row r="58" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R58" s="121"/>
+      <c r="S58" s="121"/>
+      <c r="T58" s="121"/>
+      <c r="U58" s="121"/>
+      <c r="V58" s="121"/>
+      <c r="W58" s="121"/>
+      <c r="X58" s="121"/>
+      <c r="Y58" s="121"/>
+      <c r="Z58" s="101"/>
+      <c r="AA58" s="137"/>
+      <c r="AB58" s="178"/>
+      <c r="AC58" s="60"/>
+    </row>
+    <row r="59" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R59" s="121"/>
+      <c r="S59" s="121"/>
+      <c r="T59" s="121"/>
+      <c r="U59" s="121"/>
+      <c r="V59" s="121"/>
+      <c r="W59" s="121"/>
+      <c r="X59" s="121"/>
+      <c r="Y59" s="121"/>
+      <c r="Z59" s="101"/>
+      <c r="AA59" s="137"/>
+      <c r="AB59" s="178"/>
+      <c r="AC59" s="60"/>
+    </row>
+    <row r="60" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="R60" s="121"/>
+      <c r="S60" s="121"/>
+      <c r="T60" s="121"/>
+      <c r="U60" s="121"/>
+      <c r="V60" s="121"/>
+      <c r="W60" s="121"/>
+      <c r="X60" s="121"/>
+      <c r="Y60" s="121"/>
+      <c r="Z60" s="101"/>
+      <c r="AA60" s="137"/>
+      <c r="AB60" s="178"/>
+      <c r="AC60" s="60"/>
+    </row>
+    <row r="61" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="AB61" s="178"/>
+      <c r="AC61" s="60"/>
+    </row>
+    <row r="62" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="AB62" s="178"/>
+      <c r="AC62" s="129"/>
+    </row>
+    <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB63" s="178"/>
+      <c r="AC63" s="121"/>
+    </row>
+    <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB64" s="208"/>
+      <c r="AC64" s="209"/>
+    </row>
+    <row r="69" spans="28:28" x14ac:dyDescent="0.3">
+      <c r="AB69" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="R1:AC1"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="AB64:AC64"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M8:M9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="15" style="54" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8354,25 +10054,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10102,12 +11802,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="190">
+      <c r="E76" s="194">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="191"/>
-      <c r="G76" s="192"/>
+      <c r="F76" s="195"/>
+      <c r="G76" s="196"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -10123,11 +11823,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="193" t="s">
+      <c r="E78" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="193"/>
-      <c r="G78" s="193"/>
+      <c r="F78" s="197"/>
+      <c r="G78" s="197"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10268,25 +11968,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="200"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11135,12 +12835,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="190">
+      <c r="E41" s="194">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="191"/>
-      <c r="G41" s="192"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="196"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -11156,11 +12856,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="193" t="s">
+      <c r="E43" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -11304,25 +13004,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12662,12 +14362,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="190">
+      <c r="E60" s="194">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="191"/>
-      <c r="G60" s="192"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="196"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -12683,11 +14383,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="193" t="s">
+      <c r="E62" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="193"/>
-      <c r="G62" s="193"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -12828,25 +14528,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14247,12 +15947,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="190">
+      <c r="E61" s="194">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="191"/>
-      <c r="G61" s="192"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="196"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -14268,11 +15968,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="193" t="s">
+      <c r="E63" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="193"/>
-      <c r="G63" s="193"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -14413,25 +16113,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15881,12 +17581,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="190">
+      <c r="E64" s="194">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="191"/>
-      <c r="G64" s="192"/>
+      <c r="F64" s="195"/>
+      <c r="G64" s="196"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15902,11 +17602,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="193" t="s">
+      <c r="E66" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="193"/>
-      <c r="G66" s="193"/>
+      <c r="F66" s="197"/>
+      <c r="G66" s="197"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -16047,25 +17747,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17466,12 +19166,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="190">
+      <c r="E65" s="194">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="191"/>
-      <c r="G65" s="192"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="196"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17487,11 +19187,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="193" t="s">
+      <c r="E67" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="193"/>
-      <c r="G67" s="193"/>
+      <c r="F67" s="197"/>
+      <c r="G67" s="197"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -17673,25 +19373,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="199"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="203"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18570,12 +20270,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="190">
+      <c r="E43" s="194">
         <f>E39-G39</f>
         <v>346186</v>
       </c>
-      <c r="F43" s="191"/>
-      <c r="G43" s="192"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="196"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -18591,11 +20291,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="193" t="s">
+      <c r="E45" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
+      <c r="F45" s="197"/>
+      <c r="G45" s="197"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -18758,7 +20458,7 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -18781,18 +20481,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="200"/>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
+      <c r="A1" s="204"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="158" t="s">
@@ -20031,11 +21731,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="202">
+      <c r="K63" s="206">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="203"/>
+      <c r="L63" s="207"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="108">
   <si>
     <t>REMISION</t>
   </si>
@@ -516,6 +516,34 @@
   <si>
     <t>abastos Zav</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       C L I E N T E S</t>
+    </r>
+  </si>
+  <si>
+    <t>NLP x prestamo</t>
+  </si>
 </sst>
 </file>
 
@@ -528,7 +556,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,8 +772,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +876,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,10 +1472,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1501,12 +1540,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,6 +1591,50 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="17" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="17" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,6 +1728,7 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1660,10 +1738,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF990033"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
       <color rgb="FF00FF00"/>
@@ -3424,24 +3502,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="200"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="220"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4587,12 +4665,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="194">
+      <c r="D55" s="214">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="195"/>
-      <c r="F55" s="196"/>
+      <c r="E55" s="215"/>
+      <c r="F55" s="216"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4606,11 +4684,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="197" t="s">
+      <c r="D57" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="197"/>
-      <c r="F57" s="197"/>
+      <c r="E57" s="217"/>
+      <c r="F57" s="217"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4721,8 +4799,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4730,7 +4808,7 @@
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="206" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
     <col min="7" max="7" width="18" style="56" customWidth="1"/>
@@ -4739,25 +4817,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -4771,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>2</v>
@@ -4801,11 +4879,15 @@
       <c r="E4" s="15">
         <v>11152</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="163"/>
+      <c r="F4" s="190">
+        <v>44767</v>
+      </c>
+      <c r="G4" s="191">
+        <v>11152</v>
+      </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H45" si="0">E4-G4</f>
-        <v>11152</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -4884,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
         <v>44714</v>
       </c>
@@ -4892,17 +4974,21 @@
         <v>378</v>
       </c>
       <c r="C8" s="82"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="74" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="20">
         <v>42624</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="80"/>
+      <c r="F8" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G8" s="95">
+        <v>42624</v>
+      </c>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>42624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4913,7 +4999,7 @@
         <v>379</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E9" s="20">
@@ -4938,17 +5024,21 @@
         <v>380</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="20">
         <v>12024</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="F10" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G10" s="89">
+        <v>12024</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>12024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4959,17 +5049,21 @@
         <v>381</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="20">
         <v>21279</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="F11" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G11" s="89">
+        <v>21279</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>21279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4980,7 +5074,7 @@
         <v>382</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="20">
@@ -5005,17 +5099,21 @@
         <v>383</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="20">
         <v>8935</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G13" s="89">
+        <v>8935</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>8935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5032,11 +5130,15 @@
       <c r="E14" s="20">
         <v>11919</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="F14" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G14" s="89">
+        <v>11919</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>11919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5053,11 +5155,15 @@
       <c r="E15" s="20">
         <v>41552</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="F15" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G15" s="89">
+        <v>41552</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>41552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5068,7 +5174,7 @@
         <v>386</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="20">
@@ -5085,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44728</v>
       </c>
@@ -5093,14 +5199,16 @@
         <v>387</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="199" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="20">
         <v>0</v>
       </c>
       <c r="F17" s="87"/>
-      <c r="G17" s="84"/>
+      <c r="G17" s="84">
+        <v>0</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5114,7 +5222,7 @@
         <v>388</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="20">
@@ -5139,17 +5247,21 @@
         <v>389</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="20">
         <v>8500</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="F19" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G19" s="198">
+        <v>8500</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,11 +5278,15 @@
       <c r="E20" s="20">
         <v>6673</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="F20" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G20" s="89">
+        <v>6673</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>6673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5188,7 +5304,9 @@
         <v>0</v>
       </c>
       <c r="F21" s="87"/>
-      <c r="G21" s="84"/>
+      <c r="G21" s="84">
+        <v>0</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5202,20 +5320,24 @@
         <v>392</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="20">
         <v>12311</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
+      <c r="F22" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G22" s="198">
+        <v>12311</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>12311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44732</v>
       </c>
@@ -5223,20 +5345,24 @@
         <v>393</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="20">
         <v>24473</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
+      <c r="F23" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G23" s="89">
+        <v>24473</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>24473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44732</v>
       </c>
@@ -5244,17 +5370,21 @@
         <v>394</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="20">
         <v>29600</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="F24" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G24" s="89">
+        <v>29600</v>
+      </c>
       <c r="H24" s="18">
-        <f t="shared" si="0"/>
-        <v>29600</v>
+        <f>E24-G24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5265,17 +5395,21 @@
         <v>395</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="20">
         <v>9022</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
+      <c r="F25" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G25" s="89">
+        <v>9022</v>
+      </c>
       <c r="H25" s="18">
-        <f t="shared" si="0"/>
-        <v>9022</v>
+        <f t="shared" ref="H25:H43" si="1">E25-G25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5293,9 +5427,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="87"/>
-      <c r="G26" s="84"/>
+      <c r="G26" s="84">
+        <v>0</v>
+      </c>
       <c r="H26" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5307,7 +5443,7 @@
         <v>397</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E27" s="20">
@@ -5320,11 +5456,11 @@
         <v>840</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44734</v>
       </c>
@@ -5332,7 +5468,7 @@
         <v>398</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="20">
@@ -5345,7 +5481,7 @@
         <v>1755</v>
       </c>
       <c r="H28" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5357,17 +5493,21 @@
         <v>399</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E29" s="20">
         <v>14700</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G29" s="89">
+        <v>14700</v>
+      </c>
       <c r="H29" s="18">
-        <f t="shared" si="0"/>
-        <v>14700</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5385,9 +5525,11 @@
         <v>0</v>
       </c>
       <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="75">
-        <f t="shared" si="0"/>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5399,7 +5541,7 @@
         <v>401</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="20">
@@ -5412,11 +5554,11 @@
         <v>3100</v>
       </c>
       <c r="H31" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>44736</v>
       </c>
@@ -5424,15 +5566,20 @@
         <v>402</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="20">
         <v>16229</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
+      <c r="F32" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G32" s="198">
+        <v>16229</v>
+      </c>
       <c r="H32" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5444,19 +5591,24 @@
         <v>403</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="20">
         <v>10085</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
+      <c r="F33" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G33" s="198">
+        <v>10085</v>
+      </c>
       <c r="H33" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>44739</v>
       </c>
@@ -5464,19 +5616,24 @@
         <v>404</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="20">
         <v>19131</v>
       </c>
-      <c r="F34" s="164"/>
-      <c r="G34" s="86"/>
+      <c r="F34" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G34" s="198">
+        <v>19131</v>
+      </c>
       <c r="H34" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>44739</v>
       </c>
@@ -5484,20 +5641,20 @@
         <v>405</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="182">
         <v>74746</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="196"/>
       <c r="H35" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74746</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>44739</v>
       </c>
@@ -5505,17 +5662,21 @@
         <v>406</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="141" t="s">
+      <c r="D36" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E36" s="20">
         <v>31738</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
+      <c r="F36" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G36" s="89">
+        <v>31738</v>
+      </c>
       <c r="H36" s="18">
-        <f t="shared" si="0"/>
-        <v>31738</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5526,17 +5687,21 @@
         <v>407</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="20">
         <v>8280</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
+      <c r="F37" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G37" s="89">
+        <v>8280</v>
+      </c>
       <c r="H37" s="18">
-        <f t="shared" si="0"/>
-        <v>8280</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5547,17 +5712,21 @@
         <v>408</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="20">
         <v>4048</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G38" s="89">
+        <v>4048</v>
+      </c>
       <c r="H38" s="18">
-        <f t="shared" si="0"/>
-        <v>4048</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,7 +5737,7 @@
         <v>409</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E39" s="20">
@@ -5581,7 +5750,7 @@
         <v>1863</v>
       </c>
       <c r="H39" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5593,17 +5762,21 @@
         <v>410</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E40" s="20">
         <v>24380</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
+      <c r="F40" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G40" s="89">
+        <v>24380</v>
+      </c>
       <c r="H40" s="18">
-        <f t="shared" si="0"/>
-        <v>24380</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,17 +5787,21 @@
         <v>411</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E41" s="20">
         <v>12560</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G41" s="89">
+        <v>12560</v>
+      </c>
       <c r="H41" s="18">
-        <f t="shared" si="0"/>
-        <v>12560</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5635,29 +5812,33 @@
         <v>412</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="20">
         <v>19173</v>
       </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
+      <c r="F42" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G42" s="89">
+        <v>19173</v>
+      </c>
       <c r="H42" s="18">
-        <f t="shared" si="0"/>
-        <v>19173</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="13"/>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5665,7 +5846,7 @@
       <c r="A44" s="23"/>
       <c r="B44" s="13"/>
       <c r="C44" s="24"/>
-      <c r="D44" s="59"/>
+      <c r="D44" s="207"/>
       <c r="E44" s="60"/>
       <c r="F44" s="61"/>
       <c r="G44" s="62"/>
@@ -5678,7 +5859,7 @@
       <c r="A45" s="31"/>
       <c r="B45" s="100"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="D45" s="200"/>
       <c r="E45" s="34">
         <v>0</v>
       </c>
@@ -5693,7 +5874,7 @@
     <row r="46" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="201"/>
       <c r="E46" s="39">
         <f>SUM(E4:E45)</f>
         <v>624329</v>
@@ -5701,18 +5882,18 @@
       <c r="F46" s="39"/>
       <c r="G46" s="39">
         <f>SUM(G4:G45)</f>
-        <v>149195</v>
+        <v>549583</v>
       </c>
       <c r="H46" s="40">
         <f>SUM(H4:H45)</f>
-        <v>429689</v>
+        <v>74746</v>
       </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="201"/>
       <c r="E47" s="41"/>
       <c r="F47" s="42"/>
       <c r="G47" s="43"/>
@@ -5722,7 +5903,7 @@
     <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="38"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="201"/>
       <c r="E48" s="45" t="s">
         <v>6</v>
       </c>
@@ -5736,7 +5917,7 @@
     <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="201"/>
       <c r="E49" s="45"/>
       <c r="F49" s="42"/>
       <c r="G49" s="46"/>
@@ -5746,19 +5927,19 @@
     <row r="50" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="194">
+      <c r="D50" s="201"/>
+      <c r="E50" s="214">
         <f>E46-G46</f>
-        <v>475134</v>
-      </c>
-      <c r="F50" s="195"/>
-      <c r="G50" s="196"/>
+        <v>74746</v>
+      </c>
+      <c r="F50" s="215"/>
+      <c r="G50" s="216"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="37"/>
       <c r="C51" s="38"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="201"/>
       <c r="E51" s="41"/>
       <c r="F51" s="42"/>
       <c r="G51" s="43"/>
@@ -5767,19 +5948,19 @@
     <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="197" t="s">
+      <c r="D52" s="201"/>
+      <c r="E52" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
+      <c r="F52" s="217"/>
+      <c r="G52" s="217"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="111"/>
       <c r="B53" s="112"/>
       <c r="C53" s="113"/>
-      <c r="D53" s="114"/>
+      <c r="D53" s="202"/>
       <c r="E53" s="115"/>
       <c r="F53" s="116"/>
       <c r="G53" s="117"/>
@@ -5789,7 +5970,7 @@
       <c r="A54" s="101"/>
       <c r="B54" s="102"/>
       <c r="C54" s="103"/>
-      <c r="D54" s="49"/>
+      <c r="D54" s="203"/>
       <c r="E54" s="50"/>
       <c r="F54" s="51"/>
       <c r="G54" s="50"/>
@@ -5800,7 +5981,7 @@
       <c r="A55" s="118"/>
       <c r="B55" s="119"/>
       <c r="C55" s="120"/>
-      <c r="D55" s="121"/>
+      <c r="D55" s="204"/>
       <c r="E55" s="122"/>
       <c r="F55" s="123"/>
       <c r="G55" s="124"/>
@@ -5811,7 +5992,7 @@
       <c r="A56" s="118"/>
       <c r="B56" s="119"/>
       <c r="C56" s="120"/>
-      <c r="D56" s="121"/>
+      <c r="D56" s="204"/>
       <c r="E56" s="122"/>
       <c r="F56" s="123"/>
       <c r="G56" s="124"/>
@@ -5822,7 +6003,7 @@
       <c r="A57" s="118"/>
       <c r="B57" s="119"/>
       <c r="C57" s="120"/>
-      <c r="D57" s="121"/>
+      <c r="D57" s="204"/>
       <c r="E57" s="122"/>
       <c r="F57" s="123"/>
       <c r="G57" s="124"/>
@@ -5833,7 +6014,7 @@
       <c r="A58" s="118"/>
       <c r="B58" s="119"/>
       <c r="C58" s="120"/>
-      <c r="D58" s="121"/>
+      <c r="D58" s="204"/>
       <c r="E58" s="122"/>
       <c r="F58" s="123"/>
       <c r="G58" s="124"/>
@@ -5844,7 +6025,7 @@
       <c r="A59" s="118"/>
       <c r="B59" s="119"/>
       <c r="C59" s="120"/>
-      <c r="D59" s="121"/>
+      <c r="D59" s="204"/>
       <c r="E59" s="122"/>
       <c r="F59" s="123"/>
       <c r="G59" s="124"/>
@@ -5855,7 +6036,7 @@
       <c r="A60" s="118"/>
       <c r="B60" s="119"/>
       <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
+      <c r="D60" s="204"/>
       <c r="E60" s="122"/>
       <c r="F60" s="123"/>
       <c r="G60" s="124"/>
@@ -5866,7 +6047,7 @@
       <c r="A61" s="118"/>
       <c r="B61" s="119"/>
       <c r="C61" s="120"/>
-      <c r="D61" s="121"/>
+      <c r="D61" s="204"/>
       <c r="E61" s="122"/>
       <c r="F61" s="123"/>
       <c r="G61" s="124"/>
@@ -5877,7 +6058,7 @@
       <c r="A62" s="118"/>
       <c r="B62" s="119"/>
       <c r="C62" s="120"/>
-      <c r="D62" s="121"/>
+      <c r="D62" s="204"/>
       <c r="E62" s="122"/>
       <c r="F62" s="123"/>
       <c r="G62" s="124"/>
@@ -5888,7 +6069,7 @@
       <c r="A63" s="118"/>
       <c r="B63" s="119"/>
       <c r="C63" s="120"/>
-      <c r="D63" s="121"/>
+      <c r="D63" s="204"/>
       <c r="E63" s="122"/>
       <c r="F63" s="123"/>
       <c r="G63" s="124"/>
@@ -5899,7 +6080,7 @@
       <c r="A64" s="118"/>
       <c r="B64" s="119"/>
       <c r="C64" s="120"/>
-      <c r="D64" s="121"/>
+      <c r="D64" s="204"/>
       <c r="E64" s="122"/>
       <c r="F64" s="123"/>
       <c r="G64" s="124"/>
@@ -5909,7 +6090,7 @@
       <c r="A65" s="105"/>
       <c r="B65" s="106"/>
       <c r="C65" s="107"/>
-      <c r="D65" s="104"/>
+      <c r="D65" s="205"/>
       <c r="E65" s="108"/>
       <c r="F65" s="109"/>
       <c r="G65" s="110"/>
@@ -5938,8 +6119,8 @@
   </sheetPr>
   <dimension ref="B1:AJ69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5957,10 +6138,10 @@
     <col min="21" max="21" width="18.28515625" style="114" customWidth="1"/>
     <col min="22" max="22" width="19.28515625" style="114" customWidth="1"/>
     <col min="23" max="26" width="11.42578125" style="114"/>
-    <col min="27" max="27" width="14.85546875" style="138" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="136" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" style="115" customWidth="1"/>
     <col min="29" max="29" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="142"/>
+    <col min="30" max="30" width="11.42578125" style="140"/>
     <col min="31" max="32" width="11.42578125" style="114"/>
     <col min="33" max="33" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.42578125" style="114"/>
@@ -5969,128 +6150,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="204"/>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="205"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="225"/>
+      <c r="AC1" s="225"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="S2" s="175" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="S2" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="165"/>
       <c r="AG2" s="62"/>
-      <c r="AH2" s="170"/>
+      <c r="AH2" s="166"/>
       <c r="AI2" s="62"/>
       <c r="AJ2" s="121"/>
     </row>
     <row r="3" spans="2:36" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="132" t="s">
+      <c r="S3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="139" t="s">
+      <c r="U3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="133" t="s">
+      <c r="V3" s="131" t="s">
         <v>92</v>
       </c>
       <c r="Z3" s="101"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="169"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="165"/>
       <c r="AG3" s="62"/>
-      <c r="AH3" s="170"/>
+      <c r="AH3" s="166"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="121"/>
     </row>
     <row r="4" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="130">
+      <c r="B4" s="128">
         <v>44732</v>
       </c>
-      <c r="C4" s="135">
+      <c r="C4" s="133">
         <v>44735</v>
       </c>
-      <c r="D4" s="131">
+      <c r="D4" s="129">
         <v>33921</v>
       </c>
-      <c r="E4" s="131">
+      <c r="E4" s="129">
         <f>D4</f>
         <v>33921</v>
       </c>
-      <c r="S4" s="130">
+      <c r="S4" s="128">
         <v>44720</v>
       </c>
-      <c r="T4" s="135">
+      <c r="T4" s="133">
         <v>44722</v>
       </c>
-      <c r="U4" s="131">
+      <c r="U4" s="129">
         <v>45730</v>
       </c>
-      <c r="V4" s="131">
+      <c r="V4" s="129">
         <f>U4</f>
         <v>45730</v>
       </c>
       <c r="Z4" s="101"/>
-      <c r="AA4" s="137"/>
+      <c r="AA4" s="135"/>
       <c r="AB4" s="60"/>
       <c r="AC4" s="60"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="169"/>
+      <c r="AD4" s="162"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="165"/>
       <c r="AG4" s="62"/>
-      <c r="AH4" s="170"/>
+      <c r="AH4" s="166"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="121"/>
     </row>
     <row r="5" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="130">
+      <c r="B5" s="128">
         <v>44733</v>
       </c>
-      <c r="C5" s="136">
+      <c r="C5" s="134">
         <v>44735</v>
       </c>
       <c r="D5" s="20">
@@ -6100,10 +6281,10 @@
         <f>E4+D5</f>
         <v>77287</v>
       </c>
-      <c r="S5" s="130">
+      <c r="S5" s="128">
         <v>44721</v>
       </c>
-      <c r="T5" s="136">
+      <c r="T5" s="134">
         <v>44722</v>
       </c>
       <c r="U5" s="20">
@@ -6114,22 +6295,22 @@
         <v>90430</v>
       </c>
       <c r="Z5" s="101"/>
-      <c r="AA5" s="137"/>
+      <c r="AA5" s="135"/>
       <c r="AB5" s="60"/>
       <c r="AC5" s="60"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="169"/>
+      <c r="AD5" s="162"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="165"/>
       <c r="AG5" s="62"/>
-      <c r="AH5" s="170"/>
+      <c r="AH5" s="166"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="121"/>
     </row>
     <row r="6" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="130">
+      <c r="B6" s="128">
         <v>44734</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="134">
         <v>44735</v>
       </c>
       <c r="D6" s="20">
@@ -6139,10 +6320,10 @@
         <f>E5+D6</f>
         <v>79620.5</v>
       </c>
-      <c r="S6" s="130">
+      <c r="S6" s="128">
         <v>44722</v>
       </c>
-      <c r="T6" s="136">
+      <c r="T6" s="134">
         <v>44725</v>
       </c>
       <c r="U6" s="20">
@@ -6153,22 +6334,22 @@
         <v>136373</v>
       </c>
       <c r="Z6" s="101"/>
-      <c r="AA6" s="137"/>
+      <c r="AA6" s="135"/>
       <c r="AB6" s="60"/>
       <c r="AC6" s="60"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="168"/>
-      <c r="AF6" s="169"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="165"/>
       <c r="AG6" s="62"/>
-      <c r="AH6" s="170"/>
+      <c r="AH6" s="166"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="121"/>
     </row>
     <row r="7" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="130">
+      <c r="B7" s="128">
         <v>44734</v>
       </c>
-      <c r="C7" s="136">
+      <c r="C7" s="134">
         <v>44735</v>
       </c>
       <c r="D7" s="20">
@@ -6178,10 +6359,10 @@
         <f t="shared" ref="E7:E36" si="0">E6+D7</f>
         <v>123411</v>
       </c>
-      <c r="S7" s="130">
+      <c r="S7" s="128">
         <v>44723</v>
       </c>
-      <c r="T7" s="136">
+      <c r="T7" s="134">
         <v>44725</v>
       </c>
       <c r="U7" s="20">
@@ -6192,22 +6373,22 @@
         <v>152986.5</v>
       </c>
       <c r="Z7" s="101"/>
-      <c r="AA7" s="137"/>
+      <c r="AA7" s="135"/>
       <c r="AB7" s="60"/>
       <c r="AC7" s="60"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="169"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="165"/>
       <c r="AG7" s="62"/>
-      <c r="AH7" s="170"/>
+      <c r="AH7" s="166"/>
       <c r="AI7" s="62"/>
       <c r="AJ7" s="121"/>
     </row>
     <row r="8" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130">
+      <c r="B8" s="128">
         <v>44735</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="134">
         <v>44741</v>
       </c>
       <c r="D8" s="20">
@@ -6217,10 +6398,10 @@
         <f t="shared" si="0"/>
         <v>249203.5</v>
       </c>
-      <c r="S8" s="130">
+      <c r="S8" s="128">
         <v>44724</v>
       </c>
-      <c r="T8" s="136">
+      <c r="T8" s="134">
         <v>44725</v>
       </c>
       <c r="U8" s="20">
@@ -6231,22 +6412,22 @@
         <v>170140.5</v>
       </c>
       <c r="Z8" s="101"/>
-      <c r="AA8" s="137"/>
+      <c r="AA8" s="135"/>
       <c r="AB8" s="60"/>
       <c r="AC8" s="60"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="168"/>
-      <c r="AF8" s="169"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="165"/>
       <c r="AG8" s="62"/>
-      <c r="AH8" s="170"/>
+      <c r="AH8" s="166"/>
       <c r="AI8" s="62"/>
       <c r="AJ8" s="121"/>
     </row>
     <row r="9" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="130">
+      <c r="B9" s="128">
         <v>44736</v>
       </c>
-      <c r="C9" s="136">
+      <c r="C9" s="134">
         <v>44741</v>
       </c>
       <c r="D9" s="20">
@@ -6256,10 +6437,10 @@
         <f t="shared" si="0"/>
         <v>318800.5</v>
       </c>
-      <c r="S9" s="130">
+      <c r="S9" s="128">
         <v>44725</v>
       </c>
-      <c r="T9" s="136">
+      <c r="T9" s="134">
         <v>44728</v>
       </c>
       <c r="U9" s="20">
@@ -6270,22 +6451,22 @@
         <v>220490.5</v>
       </c>
       <c r="Z9" s="101"/>
-      <c r="AA9" s="137"/>
+      <c r="AA9" s="135"/>
       <c r="AB9" s="60"/>
       <c r="AC9" s="60"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="169"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="165"/>
       <c r="AG9" s="62"/>
-      <c r="AH9" s="170"/>
+      <c r="AH9" s="166"/>
       <c r="AI9" s="62"/>
       <c r="AJ9" s="121"/>
     </row>
     <row r="10" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="130">
+      <c r="B10" s="128">
         <v>44737</v>
       </c>
-      <c r="C10" s="136">
+      <c r="C10" s="134">
         <v>44741</v>
       </c>
       <c r="D10" s="20">
@@ -6295,10 +6476,10 @@
         <f t="shared" si="0"/>
         <v>343688.5</v>
       </c>
-      <c r="S10" s="130">
+      <c r="S10" s="128">
         <v>44726</v>
       </c>
-      <c r="T10" s="136">
+      <c r="T10" s="134">
         <v>44728</v>
       </c>
       <c r="U10" s="20">
@@ -6309,22 +6490,22 @@
         <v>265410.5</v>
       </c>
       <c r="Z10" s="101"/>
-      <c r="AA10" s="137"/>
+      <c r="AA10" s="135"/>
       <c r="AB10" s="60"/>
       <c r="AC10" s="60"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="169"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="165"/>
       <c r="AG10" s="62"/>
-      <c r="AH10" s="170"/>
+      <c r="AH10" s="166"/>
       <c r="AI10" s="62"/>
       <c r="AJ10" s="121"/>
     </row>
     <row r="11" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="130">
+      <c r="B11" s="128">
         <v>44738</v>
       </c>
-      <c r="C11" s="136">
+      <c r="C11" s="134">
         <v>44741</v>
       </c>
       <c r="D11" s="20">
@@ -6334,10 +6515,10 @@
         <f t="shared" si="0"/>
         <v>345416.5</v>
       </c>
-      <c r="S11" s="130">
+      <c r="S11" s="128">
         <v>44727</v>
       </c>
-      <c r="T11" s="136">
+      <c r="T11" s="134">
         <v>44728</v>
       </c>
       <c r="U11" s="20">
@@ -6348,22 +6529,22 @@
         <v>301701</v>
       </c>
       <c r="Z11" s="101"/>
-      <c r="AA11" s="137"/>
+      <c r="AA11" s="135"/>
       <c r="AB11" s="60"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="168"/>
-      <c r="AF11" s="169"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="165"/>
       <c r="AG11" s="62"/>
-      <c r="AH11" s="170"/>
+      <c r="AH11" s="166"/>
       <c r="AI11" s="62"/>
       <c r="AJ11" s="121"/>
     </row>
     <row r="12" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130">
+      <c r="B12" s="128">
         <v>44739</v>
       </c>
-      <c r="C12" s="136">
+      <c r="C12" s="134">
         <v>44741</v>
       </c>
       <c r="D12" s="20">
@@ -6373,10 +6554,10 @@
         <f t="shared" si="0"/>
         <v>386397</v>
       </c>
-      <c r="S12" s="130">
+      <c r="S12" s="128">
         <v>44728</v>
       </c>
-      <c r="T12" s="136">
+      <c r="T12" s="134">
         <v>44732</v>
       </c>
       <c r="U12" s="20">
@@ -6387,22 +6568,22 @@
         <v>351277</v>
       </c>
       <c r="Z12" s="101"/>
-      <c r="AA12" s="137"/>
+      <c r="AA12" s="135"/>
       <c r="AB12" s="60"/>
       <c r="AC12" s="60"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="169"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="165"/>
       <c r="AG12" s="62"/>
-      <c r="AH12" s="170"/>
+      <c r="AH12" s="166"/>
       <c r="AI12" s="62"/>
       <c r="AJ12" s="121"/>
     </row>
     <row r="13" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130">
+      <c r="B13" s="128">
         <v>44740</v>
       </c>
-      <c r="C13" s="136">
+      <c r="C13" s="134">
         <v>44741</v>
       </c>
       <c r="D13" s="22">
@@ -6412,10 +6593,10 @@
         <f t="shared" si="0"/>
         <v>460385</v>
       </c>
-      <c r="S13" s="130">
+      <c r="S13" s="128">
         <v>44729</v>
       </c>
-      <c r="T13" s="136">
+      <c r="T13" s="134">
         <v>44732</v>
       </c>
       <c r="U13" s="22">
@@ -6426,22 +6607,22 @@
         <v>399400</v>
       </c>
       <c r="Z13" s="101"/>
-      <c r="AA13" s="137"/>
+      <c r="AA13" s="135"/>
       <c r="AB13" s="62"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="169"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="164"/>
+      <c r="AF13" s="165"/>
       <c r="AG13" s="62"/>
-      <c r="AH13" s="170"/>
+      <c r="AH13" s="166"/>
       <c r="AI13" s="62"/>
       <c r="AJ13" s="121"/>
     </row>
     <row r="14" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130">
+      <c r="B14" s="128">
         <v>44741</v>
       </c>
-      <c r="C14" s="136">
+      <c r="C14" s="134">
         <v>44746</v>
       </c>
       <c r="D14" s="20">
@@ -6451,10 +6632,10 @@
         <f t="shared" si="0"/>
         <v>496314.5</v>
       </c>
-      <c r="S14" s="130">
+      <c r="S14" s="128">
         <v>44730</v>
       </c>
-      <c r="T14" s="136">
+      <c r="T14" s="134">
         <v>44732</v>
       </c>
       <c r="U14" s="20">
@@ -6465,22 +6646,22 @@
         <v>465700</v>
       </c>
       <c r="Z14" s="101"/>
-      <c r="AA14" s="137"/>
+      <c r="AA14" s="135"/>
       <c r="AB14" s="60"/>
       <c r="AC14" s="60"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="168"/>
-      <c r="AF14" s="169"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="164"/>
+      <c r="AF14" s="165"/>
       <c r="AG14" s="62"/>
-      <c r="AH14" s="170"/>
+      <c r="AH14" s="166"/>
       <c r="AI14" s="62"/>
       <c r="AJ14" s="121"/>
     </row>
     <row r="15" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130">
+      <c r="B15" s="128">
         <v>44742</v>
       </c>
-      <c r="C15" s="136">
+      <c r="C15" s="134">
         <v>44746</v>
       </c>
       <c r="D15" s="20">
@@ -6490,10 +6671,10 @@
         <f t="shared" si="0"/>
         <v>557030</v>
       </c>
-      <c r="S15" s="130">
+      <c r="S15" s="128">
         <v>44731</v>
       </c>
-      <c r="T15" s="136">
+      <c r="T15" s="134">
         <v>44732</v>
       </c>
       <c r="U15" s="20">
@@ -6504,22 +6685,22 @@
         <v>540817</v>
       </c>
       <c r="Z15" s="101"/>
-      <c r="AA15" s="137"/>
+      <c r="AA15" s="135"/>
       <c r="AB15" s="60"/>
       <c r="AC15" s="60"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="168"/>
-      <c r="AF15" s="169"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="164"/>
+      <c r="AF15" s="165"/>
       <c r="AG15" s="62"/>
-      <c r="AH15" s="170"/>
+      <c r="AH15" s="166"/>
       <c r="AI15" s="62"/>
       <c r="AJ15" s="121"/>
     </row>
     <row r="16" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130">
+      <c r="B16" s="128">
         <v>44743</v>
       </c>
-      <c r="C16" s="136">
+      <c r="C16" s="134">
         <v>44746</v>
       </c>
       <c r="D16" s="20">
@@ -6529,30 +6710,30 @@
         <f t="shared" si="0"/>
         <v>616466</v>
       </c>
-      <c r="S16" s="130"/>
-      <c r="T16" s="136"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="134"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20">
         <f t="shared" si="1"/>
         <v>540817</v>
       </c>
       <c r="Z16" s="101"/>
-      <c r="AA16" s="137"/>
+      <c r="AA16" s="135"/>
       <c r="AB16" s="60"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="168"/>
-      <c r="AF16" s="169"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="165"/>
       <c r="AG16" s="62"/>
-      <c r="AH16" s="170"/>
+      <c r="AH16" s="166"/>
       <c r="AI16" s="62"/>
       <c r="AJ16" s="121"/>
     </row>
     <row r="17" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130">
+      <c r="B17" s="128">
         <v>44744</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="134">
         <v>44746</v>
       </c>
       <c r="D17" s="20">
@@ -6562,8 +6743,8 @@
         <f t="shared" si="0"/>
         <v>655845.5</v>
       </c>
-      <c r="S17" s="130"/>
-      <c r="T17" s="136"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="134"/>
       <c r="U17" s="20">
         <v>-529362.74</v>
       </c>
@@ -6572,22 +6753,22 @@
         <v>11454.260000000009</v>
       </c>
       <c r="Z17" s="101"/>
-      <c r="AA17" s="137"/>
+      <c r="AA17" s="135"/>
       <c r="AB17" s="60"/>
       <c r="AC17" s="60"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="168"/>
-      <c r="AF17" s="169"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="164"/>
+      <c r="AF17" s="165"/>
       <c r="AG17" s="62"/>
-      <c r="AH17" s="170"/>
+      <c r="AH17" s="166"/>
       <c r="AI17" s="62"/>
       <c r="AJ17" s="121"/>
     </row>
     <row r="18" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="130">
+      <c r="B18" s="128">
         <v>44745</v>
       </c>
-      <c r="C18" s="136">
+      <c r="C18" s="134">
         <v>44746</v>
       </c>
       <c r="D18" s="20">
@@ -6597,68 +6778,68 @@
         <f t="shared" si="0"/>
         <v>704057.5</v>
       </c>
-      <c r="S18" s="130"/>
-      <c r="T18" s="136"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="134"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
       <c r="Z18" s="101"/>
-      <c r="AA18" s="137"/>
+      <c r="AA18" s="135"/>
       <c r="AB18" s="60"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="168"/>
-      <c r="AF18" s="169"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="164"/>
+      <c r="AF18" s="165"/>
       <c r="AG18" s="62"/>
-      <c r="AH18" s="170"/>
+      <c r="AH18" s="166"/>
       <c r="AI18" s="62"/>
       <c r="AJ18" s="121"/>
     </row>
     <row r="19" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="130">
+      <c r="B19" s="128">
         <v>44746</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="134">
         <v>44747</v>
       </c>
-      <c r="D19" s="186">
+      <c r="D19" s="182">
         <v>0</v>
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>704057.5</v>
       </c>
-      <c r="F19" s="185" t="s">
+      <c r="F19" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="130"/>
-      <c r="T19" s="210" t="s">
+      <c r="S19" s="128"/>
+      <c r="T19" s="230" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="211"/>
+      <c r="U19" s="231"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
       <c r="Z19" s="101"/>
-      <c r="AA19" s="137"/>
+      <c r="AA19" s="135"/>
       <c r="AB19" s="60"/>
       <c r="AC19" s="60"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="168"/>
-      <c r="AF19" s="169"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="165"/>
       <c r="AG19" s="62"/>
-      <c r="AH19" s="170"/>
+      <c r="AH19" s="166"/>
       <c r="AI19" s="62"/>
       <c r="AJ19" s="121"/>
     </row>
     <row r="20" spans="2:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="130">
+      <c r="B20" s="128">
         <v>44747</v>
       </c>
-      <c r="C20" s="136">
+      <c r="C20" s="134">
         <v>44751</v>
       </c>
       <c r="D20" s="20">
@@ -6669,8 +6850,8 @@
         <v>729099.5</v>
       </c>
       <c r="R20" s="121"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="136"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="134"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20">
         <f t="shared" si="1"/>
@@ -6679,23 +6860,23 @@
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
       <c r="Y20" s="121"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="137"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="135"/>
       <c r="AB20" s="60"/>
       <c r="AC20" s="60"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="168"/>
-      <c r="AF20" s="169"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="164"/>
+      <c r="AF20" s="165"/>
       <c r="AG20" s="62"/>
-      <c r="AH20" s="170"/>
+      <c r="AH20" s="166"/>
       <c r="AI20" s="62"/>
       <c r="AJ20" s="121"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="130">
+      <c r="B21" s="128">
         <v>44748</v>
       </c>
-      <c r="C21" s="136">
+      <c r="C21" s="134">
         <v>44751</v>
       </c>
       <c r="D21" s="20">
@@ -6706,8 +6887,8 @@
         <v>763849.5</v>
       </c>
       <c r="R21" s="121"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="136"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20">
         <f t="shared" si="1"/>
@@ -6717,22 +6898,22 @@
       <c r="X21" s="121"/>
       <c r="Y21" s="121"/>
       <c r="Z21" s="101"/>
-      <c r="AA21" s="137"/>
+      <c r="AA21" s="135"/>
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="168"/>
-      <c r="AF21" s="169"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="164"/>
+      <c r="AF21" s="165"/>
       <c r="AG21" s="62"/>
-      <c r="AH21" s="170"/>
+      <c r="AH21" s="166"/>
       <c r="AI21" s="62"/>
       <c r="AJ21" s="121"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="130">
+      <c r="B22" s="128">
         <v>44749</v>
       </c>
-      <c r="C22" s="136">
+      <c r="C22" s="134">
         <v>44751</v>
       </c>
       <c r="D22" s="20">
@@ -6743,10 +6924,10 @@
         <v>810932.5</v>
       </c>
       <c r="R22" s="121"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="136"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="134"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="160">
+      <c r="V22" s="158">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
@@ -6754,22 +6935,22 @@
       <c r="X22" s="121"/>
       <c r="Y22" s="121"/>
       <c r="Z22" s="101"/>
-      <c r="AA22" s="137"/>
+      <c r="AA22" s="135"/>
       <c r="AB22" s="60"/>
       <c r="AC22" s="60"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="168"/>
-      <c r="AF22" s="169"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="165"/>
       <c r="AG22" s="62"/>
-      <c r="AH22" s="170"/>
+      <c r="AH22" s="166"/>
       <c r="AI22" s="62"/>
-      <c r="AJ22" s="129"/>
+      <c r="AJ22" s="127"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="130">
+      <c r="B23" s="128">
         <v>44750</v>
       </c>
-      <c r="C23" s="136">
+      <c r="C23" s="134">
         <v>44751</v>
       </c>
       <c r="D23" s="20">
@@ -6780,30 +6961,30 @@
         <v>898568.5</v>
       </c>
       <c r="R23" s="121"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="136"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="134"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="121"/>
       <c r="X23" s="121"/>
       <c r="Y23" s="121"/>
       <c r="Z23" s="101"/>
-      <c r="AA23" s="137"/>
+      <c r="AA23" s="135"/>
       <c r="AB23" s="60"/>
       <c r="AC23" s="60"/>
-      <c r="AD23" s="166"/>
+      <c r="AD23" s="162"/>
       <c r="AE23" s="121"/>
       <c r="AF23" s="121"/>
       <c r="AG23" s="121"/>
       <c r="AH23" s="121"/>
-      <c r="AI23" s="174"/>
+      <c r="AI23" s="170"/>
       <c r="AJ23" s="121"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="130">
+      <c r="B24" s="128">
         <v>44751</v>
       </c>
-      <c r="C24" s="136">
+      <c r="C24" s="134">
         <v>44753</v>
       </c>
       <c r="D24" s="20">
@@ -6814,18 +6995,18 @@
         <v>942068.5</v>
       </c>
       <c r="R24" s="121"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="136"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="134"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
       <c r="W24" s="121"/>
       <c r="X24" s="121"/>
       <c r="Y24" s="121"/>
       <c r="Z24" s="101"/>
-      <c r="AA24" s="137"/>
+      <c r="AA24" s="135"/>
       <c r="AB24" s="60"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="166"/>
+      <c r="AD24" s="162"/>
       <c r="AE24" s="121"/>
       <c r="AF24" s="121"/>
       <c r="AG24" s="121"/>
@@ -6834,10 +7015,10 @@
       <c r="AJ24" s="121"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="181">
+      <c r="B25" s="177">
         <v>44751</v>
       </c>
-      <c r="C25" s="136">
+      <c r="C25" s="134">
         <v>44753</v>
       </c>
       <c r="D25" s="20">
@@ -6848,52 +7029,52 @@
         <v>942268.5</v>
       </c>
       <c r="R25" s="121"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="136"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="134"/>
       <c r="U25" s="20"/>
       <c r="V25" s="22"/>
       <c r="W25" s="121"/>
       <c r="X25" s="121"/>
       <c r="Y25" s="121"/>
       <c r="Z25" s="101"/>
-      <c r="AA25" s="137"/>
+      <c r="AA25" s="135"/>
       <c r="AB25" s="60"/>
       <c r="AC25" s="60"/>
     </row>
     <row r="26" spans="2:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="183">
+      <c r="B26" s="179">
         <v>44752</v>
       </c>
-      <c r="C26" s="182">
+      <c r="C26" s="178">
         <v>44753</v>
       </c>
-      <c r="D26" s="184">
+      <c r="D26" s="180">
         <v>38583.5</v>
       </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
         <v>980852</v>
       </c>
-      <c r="S26" s="157"/>
-      <c r="T26" s="157"/>
-      <c r="U26" s="157"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="157"/>
-      <c r="Z26" s="157"/>
-      <c r="AA26" s="157"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="157"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="183">
+      <c r="B27" s="179">
         <v>44753</v>
       </c>
-      <c r="C27" s="182">
+      <c r="C27" s="178">
         <v>44757</v>
       </c>
-      <c r="D27" s="184">
+      <c r="D27" s="180">
         <v>42175</v>
       </c>
       <c r="E27" s="20">
@@ -6902,13 +7083,13 @@
       </c>
     </row>
     <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="183">
+      <c r="B28" s="179">
         <v>44754</v>
       </c>
-      <c r="C28" s="182">
+      <c r="C28" s="178">
         <v>44757</v>
       </c>
-      <c r="D28" s="184">
+      <c r="D28" s="180">
         <v>34935</v>
       </c>
       <c r="E28" s="20">
@@ -6917,13 +7098,13 @@
       </c>
     </row>
     <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="183">
+      <c r="B29" s="179">
         <v>44755</v>
       </c>
-      <c r="C29" s="182">
+      <c r="C29" s="178">
         <v>44757</v>
       </c>
-      <c r="D29" s="184">
+      <c r="D29" s="180">
         <v>40724</v>
       </c>
       <c r="E29" s="20">
@@ -6932,13 +7113,13 @@
       </c>
     </row>
     <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="183">
+      <c r="B30" s="179">
         <v>44756</v>
       </c>
-      <c r="C30" s="182">
+      <c r="C30" s="178">
         <v>44757</v>
       </c>
-      <c r="D30" s="184">
+      <c r="D30" s="180">
         <v>49006</v>
       </c>
       <c r="E30" s="20">
@@ -6950,13 +7131,13 @@
       </c>
     </row>
     <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="183">
+      <c r="B31" s="179">
         <v>44757</v>
       </c>
-      <c r="C31" s="182">
+      <c r="C31" s="178">
         <v>44760</v>
       </c>
-      <c r="D31" s="184">
+      <c r="D31" s="180">
         <v>61056</v>
       </c>
       <c r="E31" s="20">
@@ -6965,13 +7146,13 @@
       </c>
     </row>
     <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="183">
+      <c r="B32" s="179">
         <v>44757</v>
       </c>
-      <c r="C32" s="182">
+      <c r="C32" s="178">
         <v>44760</v>
       </c>
-      <c r="D32" s="189">
+      <c r="D32" s="185">
         <v>936.5</v>
       </c>
       <c r="E32" s="20">
@@ -6980,13 +7161,13 @@
       </c>
     </row>
     <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="183">
+      <c r="B33" s="179">
         <v>44758</v>
       </c>
-      <c r="C33" s="182">
+      <c r="C33" s="178">
         <v>44760</v>
       </c>
-      <c r="D33" s="189">
+      <c r="D33" s="185">
         <v>1009.5</v>
       </c>
       <c r="E33" s="20">
@@ -6995,19 +7176,19 @@
       </c>
     </row>
     <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="183"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="187"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
         <v>1210694</v>
       </c>
     </row>
     <row r="35" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="180" t="s">
+      <c r="C35" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="179">
+      <c r="D35" s="175">
         <v>-1210693.69</v>
       </c>
       <c r="E35" s="20">
@@ -7016,34 +7197,34 @@
       </c>
     </row>
     <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="212" t="s">
+      <c r="B36" s="232" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="213"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="188">
+      <c r="C36" s="233"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="184">
         <f t="shared" si="0"/>
         <v>0.31000000005587935</v>
       </c>
     </row>
     <row r="37" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="215"/>
-      <c r="C37" s="216"/>
-      <c r="D37" s="217"/>
+      <c r="B37" s="235"/>
+      <c r="C37" s="236"/>
+      <c r="D37" s="237"/>
     </row>
     <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB40" s="178"/>
+      <c r="AB40" s="174"/>
     </row>
     <row r="41" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB41" s="178"/>
+      <c r="AB41" s="174"/>
     </row>
     <row r="42" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB42" s="178"/>
+      <c r="AB42" s="174"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="AB43" s="178"/>
+      <c r="AB43" s="174"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R44" s="121"/>
@@ -7054,7 +7235,7 @@
       <c r="W44" s="121"/>
       <c r="X44" s="121"/>
       <c r="Y44" s="121"/>
-      <c r="AB44" s="178"/>
+      <c r="AB44" s="174"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R45" s="121"/>
@@ -7066,8 +7247,8 @@
       <c r="X45" s="121"/>
       <c r="Y45" s="121"/>
       <c r="Z45" s="101"/>
-      <c r="AA45" s="137"/>
-      <c r="AB45" s="178"/>
+      <c r="AA45" s="135"/>
+      <c r="AB45" s="174"/>
       <c r="AC45" s="60"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.3">
@@ -7080,8 +7261,8 @@
       <c r="X46" s="121"/>
       <c r="Y46" s="121"/>
       <c r="Z46" s="101"/>
-      <c r="AA46" s="137"/>
-      <c r="AB46" s="178"/>
+      <c r="AA46" s="135"/>
+      <c r="AB46" s="174"/>
       <c r="AC46" s="60"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.3">
@@ -7094,8 +7275,8 @@
       <c r="X47" s="121"/>
       <c r="Y47" s="121"/>
       <c r="Z47" s="101"/>
-      <c r="AA47" s="137"/>
-      <c r="AB47" s="178"/>
+      <c r="AA47" s="135"/>
+      <c r="AB47" s="174"/>
       <c r="AC47" s="60"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -7108,8 +7289,8 @@
       <c r="X48" s="121"/>
       <c r="Y48" s="121"/>
       <c r="Z48" s="101"/>
-      <c r="AA48" s="137"/>
-      <c r="AB48" s="178"/>
+      <c r="AA48" s="135"/>
+      <c r="AB48" s="174"/>
       <c r="AC48" s="60"/>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.3">
@@ -7122,8 +7303,8 @@
       <c r="X49" s="121"/>
       <c r="Y49" s="121"/>
       <c r="Z49" s="101"/>
-      <c r="AA49" s="137"/>
-      <c r="AB49" s="178"/>
+      <c r="AA49" s="135"/>
+      <c r="AB49" s="174"/>
       <c r="AC49" s="60"/>
     </row>
     <row r="50" spans="18:29" x14ac:dyDescent="0.3">
@@ -7136,8 +7317,8 @@
       <c r="X50" s="121"/>
       <c r="Y50" s="121"/>
       <c r="Z50" s="101"/>
-      <c r="AA50" s="137"/>
-      <c r="AB50" s="178"/>
+      <c r="AA50" s="135"/>
+      <c r="AB50" s="174"/>
       <c r="AC50" s="60"/>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.3">
@@ -7150,8 +7331,8 @@
       <c r="X51" s="121"/>
       <c r="Y51" s="121"/>
       <c r="Z51" s="101"/>
-      <c r="AA51" s="137"/>
-      <c r="AB51" s="178"/>
+      <c r="AA51" s="135"/>
+      <c r="AB51" s="174"/>
       <c r="AC51" s="60"/>
     </row>
     <row r="52" spans="18:29" x14ac:dyDescent="0.3">
@@ -7164,8 +7345,8 @@
       <c r="X52" s="121"/>
       <c r="Y52" s="121"/>
       <c r="Z52" s="101"/>
-      <c r="AA52" s="137"/>
-      <c r="AB52" s="178"/>
+      <c r="AA52" s="135"/>
+      <c r="AB52" s="174"/>
       <c r="AC52" s="60"/>
     </row>
     <row r="53" spans="18:29" x14ac:dyDescent="0.3">
@@ -7178,8 +7359,8 @@
       <c r="X53" s="121"/>
       <c r="Y53" s="121"/>
       <c r="Z53" s="101"/>
-      <c r="AA53" s="137"/>
-      <c r="AB53" s="178"/>
+      <c r="AA53" s="135"/>
+      <c r="AB53" s="174"/>
       <c r="AC53" s="60"/>
     </row>
     <row r="54" spans="18:29" x14ac:dyDescent="0.3">
@@ -7192,8 +7373,8 @@
       <c r="X54" s="121"/>
       <c r="Y54" s="121"/>
       <c r="Z54" s="101"/>
-      <c r="AA54" s="137"/>
-      <c r="AB54" s="178"/>
+      <c r="AA54" s="135"/>
+      <c r="AB54" s="174"/>
       <c r="AC54" s="60"/>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.3">
@@ -7206,8 +7387,8 @@
       <c r="X55" s="121"/>
       <c r="Y55" s="121"/>
       <c r="Z55" s="101"/>
-      <c r="AA55" s="137"/>
-      <c r="AB55" s="178"/>
+      <c r="AA55" s="135"/>
+      <c r="AB55" s="174"/>
       <c r="AC55" s="60"/>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.3">
@@ -7220,8 +7401,8 @@
       <c r="X56" s="121"/>
       <c r="Y56" s="121"/>
       <c r="Z56" s="101"/>
-      <c r="AA56" s="137"/>
-      <c r="AB56" s="178"/>
+      <c r="AA56" s="135"/>
+      <c r="AB56" s="174"/>
       <c r="AC56" s="60"/>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.3">
@@ -7234,8 +7415,8 @@
       <c r="X57" s="121"/>
       <c r="Y57" s="121"/>
       <c r="Z57" s="101"/>
-      <c r="AA57" s="137"/>
-      <c r="AB57" s="178"/>
+      <c r="AA57" s="135"/>
+      <c r="AB57" s="174"/>
       <c r="AC57" s="60"/>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.3">
@@ -7248,8 +7429,8 @@
       <c r="X58" s="121"/>
       <c r="Y58" s="121"/>
       <c r="Z58" s="101"/>
-      <c r="AA58" s="137"/>
-      <c r="AB58" s="178"/>
+      <c r="AA58" s="135"/>
+      <c r="AB58" s="174"/>
       <c r="AC58" s="60"/>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.3">
@@ -7262,8 +7443,8 @@
       <c r="X59" s="121"/>
       <c r="Y59" s="121"/>
       <c r="Z59" s="101"/>
-      <c r="AA59" s="137"/>
-      <c r="AB59" s="178"/>
+      <c r="AA59" s="135"/>
+      <c r="AB59" s="174"/>
       <c r="AC59" s="60"/>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.3">
@@ -7276,25 +7457,25 @@
       <c r="X60" s="121"/>
       <c r="Y60" s="121"/>
       <c r="Z60" s="101"/>
-      <c r="AA60" s="137"/>
-      <c r="AB60" s="178"/>
+      <c r="AA60" s="135"/>
+      <c r="AB60" s="174"/>
       <c r="AC60" s="60"/>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB61" s="178"/>
+      <c r="AB61" s="174"/>
       <c r="AC61" s="60"/>
     </row>
     <row r="62" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB62" s="178"/>
-      <c r="AC62" s="129"/>
+      <c r="AB62" s="174"/>
+      <c r="AC62" s="127"/>
     </row>
     <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB63" s="178"/>
+      <c r="AB63" s="174"/>
       <c r="AC63" s="121"/>
     </row>
     <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB64" s="208"/>
-      <c r="AC64" s="209"/>
+      <c r="AB64" s="228"/>
+      <c r="AC64" s="229"/>
     </row>
     <row r="69" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB69" s="54"/>
@@ -7319,8 +7500,8 @@
   </sheetPr>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7328,7 +7509,7 @@
     <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="206" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
     <col min="7" max="7" width="18" style="56" customWidth="1"/>
@@ -7337,25 +7518,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="221" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7369,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>2</v>
@@ -7399,15 +7580,19 @@
       <c r="E4" s="15">
         <v>6477</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="192">
+        <v>44767</v>
+      </c>
+      <c r="G4" s="193">
+        <v>6477</v>
+      </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H65" si="0">E4-G4</f>
-        <v>6477</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44747</v>
       </c>
@@ -7421,14 +7606,18 @@
       <c r="E5" s="20">
         <v>19633</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G5" s="95">
+        <v>19633</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>19633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44748</v>
       </c>
@@ -7442,11 +7631,15 @@
       <c r="E6" s="20">
         <v>14155</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G6" s="95">
+        <v>14155</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>14155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7474,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
         <v>44748</v>
       </c>
@@ -7482,7 +7675,7 @@
         <v>417</v>
       </c>
       <c r="C8" s="82"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="74" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="20">
@@ -7507,14 +7700,14 @@
         <v>418</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="20">
         <v>73994</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="211"/>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>73994</v>
@@ -7528,17 +7721,21 @@
         <v>419</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="20">
         <v>12052</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G10" s="95">
+        <v>12052</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>12052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -7549,17 +7746,21 @@
         <v>420</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E11" s="20">
         <v>12144</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G11" s="95">
+        <v>12144</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>12144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -7591,17 +7792,21 @@
         <v>422</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="20">
         <v>30086</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G13" s="95">
+        <v>30086</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>30086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -7618,11 +7823,15 @@
       <c r="E14" s="20">
         <v>15014</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G14" s="95">
+        <v>15014</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>15014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -7658,7 +7867,7 @@
         <v>425</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="20">
@@ -7675,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44751</v>
       </c>
@@ -7683,17 +7892,21 @@
         <v>426</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="74" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="20">
         <v>409</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="208">
+        <v>44767</v>
+      </c>
+      <c r="G17" s="209">
+        <v>409</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7704,17 +7917,21 @@
         <v>427</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="20">
         <v>159350</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G18" s="95">
+        <v>159350</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>159350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7725,17 +7942,21 @@
         <v>428</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="20">
         <v>1704</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G19" s="95">
+        <v>1704</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>1704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7777,11 +7998,15 @@
       <c r="E21" s="20">
         <v>12784</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G21" s="95">
+        <v>12784</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>12784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7792,20 +8017,24 @@
         <v>431</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="20">
         <v>155040</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G22" s="95">
+        <v>155040</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>155040</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44754</v>
       </c>
@@ -7813,20 +8042,24 @@
         <v>432</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="20">
         <v>103870</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G23" s="95">
+        <v>103870</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>103870</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44755</v>
       </c>
@@ -7834,7 +8067,7 @@
         <v>433</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="20">
@@ -7851,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44755</v>
       </c>
@@ -7859,20 +8092,24 @@
         <v>434</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="20">
         <v>20000</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G25" s="95">
+        <v>20000</v>
+      </c>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44756</v>
       </c>
@@ -7886,14 +8123,18 @@
       <c r="E26" s="20">
         <v>43214</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G26" s="95">
+        <v>43214</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>43214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44758</v>
       </c>
@@ -7907,14 +8148,18 @@
       <c r="E27" s="20">
         <v>5000</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G27" s="95">
+        <v>5000</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44760</v>
       </c>
@@ -7922,17 +8167,21 @@
         <v>437</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="20">
         <v>15340</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G28" s="95">
+        <v>15340</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>15340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7960,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44761</v>
       </c>
@@ -7974,11 +8223,15 @@
       <c r="E30" s="20">
         <v>16640</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G30" s="95">
+        <v>16640</v>
+      </c>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>16640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7989,20 +8242,24 @@
         <v>440</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="20">
         <v>1245</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="21">
+        <v>44769</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1245</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>44763</v>
       </c>
@@ -8010,14 +8267,18 @@
         <v>441</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E32" s="20">
         <v>15341</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G32" s="95">
+        <v>15341</v>
+      </c>
       <c r="H32" s="18">
         <v>0</v>
       </c>
@@ -8030,19 +8291,23 @@
         <v>442</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="20">
         <v>221</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G33" s="95">
+        <v>221</v>
+      </c>
       <c r="H33" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>44764</v>
       </c>
@@ -8050,7 +8315,7 @@
         <v>443</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="26" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="20">
@@ -8062,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>44764</v>
       </c>
@@ -8070,7 +8335,7 @@
         <v>444</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="20">
@@ -8083,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>44764</v>
       </c>
@@ -8091,7 +8356,7 @@
         <v>445</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="141" t="s">
+      <c r="D36" s="26" t="s">
         <v>100</v>
       </c>
       <c r="E36" s="20">
@@ -8112,17 +8377,21 @@
         <v>446</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="20">
         <v>1414</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="208">
+        <v>44767</v>
+      </c>
+      <c r="G37" s="209">
+        <v>1414</v>
+      </c>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>1414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,17 +8402,21 @@
         <v>447</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="20">
         <v>42041</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="94">
+        <v>44767</v>
+      </c>
+      <c r="G38" s="95">
+        <v>42041</v>
+      </c>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>42041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8154,7 +8427,7 @@
         <v>448</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="26" t="s">
         <v>100</v>
       </c>
       <c r="E39" s="20">
@@ -8168,28 +8441,40 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="23">
+        <v>44766</v>
+      </c>
       <c r="B40" s="13">
         <v>449</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="20">
+        <v>728</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="23">
+        <v>44766</v>
+      </c>
       <c r="B41" s="13">
         <v>450</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
@@ -8198,78 +8483,108 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="23">
+        <v>44767</v>
+      </c>
       <c r="B42" s="13">
         <v>451</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="20">
+        <v>7875</v>
+      </c>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="23">
+        <v>44767</v>
+      </c>
       <c r="B43" s="13">
         <v>452</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="20">
+        <v>11843</v>
+      </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="23">
+        <v>44769</v>
+      </c>
       <c r="B44" s="13">
         <v>453</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="20">
+        <v>1646</v>
+      </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="23">
+        <v>44769</v>
+      </c>
       <c r="B45" s="13">
         <v>454</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="20">
+        <v>2446</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23">
+        <v>44771</v>
+      </c>
       <c r="B46" s="13">
         <v>455</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="20">
+        <v>18102</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18102</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8278,7 +8593,7 @@
         <v>456</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="20"/>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
@@ -8293,7 +8608,7 @@
         <v>457</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="20"/>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
@@ -8308,7 +8623,7 @@
         <v>458</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="20"/>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
@@ -8323,7 +8638,7 @@
         <v>459</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="20"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
@@ -8338,7 +8653,7 @@
         <v>460</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="20"/>
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
@@ -8353,7 +8668,7 @@
         <v>461</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
@@ -8368,7 +8683,7 @@
         <v>462</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="20"/>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
@@ -8383,7 +8698,7 @@
         <v>463</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="19"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
@@ -8398,7 +8713,7 @@
         <v>464</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="19"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="20"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
@@ -8413,7 +8728,7 @@
         <v>465</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="20"/>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
@@ -8428,7 +8743,7 @@
         <v>466</v>
       </c>
       <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="20"/>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
@@ -8443,7 +8758,7 @@
         <v>467</v>
       </c>
       <c r="C58" s="24"/>
-      <c r="D58" s="19"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="20"/>
       <c r="F58" s="21"/>
       <c r="G58" s="22"/>
@@ -8458,7 +8773,7 @@
         <v>468</v>
       </c>
       <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
       <c r="G59" s="22"/>
@@ -8473,7 +8788,7 @@
         <v>469</v>
       </c>
       <c r="C60" s="24"/>
-      <c r="D60" s="19"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="20"/>
       <c r="F60" s="21"/>
       <c r="G60" s="22"/>
@@ -8488,7 +8803,7 @@
         <v>470</v>
       </c>
       <c r="C61" s="24"/>
-      <c r="D61" s="19"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="20"/>
       <c r="F61" s="21"/>
       <c r="G61" s="22"/>
@@ -8501,7 +8816,7 @@
       <c r="A62" s="23"/>
       <c r="B62" s="13"/>
       <c r="C62" s="24"/>
-      <c r="D62" s="19"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="20"/>
       <c r="F62" s="21"/>
       <c r="G62" s="22"/>
@@ -8514,7 +8829,7 @@
       <c r="A63" s="23"/>
       <c r="B63" s="13"/>
       <c r="C63" s="24"/>
-      <c r="D63" s="19"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="20"/>
       <c r="F63" s="21"/>
       <c r="G63" s="22"/>
@@ -8527,7 +8842,7 @@
       <c r="A64" s="23"/>
       <c r="B64" s="13"/>
       <c r="C64" s="24"/>
-      <c r="D64" s="59"/>
+      <c r="D64" s="207"/>
       <c r="E64" s="60"/>
       <c r="F64" s="61"/>
       <c r="G64" s="62"/>
@@ -8540,7 +8855,7 @@
       <c r="A65" s="31"/>
       <c r="B65" s="100"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
+      <c r="D65" s="200"/>
       <c r="E65" s="34">
         <v>0</v>
       </c>
@@ -8555,26 +8870,26 @@
     <row r="66" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="201"/>
       <c r="E66" s="39">
         <f>SUM(E4:E65)</f>
-        <v>880818</v>
+        <v>923458</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39">
         <f>SUM(G4:G65)</f>
-        <v>71314</v>
+        <v>774488</v>
       </c>
       <c r="H66" s="40">
         <f>SUM(H4:H65)</f>
-        <v>767346</v>
+        <v>122374</v>
       </c>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="201"/>
       <c r="E67" s="41"/>
       <c r="F67" s="42"/>
       <c r="G67" s="43"/>
@@ -8584,7 +8899,7 @@
     <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="37"/>
       <c r="C68" s="38"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="201"/>
       <c r="E68" s="45" t="s">
         <v>6</v>
       </c>
@@ -8598,7 +8913,7 @@
     <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="37"/>
       <c r="C69" s="38"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="201"/>
       <c r="E69" s="45"/>
       <c r="F69" s="42"/>
       <c r="G69" s="46"/>
@@ -8608,19 +8923,19 @@
     <row r="70" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B70" s="37"/>
       <c r="C70" s="38"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="194">
+      <c r="D70" s="201"/>
+      <c r="E70" s="214">
         <f>E66-G66</f>
-        <v>809504</v>
-      </c>
-      <c r="F70" s="195"/>
-      <c r="G70" s="196"/>
+        <v>148970</v>
+      </c>
+      <c r="F70" s="215"/>
+      <c r="G70" s="216"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B71" s="37"/>
       <c r="C71" s="38"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="201"/>
       <c r="E71" s="41"/>
       <c r="F71" s="42"/>
       <c r="G71" s="43"/>
@@ -8629,19 +8944,19 @@
     <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="37"/>
       <c r="C72" s="38"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="197" t="s">
+      <c r="D72" s="201"/>
+      <c r="E72" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="197"/>
-      <c r="G72" s="197"/>
+      <c r="F72" s="217"/>
+      <c r="G72" s="217"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="111"/>
       <c r="B73" s="112"/>
       <c r="C73" s="113"/>
-      <c r="D73" s="114"/>
+      <c r="D73" s="202"/>
       <c r="E73" s="115"/>
       <c r="F73" s="116"/>
       <c r="G73" s="117"/>
@@ -8651,7 +8966,7 @@
       <c r="A74" s="101"/>
       <c r="B74" s="102"/>
       <c r="C74" s="103"/>
-      <c r="D74" s="49"/>
+      <c r="D74" s="203"/>
       <c r="E74" s="50"/>
       <c r="F74" s="51"/>
       <c r="G74" s="50"/>
@@ -8662,7 +8977,7 @@
       <c r="A75" s="118"/>
       <c r="B75" s="119"/>
       <c r="C75" s="120"/>
-      <c r="D75" s="121"/>
+      <c r="D75" s="204"/>
       <c r="E75" s="122"/>
       <c r="F75" s="123"/>
       <c r="G75" s="124"/>
@@ -8673,7 +8988,7 @@
       <c r="A76" s="118"/>
       <c r="B76" s="119"/>
       <c r="C76" s="120"/>
-      <c r="D76" s="121"/>
+      <c r="D76" s="204"/>
       <c r="E76" s="122"/>
       <c r="F76" s="123"/>
       <c r="G76" s="124"/>
@@ -8684,7 +8999,7 @@
       <c r="A77" s="118"/>
       <c r="B77" s="119"/>
       <c r="C77" s="120"/>
-      <c r="D77" s="121"/>
+      <c r="D77" s="204"/>
       <c r="E77" s="122"/>
       <c r="F77" s="123"/>
       <c r="G77" s="124"/>
@@ -8695,7 +9010,7 @@
       <c r="A78" s="118"/>
       <c r="B78" s="119"/>
       <c r="C78" s="120"/>
-      <c r="D78" s="121"/>
+      <c r="D78" s="204"/>
       <c r="E78" s="122"/>
       <c r="F78" s="123"/>
       <c r="G78" s="124"/>
@@ -8706,7 +9021,7 @@
       <c r="A79" s="118"/>
       <c r="B79" s="119"/>
       <c r="C79" s="120"/>
-      <c r="D79" s="121"/>
+      <c r="D79" s="204"/>
       <c r="E79" s="122"/>
       <c r="F79" s="123"/>
       <c r="G79" s="124"/>
@@ -8717,7 +9032,7 @@
       <c r="A80" s="118"/>
       <c r="B80" s="119"/>
       <c r="C80" s="120"/>
-      <c r="D80" s="121"/>
+      <c r="D80" s="204"/>
       <c r="E80" s="122"/>
       <c r="F80" s="123"/>
       <c r="G80" s="124"/>
@@ -8728,7 +9043,7 @@
       <c r="A81" s="118"/>
       <c r="B81" s="119"/>
       <c r="C81" s="120"/>
-      <c r="D81" s="121"/>
+      <c r="D81" s="204"/>
       <c r="E81" s="122"/>
       <c r="F81" s="123"/>
       <c r="G81" s="124"/>
@@ -8739,7 +9054,7 @@
       <c r="A82" s="118"/>
       <c r="B82" s="119"/>
       <c r="C82" s="120"/>
-      <c r="D82" s="121"/>
+      <c r="D82" s="204"/>
       <c r="E82" s="122"/>
       <c r="F82" s="123"/>
       <c r="G82" s="124"/>
@@ -8750,7 +9065,7 @@
       <c r="A83" s="118"/>
       <c r="B83" s="119"/>
       <c r="C83" s="120"/>
-      <c r="D83" s="121"/>
+      <c r="D83" s="204"/>
       <c r="E83" s="122"/>
       <c r="F83" s="123"/>
       <c r="G83" s="124"/>
@@ -8761,7 +9076,7 @@
       <c r="A84" s="118"/>
       <c r="B84" s="119"/>
       <c r="C84" s="120"/>
-      <c r="D84" s="121"/>
+      <c r="D84" s="204"/>
       <c r="E84" s="122"/>
       <c r="F84" s="123"/>
       <c r="G84" s="124"/>
@@ -8771,7 +9086,7 @@
       <c r="A85" s="105"/>
       <c r="B85" s="106"/>
       <c r="C85" s="107"/>
-      <c r="D85" s="104"/>
+      <c r="D85" s="205"/>
       <c r="E85" s="108"/>
       <c r="F85" s="109"/>
       <c r="G85" s="110"/>
@@ -8800,8 +9115,8 @@
   </sheetPr>
   <dimension ref="B1:AJ69"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8811,7 +9126,8 @@
     <col min="3" max="3" width="11.42578125" style="114"/>
     <col min="4" max="4" width="15" style="114" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="11.42578125" style="114"/>
+    <col min="6" max="6" width="11.42578125" style="244"/>
+    <col min="7" max="12" width="11.42578125" style="114"/>
     <col min="13" max="14" width="39.140625" style="114" customWidth="1"/>
     <col min="15" max="15" width="31.5703125" style="114" customWidth="1"/>
     <col min="16" max="18" width="14.7109375" style="114" customWidth="1"/>
@@ -8820,10 +9136,10 @@
     <col min="21" max="21" width="18.28515625" style="114" customWidth="1"/>
     <col min="22" max="22" width="19.28515625" style="114" customWidth="1"/>
     <col min="23" max="26" width="11.42578125" style="114"/>
-    <col min="27" max="27" width="14.85546875" style="138" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="136" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" style="115" customWidth="1"/>
     <col min="29" max="29" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="142"/>
+    <col min="30" max="30" width="11.42578125" style="140"/>
     <col min="31" max="32" width="11.42578125" style="114"/>
     <col min="33" max="33" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.42578125" style="114"/>
@@ -8832,136 +9148,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="204"/>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="205"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
+      <c r="Y1" s="225"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="225"/>
+      <c r="AB1" s="225"/>
+      <c r="AC1" s="225"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="S2" s="175" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="S2" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="165"/>
       <c r="AG2" s="62"/>
-      <c r="AH2" s="170"/>
+      <c r="AH2" s="166"/>
       <c r="AI2" s="62"/>
       <c r="AJ2" s="121"/>
     </row>
     <row r="3" spans="2:36" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="177" t="s">
+      <c r="E3" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="132" t="s">
+      <c r="S3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="134" t="s">
+      <c r="T3" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="139" t="s">
+      <c r="U3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="133" t="s">
+      <c r="V3" s="131" t="s">
         <v>92</v>
       </c>
       <c r="Z3" s="101"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="169"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="162"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="165"/>
       <c r="AG3" s="62"/>
-      <c r="AH3" s="170"/>
+      <c r="AH3" s="166"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="121"/>
     </row>
     <row r="4" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="130">
-        <v>44759</v>
-      </c>
-      <c r="C4" s="135">
-        <v>44760</v>
-      </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131">
+      <c r="B4" s="128">
+        <v>44763</v>
+      </c>
+      <c r="C4" s="133">
+        <v>44767</v>
+      </c>
+      <c r="D4" s="129">
+        <v>80325</v>
+      </c>
+      <c r="E4" s="129">
         <f>D4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="192" t="s">
+        <v>80325</v>
+      </c>
+      <c r="F4" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="130">
+      <c r="S4" s="128">
         <v>44720</v>
       </c>
-      <c r="T4" s="135">
+      <c r="T4" s="133">
         <v>44722</v>
       </c>
-      <c r="U4" s="131">
+      <c r="U4" s="129">
         <v>45730</v>
       </c>
-      <c r="V4" s="131">
+      <c r="V4" s="129">
         <f>U4</f>
         <v>45730</v>
       </c>
       <c r="Z4" s="101"/>
-      <c r="AA4" s="137"/>
+      <c r="AA4" s="135"/>
       <c r="AB4" s="60"/>
       <c r="AC4" s="60"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="169"/>
+      <c r="AD4" s="162"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="165"/>
       <c r="AG4" s="62"/>
-      <c r="AH4" s="170"/>
+      <c r="AH4" s="166"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="121"/>
     </row>
     <row r="5" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="130"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="128">
+        <v>44764</v>
+      </c>
+      <c r="C5" s="134">
+        <v>44767</v>
+      </c>
+      <c r="D5" s="20">
+        <v>40907</v>
+      </c>
       <c r="E5" s="20">
         <f>E4+D5</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="130">
+        <v>121232</v>
+      </c>
+      <c r="F5" s="244" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="128">
         <v>44721</v>
       </c>
-      <c r="T5" s="136">
+      <c r="T5" s="134">
         <v>44722</v>
       </c>
       <c r="U5" s="20">
@@ -8972,29 +9299,38 @@
         <v>90430</v>
       </c>
       <c r="Z5" s="101"/>
-      <c r="AA5" s="137"/>
+      <c r="AA5" s="135"/>
       <c r="AB5" s="60"/>
       <c r="AC5" s="60"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="169"/>
+      <c r="AD5" s="162"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="165"/>
       <c r="AG5" s="62"/>
-      <c r="AH5" s="170"/>
+      <c r="AH5" s="166"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="121"/>
     </row>
     <row r="6" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="130"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="128">
+        <v>44765</v>
+      </c>
+      <c r="C6" s="134">
+        <v>44767</v>
+      </c>
+      <c r="D6" s="20">
+        <v>72303.5</v>
+      </c>
       <c r="E6" s="20">
-        <f>E5+D6</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="130">
+        <f t="shared" ref="E6:E12" si="0">E5+D6</f>
+        <v>193535.5</v>
+      </c>
+      <c r="F6" s="244" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="128">
         <v>44722</v>
       </c>
-      <c r="T6" s="136">
+      <c r="T6" s="134">
         <v>44725</v>
       </c>
       <c r="U6" s="20">
@@ -9005,29 +9341,38 @@
         <v>136373</v>
       </c>
       <c r="Z6" s="101"/>
-      <c r="AA6" s="137"/>
+      <c r="AA6" s="135"/>
       <c r="AB6" s="60"/>
       <c r="AC6" s="60"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="168"/>
-      <c r="AF6" s="169"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="165"/>
       <c r="AG6" s="62"/>
-      <c r="AH6" s="170"/>
+      <c r="AH6" s="166"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="121"/>
     </row>
     <row r="7" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="130"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="128">
+        <v>44766</v>
+      </c>
+      <c r="C7" s="134">
+        <v>44767</v>
+      </c>
+      <c r="D7" s="20">
+        <v>36105</v>
+      </c>
       <c r="E7" s="20">
-        <f t="shared" ref="E7:E36" si="0">E6+D7</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="130">
+        <f t="shared" si="0"/>
+        <v>229640.5</v>
+      </c>
+      <c r="F7" s="244" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="128">
         <v>44723</v>
       </c>
-      <c r="T7" s="136">
+      <c r="T7" s="134">
         <v>44725</v>
       </c>
       <c r="U7" s="20">
@@ -9038,29 +9383,38 @@
         <v>152986.5</v>
       </c>
       <c r="Z7" s="101"/>
-      <c r="AA7" s="137"/>
+      <c r="AA7" s="135"/>
       <c r="AB7" s="60"/>
       <c r="AC7" s="60"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="169"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="165"/>
       <c r="AG7" s="62"/>
-      <c r="AH7" s="170"/>
+      <c r="AH7" s="166"/>
       <c r="AI7" s="62"/>
       <c r="AJ7" s="121"/>
     </row>
     <row r="8" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="128">
+        <v>44767</v>
+      </c>
+      <c r="C8" s="134">
+        <v>44771</v>
+      </c>
+      <c r="D8" s="20">
+        <v>3510</v>
+      </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="130">
+        <v>233150.5</v>
+      </c>
+      <c r="F8" s="244" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="128">
         <v>44724</v>
       </c>
-      <c r="T8" s="136">
+      <c r="T8" s="134">
         <v>44725</v>
       </c>
       <c r="U8" s="20">
@@ -9071,29 +9425,38 @@
         <v>170140.5</v>
       </c>
       <c r="Z8" s="101"/>
-      <c r="AA8" s="137"/>
+      <c r="AA8" s="135"/>
       <c r="AB8" s="60"/>
       <c r="AC8" s="60"/>
-      <c r="AD8" s="166"/>
-      <c r="AE8" s="168"/>
-      <c r="AF8" s="169"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="164"/>
+      <c r="AF8" s="165"/>
       <c r="AG8" s="62"/>
-      <c r="AH8" s="170"/>
+      <c r="AH8" s="166"/>
       <c r="AI8" s="62"/>
       <c r="AJ8" s="121"/>
     </row>
     <row r="9" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="130"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="128">
+        <v>44768</v>
+      </c>
+      <c r="C9" s="134">
+        <v>44771</v>
+      </c>
+      <c r="D9" s="20">
+        <v>17556</v>
+      </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="130">
+        <v>250706.5</v>
+      </c>
+      <c r="F9" s="244" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="128">
         <v>44725</v>
       </c>
-      <c r="T9" s="136">
+      <c r="T9" s="134">
         <v>44728</v>
       </c>
       <c r="U9" s="20">
@@ -9104,29 +9467,38 @@
         <v>220490.5</v>
       </c>
       <c r="Z9" s="101"/>
-      <c r="AA9" s="137"/>
+      <c r="AA9" s="135"/>
       <c r="AB9" s="60"/>
       <c r="AC9" s="60"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="169"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="165"/>
       <c r="AG9" s="62"/>
-      <c r="AH9" s="170"/>
+      <c r="AH9" s="166"/>
       <c r="AI9" s="62"/>
       <c r="AJ9" s="121"/>
     </row>
     <row r="10" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="130"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="128">
+        <v>44769</v>
+      </c>
+      <c r="C10" s="134">
+        <v>44771</v>
+      </c>
+      <c r="D10" s="20">
+        <v>41640</v>
+      </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="130">
+        <v>292346.5</v>
+      </c>
+      <c r="F10" s="244" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="128">
         <v>44726</v>
       </c>
-      <c r="T10" s="136">
+      <c r="T10" s="134">
         <v>44728</v>
       </c>
       <c r="U10" s="20">
@@ -9137,29 +9509,35 @@
         <v>265410.5</v>
       </c>
       <c r="Z10" s="101"/>
-      <c r="AA10" s="137"/>
+      <c r="AA10" s="135"/>
       <c r="AB10" s="60"/>
       <c r="AC10" s="60"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="169"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="165"/>
       <c r="AG10" s="62"/>
-      <c r="AH10" s="170"/>
+      <c r="AH10" s="166"/>
       <c r="AI10" s="62"/>
       <c r="AJ10" s="121"/>
     </row>
     <row r="11" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="130"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="128">
+        <v>44770</v>
+      </c>
+      <c r="C11" s="134">
+        <v>44771</v>
+      </c>
+      <c r="D11" s="20">
+        <v>37988.5</v>
+      </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="130">
+        <v>330335</v>
+      </c>
+      <c r="S11" s="128">
         <v>44727</v>
       </c>
-      <c r="T11" s="136">
+      <c r="T11" s="134">
         <v>44728</v>
       </c>
       <c r="U11" s="20">
@@ -9170,29 +9548,35 @@
         <v>301701</v>
       </c>
       <c r="Z11" s="101"/>
-      <c r="AA11" s="137"/>
+      <c r="AA11" s="135"/>
       <c r="AB11" s="60"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="166"/>
-      <c r="AE11" s="168"/>
-      <c r="AF11" s="169"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="165"/>
       <c r="AG11" s="62"/>
-      <c r="AH11" s="170"/>
+      <c r="AH11" s="166"/>
       <c r="AI11" s="62"/>
       <c r="AJ11" s="121"/>
     </row>
     <row r="12" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="128">
+        <v>44771</v>
+      </c>
+      <c r="C12" s="134">
+        <v>44776</v>
+      </c>
+      <c r="D12" s="20">
+        <v>56000</v>
+      </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="130">
+        <v>386335</v>
+      </c>
+      <c r="S12" s="128">
         <v>44728</v>
       </c>
-      <c r="T12" s="136">
+      <c r="T12" s="134">
         <v>44732</v>
       </c>
       <c r="U12" s="20">
@@ -9203,29 +9587,35 @@
         <v>351277</v>
       </c>
       <c r="Z12" s="101"/>
-      <c r="AA12" s="137"/>
+      <c r="AA12" s="135"/>
       <c r="AB12" s="60"/>
       <c r="AC12" s="60"/>
-      <c r="AD12" s="166"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="169"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="165"/>
       <c r="AG12" s="62"/>
-      <c r="AH12" s="170"/>
+      <c r="AH12" s="166"/>
       <c r="AI12" s="62"/>
       <c r="AJ12" s="121"/>
     </row>
     <row r="13" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="128">
+        <v>44772</v>
+      </c>
+      <c r="C13" s="134">
+        <v>44776</v>
+      </c>
+      <c r="D13" s="22">
+        <v>50983</v>
+      </c>
       <c r="E13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="130">
+        <f t="shared" ref="E7:E36" si="2">E12+D13</f>
+        <v>437318</v>
+      </c>
+      <c r="S13" s="128">
         <v>44729</v>
       </c>
-      <c r="T13" s="136">
+      <c r="T13" s="134">
         <v>44732</v>
       </c>
       <c r="U13" s="22">
@@ -9236,29 +9626,35 @@
         <v>399400</v>
       </c>
       <c r="Z13" s="101"/>
-      <c r="AA13" s="137"/>
+      <c r="AA13" s="135"/>
       <c r="AB13" s="62"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="166"/>
-      <c r="AE13" s="168"/>
-      <c r="AF13" s="169"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="164"/>
+      <c r="AF13" s="165"/>
       <c r="AG13" s="62"/>
-      <c r="AH13" s="170"/>
+      <c r="AH13" s="166"/>
       <c r="AI13" s="62"/>
       <c r="AJ13" s="121"/>
     </row>
     <row r="14" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="128">
+        <v>44773</v>
+      </c>
+      <c r="C14" s="134">
+        <v>44776</v>
+      </c>
+      <c r="D14" s="20">
+        <v>46721</v>
+      </c>
       <c r="E14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="130">
+        <f t="shared" si="2"/>
+        <v>484039</v>
+      </c>
+      <c r="S14" s="128">
         <v>44730</v>
       </c>
-      <c r="T14" s="136">
+      <c r="T14" s="134">
         <v>44732</v>
       </c>
       <c r="U14" s="20">
@@ -9269,29 +9665,29 @@
         <v>465700</v>
       </c>
       <c r="Z14" s="101"/>
-      <c r="AA14" s="137"/>
+      <c r="AA14" s="135"/>
       <c r="AB14" s="60"/>
       <c r="AC14" s="60"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="168"/>
-      <c r="AF14" s="169"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="164"/>
+      <c r="AF14" s="165"/>
       <c r="AG14" s="62"/>
-      <c r="AH14" s="170"/>
+      <c r="AH14" s="166"/>
       <c r="AI14" s="62"/>
       <c r="AJ14" s="121"/>
     </row>
     <row r="15" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130"/>
-      <c r="C15" s="136"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="134"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="130">
+        <f t="shared" si="2"/>
+        <v>484039</v>
+      </c>
+      <c r="S15" s="128">
         <v>44731</v>
       </c>
-      <c r="T15" s="136">
+      <c r="T15" s="134">
         <v>44732</v>
       </c>
       <c r="U15" s="20">
@@ -9302,54 +9698,54 @@
         <v>540817</v>
       </c>
       <c r="Z15" s="101"/>
-      <c r="AA15" s="137"/>
+      <c r="AA15" s="135"/>
       <c r="AB15" s="60"/>
       <c r="AC15" s="60"/>
-      <c r="AD15" s="166"/>
-      <c r="AE15" s="168"/>
-      <c r="AF15" s="169"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="164"/>
+      <c r="AF15" s="165"/>
       <c r="AG15" s="62"/>
-      <c r="AH15" s="170"/>
+      <c r="AH15" s="166"/>
       <c r="AI15" s="62"/>
       <c r="AJ15" s="121"/>
     </row>
     <row r="16" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130"/>
-      <c r="C16" s="136"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="130"/>
-      <c r="T16" s="136"/>
+        <f t="shared" si="2"/>
+        <v>484039</v>
+      </c>
+      <c r="S16" s="128"/>
+      <c r="T16" s="134"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20">
         <f t="shared" si="1"/>
         <v>540817</v>
       </c>
       <c r="Z16" s="101"/>
-      <c r="AA16" s="137"/>
+      <c r="AA16" s="135"/>
       <c r="AB16" s="60"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="168"/>
-      <c r="AF16" s="169"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="165"/>
       <c r="AG16" s="62"/>
-      <c r="AH16" s="170"/>
+      <c r="AH16" s="166"/>
       <c r="AI16" s="62"/>
       <c r="AJ16" s="121"/>
     </row>
     <row r="17" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130"/>
-      <c r="C17" s="136"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="130"/>
-      <c r="T17" s="136"/>
+        <f t="shared" si="2"/>
+        <v>484039</v>
+      </c>
+      <c r="S17" s="128"/>
+      <c r="T17" s="134"/>
       <c r="U17" s="20">
         <v>-529362.74</v>
       </c>
@@ -9358,85 +9754,85 @@
         <v>11454.260000000009</v>
       </c>
       <c r="Z17" s="101"/>
-      <c r="AA17" s="137"/>
+      <c r="AA17" s="135"/>
       <c r="AB17" s="60"/>
       <c r="AC17" s="60"/>
-      <c r="AD17" s="166"/>
-      <c r="AE17" s="168"/>
-      <c r="AF17" s="169"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="164"/>
+      <c r="AF17" s="165"/>
       <c r="AG17" s="62"/>
-      <c r="AH17" s="170"/>
+      <c r="AH17" s="166"/>
       <c r="AI17" s="62"/>
       <c r="AJ17" s="121"/>
     </row>
     <row r="18" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="130"/>
-      <c r="C18" s="136"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="134"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="130"/>
-      <c r="T18" s="136"/>
+        <f t="shared" si="2"/>
+        <v>484039</v>
+      </c>
+      <c r="S18" s="128"/>
+      <c r="T18" s="134"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
       <c r="Z18" s="101"/>
-      <c r="AA18" s="137"/>
+      <c r="AA18" s="135"/>
       <c r="AB18" s="60"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="168"/>
-      <c r="AF18" s="169"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="164"/>
+      <c r="AF18" s="165"/>
       <c r="AG18" s="62"/>
-      <c r="AH18" s="170"/>
+      <c r="AH18" s="166"/>
       <c r="AI18" s="62"/>
       <c r="AJ18" s="121"/>
     </row>
     <row r="19" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="130"/>
-      <c r="C19" s="136"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="134"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="190"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="210" t="s">
+        <f t="shared" si="2"/>
+        <v>484039</v>
+      </c>
+      <c r="F19" s="186"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="230" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="211"/>
+      <c r="U19" s="231"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
       <c r="Z19" s="101"/>
-      <c r="AA19" s="137"/>
+      <c r="AA19" s="135"/>
       <c r="AB19" s="60"/>
       <c r="AC19" s="60"/>
-      <c r="AD19" s="166"/>
-      <c r="AE19" s="168"/>
-      <c r="AF19" s="169"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="165"/>
       <c r="AG19" s="62"/>
-      <c r="AH19" s="170"/>
+      <c r="AH19" s="166"/>
       <c r="AI19" s="62"/>
       <c r="AJ19" s="121"/>
     </row>
     <row r="20" spans="2:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="B20" s="130"/>
-      <c r="C20" s="136"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
       <c r="R20" s="121"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="136"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="134"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20">
         <f t="shared" si="1"/>
@@ -9445,29 +9841,29 @@
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
       <c r="Y20" s="121"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="137"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="135"/>
       <c r="AB20" s="60"/>
       <c r="AC20" s="60"/>
-      <c r="AD20" s="166"/>
-      <c r="AE20" s="168"/>
-      <c r="AF20" s="169"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="164"/>
+      <c r="AF20" s="165"/>
       <c r="AG20" s="62"/>
-      <c r="AH20" s="170"/>
+      <c r="AH20" s="166"/>
       <c r="AI20" s="62"/>
       <c r="AJ20" s="121"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="130"/>
-      <c r="C21" s="136"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
       <c r="R21" s="121"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="136"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="134"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20">
         <f t="shared" si="1"/>
@@ -9477,30 +9873,30 @@
       <c r="X21" s="121"/>
       <c r="Y21" s="121"/>
       <c r="Z21" s="101"/>
-      <c r="AA21" s="137"/>
+      <c r="AA21" s="135"/>
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="168"/>
-      <c r="AF21" s="169"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="164"/>
+      <c r="AF21" s="165"/>
       <c r="AG21" s="62"/>
-      <c r="AH21" s="170"/>
+      <c r="AH21" s="166"/>
       <c r="AI21" s="62"/>
       <c r="AJ21" s="121"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="130"/>
-      <c r="C22" s="136"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
       <c r="R22" s="121"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="136"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="134"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="160">
+      <c r="V22" s="158">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
@@ -9508,66 +9904,66 @@
       <c r="X22" s="121"/>
       <c r="Y22" s="121"/>
       <c r="Z22" s="101"/>
-      <c r="AA22" s="137"/>
+      <c r="AA22" s="135"/>
       <c r="AB22" s="60"/>
       <c r="AC22" s="60"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="168"/>
-      <c r="AF22" s="169"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="165"/>
       <c r="AG22" s="62"/>
-      <c r="AH22" s="170"/>
+      <c r="AH22" s="166"/>
       <c r="AI22" s="62"/>
-      <c r="AJ22" s="129"/>
+      <c r="AJ22" s="127"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="130"/>
-      <c r="C23" s="136"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
       <c r="R23" s="121"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="136"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="134"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="121"/>
       <c r="X23" s="121"/>
       <c r="Y23" s="121"/>
       <c r="Z23" s="101"/>
-      <c r="AA23" s="137"/>
+      <c r="AA23" s="135"/>
       <c r="AB23" s="60"/>
       <c r="AC23" s="60"/>
-      <c r="AD23" s="166"/>
+      <c r="AD23" s="162"/>
       <c r="AE23" s="121"/>
       <c r="AF23" s="121"/>
       <c r="AG23" s="121"/>
       <c r="AH23" s="121"/>
-      <c r="AI23" s="174"/>
+      <c r="AI23" s="170"/>
       <c r="AJ23" s="121"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="130"/>
-      <c r="C24" s="136"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
       <c r="R24" s="121"/>
-      <c r="S24" s="130"/>
-      <c r="T24" s="136"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="134"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
       <c r="W24" s="121"/>
       <c r="X24" s="121"/>
       <c r="Y24" s="121"/>
       <c r="Z24" s="101"/>
-      <c r="AA24" s="137"/>
+      <c r="AA24" s="135"/>
       <c r="AB24" s="60"/>
       <c r="AC24" s="60"/>
-      <c r="AD24" s="166"/>
+      <c r="AD24" s="162"/>
       <c r="AE24" s="121"/>
       <c r="AF24" s="121"/>
       <c r="AG24" s="121"/>
@@ -9576,165 +9972,165 @@
       <c r="AJ24" s="121"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="181"/>
-      <c r="C25" s="136"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
       <c r="R25" s="121"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="136"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="134"/>
       <c r="U25" s="20"/>
       <c r="V25" s="22"/>
       <c r="W25" s="121"/>
       <c r="X25" s="121"/>
       <c r="Y25" s="121"/>
       <c r="Z25" s="101"/>
-      <c r="AA25" s="137"/>
+      <c r="AA25" s="135"/>
       <c r="AB25" s="60"/>
       <c r="AC25" s="60"/>
     </row>
     <row r="26" spans="2:36" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="183"/>
-      <c r="C26" s="182"/>
-      <c r="D26" s="184"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="157"/>
-      <c r="T26" s="157"/>
-      <c r="U26" s="157"/>
-      <c r="V26" s="157"/>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="157"/>
-      <c r="Z26" s="157"/>
-      <c r="AA26" s="157"/>
-      <c r="AB26" s="157"/>
-      <c r="AC26" s="157"/>
+        <f t="shared" si="2"/>
+        <v>484039</v>
+      </c>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="183"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="184"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
     </row>
     <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="183"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="184"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
     </row>
     <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="183"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="184"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
     </row>
     <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="183"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="184"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="180"/>
       <c r="E30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
       <c r="N30" s="114" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="183"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="184"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="180"/>
       <c r="E31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
     </row>
     <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="183"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="189"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="185"/>
       <c r="E32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
     </row>
     <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="183"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="189"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="185"/>
       <c r="E33" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
     </row>
     <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="183"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="187"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>484039</v>
       </c>
     </row>
     <row r="35" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="180" t="s">
+      <c r="C35" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="179">
+      <c r="D35" s="175">
         <v>-1798927.83</v>
       </c>
       <c r="E35" s="20">
-        <f t="shared" si="0"/>
-        <v>-1798927.83</v>
+        <f t="shared" si="2"/>
+        <v>-1314888.83</v>
       </c>
     </row>
     <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="218" t="s">
+      <c r="B36" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="219"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="188">
-        <f t="shared" si="0"/>
-        <v>-1798927.83</v>
+      <c r="C36" s="239"/>
+      <c r="D36" s="240"/>
+      <c r="E36" s="184">
+        <f t="shared" si="2"/>
+        <v>-1314888.83</v>
       </c>
     </row>
     <row r="37" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="221"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="223"/>
+      <c r="B37" s="241"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="243"/>
     </row>
     <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB40" s="178"/>
+      <c r="AB40" s="174"/>
     </row>
     <row r="41" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB41" s="178"/>
+      <c r="AB41" s="174"/>
     </row>
     <row r="42" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB42" s="178"/>
+      <c r="AB42" s="174"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="AB43" s="178"/>
+      <c r="AB43" s="174"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R44" s="121"/>
@@ -9745,7 +10141,7 @@
       <c r="W44" s="121"/>
       <c r="X44" s="121"/>
       <c r="Y44" s="121"/>
-      <c r="AB44" s="178"/>
+      <c r="AB44" s="174"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.3">
       <c r="R45" s="121"/>
@@ -9757,8 +10153,8 @@
       <c r="X45" s="121"/>
       <c r="Y45" s="121"/>
       <c r="Z45" s="101"/>
-      <c r="AA45" s="137"/>
-      <c r="AB45" s="178"/>
+      <c r="AA45" s="135"/>
+      <c r="AB45" s="174"/>
       <c r="AC45" s="60"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.3">
@@ -9771,8 +10167,8 @@
       <c r="X46" s="121"/>
       <c r="Y46" s="121"/>
       <c r="Z46" s="101"/>
-      <c r="AA46" s="137"/>
-      <c r="AB46" s="178"/>
+      <c r="AA46" s="135"/>
+      <c r="AB46" s="174"/>
       <c r="AC46" s="60"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.3">
@@ -9785,8 +10181,8 @@
       <c r="X47" s="121"/>
       <c r="Y47" s="121"/>
       <c r="Z47" s="101"/>
-      <c r="AA47" s="137"/>
-      <c r="AB47" s="178"/>
+      <c r="AA47" s="135"/>
+      <c r="AB47" s="174"/>
       <c r="AC47" s="60"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -9799,8 +10195,8 @@
       <c r="X48" s="121"/>
       <c r="Y48" s="121"/>
       <c r="Z48" s="101"/>
-      <c r="AA48" s="137"/>
-      <c r="AB48" s="178"/>
+      <c r="AA48" s="135"/>
+      <c r="AB48" s="174"/>
       <c r="AC48" s="60"/>
     </row>
     <row r="49" spans="18:29" x14ac:dyDescent="0.3">
@@ -9813,8 +10209,8 @@
       <c r="X49" s="121"/>
       <c r="Y49" s="121"/>
       <c r="Z49" s="101"/>
-      <c r="AA49" s="137"/>
-      <c r="AB49" s="178"/>
+      <c r="AA49" s="135"/>
+      <c r="AB49" s="174"/>
       <c r="AC49" s="60"/>
     </row>
     <row r="50" spans="18:29" x14ac:dyDescent="0.3">
@@ -9827,8 +10223,8 @@
       <c r="X50" s="121"/>
       <c r="Y50" s="121"/>
       <c r="Z50" s="101"/>
-      <c r="AA50" s="137"/>
-      <c r="AB50" s="178"/>
+      <c r="AA50" s="135"/>
+      <c r="AB50" s="174"/>
       <c r="AC50" s="60"/>
     </row>
     <row r="51" spans="18:29" x14ac:dyDescent="0.3">
@@ -9841,8 +10237,8 @@
       <c r="X51" s="121"/>
       <c r="Y51" s="121"/>
       <c r="Z51" s="101"/>
-      <c r="AA51" s="137"/>
-      <c r="AB51" s="178"/>
+      <c r="AA51" s="135"/>
+      <c r="AB51" s="174"/>
       <c r="AC51" s="60"/>
     </row>
     <row r="52" spans="18:29" x14ac:dyDescent="0.3">
@@ -9855,8 +10251,8 @@
       <c r="X52" s="121"/>
       <c r="Y52" s="121"/>
       <c r="Z52" s="101"/>
-      <c r="AA52" s="137"/>
-      <c r="AB52" s="178"/>
+      <c r="AA52" s="135"/>
+      <c r="AB52" s="174"/>
       <c r="AC52" s="60"/>
     </row>
     <row r="53" spans="18:29" x14ac:dyDescent="0.3">
@@ -9869,8 +10265,8 @@
       <c r="X53" s="121"/>
       <c r="Y53" s="121"/>
       <c r="Z53" s="101"/>
-      <c r="AA53" s="137"/>
-      <c r="AB53" s="178"/>
+      <c r="AA53" s="135"/>
+      <c r="AB53" s="174"/>
       <c r="AC53" s="60"/>
     </row>
     <row r="54" spans="18:29" x14ac:dyDescent="0.3">
@@ -9883,8 +10279,8 @@
       <c r="X54" s="121"/>
       <c r="Y54" s="121"/>
       <c r="Z54" s="101"/>
-      <c r="AA54" s="137"/>
-      <c r="AB54" s="178"/>
+      <c r="AA54" s="135"/>
+      <c r="AB54" s="174"/>
       <c r="AC54" s="60"/>
     </row>
     <row r="55" spans="18:29" x14ac:dyDescent="0.3">
@@ -9897,8 +10293,8 @@
       <c r="X55" s="121"/>
       <c r="Y55" s="121"/>
       <c r="Z55" s="101"/>
-      <c r="AA55" s="137"/>
-      <c r="AB55" s="178"/>
+      <c r="AA55" s="135"/>
+      <c r="AB55" s="174"/>
       <c r="AC55" s="60"/>
     </row>
     <row r="56" spans="18:29" x14ac:dyDescent="0.3">
@@ -9911,8 +10307,8 @@
       <c r="X56" s="121"/>
       <c r="Y56" s="121"/>
       <c r="Z56" s="101"/>
-      <c r="AA56" s="137"/>
-      <c r="AB56" s="178"/>
+      <c r="AA56" s="135"/>
+      <c r="AB56" s="174"/>
       <c r="AC56" s="60"/>
     </row>
     <row r="57" spans="18:29" x14ac:dyDescent="0.3">
@@ -9925,8 +10321,8 @@
       <c r="X57" s="121"/>
       <c r="Y57" s="121"/>
       <c r="Z57" s="101"/>
-      <c r="AA57" s="137"/>
-      <c r="AB57" s="178"/>
+      <c r="AA57" s="135"/>
+      <c r="AB57" s="174"/>
       <c r="AC57" s="60"/>
     </row>
     <row r="58" spans="18:29" x14ac:dyDescent="0.3">
@@ -9939,8 +10335,8 @@
       <c r="X58" s="121"/>
       <c r="Y58" s="121"/>
       <c r="Z58" s="101"/>
-      <c r="AA58" s="137"/>
-      <c r="AB58" s="178"/>
+      <c r="AA58" s="135"/>
+      <c r="AB58" s="174"/>
       <c r="AC58" s="60"/>
     </row>
     <row r="59" spans="18:29" x14ac:dyDescent="0.3">
@@ -9953,8 +10349,8 @@
       <c r="X59" s="121"/>
       <c r="Y59" s="121"/>
       <c r="Z59" s="101"/>
-      <c r="AA59" s="137"/>
-      <c r="AB59" s="178"/>
+      <c r="AA59" s="135"/>
+      <c r="AB59" s="174"/>
       <c r="AC59" s="60"/>
     </row>
     <row r="60" spans="18:29" x14ac:dyDescent="0.3">
@@ -9967,25 +10363,25 @@
       <c r="X60" s="121"/>
       <c r="Y60" s="121"/>
       <c r="Z60" s="101"/>
-      <c r="AA60" s="137"/>
-      <c r="AB60" s="178"/>
+      <c r="AA60" s="135"/>
+      <c r="AB60" s="174"/>
       <c r="AC60" s="60"/>
     </row>
     <row r="61" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB61" s="178"/>
+      <c r="AB61" s="174"/>
       <c r="AC61" s="60"/>
     </row>
     <row r="62" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB62" s="178"/>
-      <c r="AC62" s="129"/>
+      <c r="AB62" s="174"/>
+      <c r="AC62" s="127"/>
     </row>
     <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB63" s="178"/>
+      <c r="AB63" s="174"/>
       <c r="AC63" s="121"/>
     </row>
     <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB64" s="208"/>
-      <c r="AC64" s="209"/>
+      <c r="AB64" s="228"/>
+      <c r="AC64" s="229"/>
     </row>
     <row r="69" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB69" s="54"/>
@@ -10054,25 +10450,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="220"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11802,12 +12198,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="194">
+      <c r="E76" s="214">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="195"/>
-      <c r="G76" s="196"/>
+      <c r="F76" s="215"/>
+      <c r="G76" s="216"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -11823,11 +12219,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="197" t="s">
+      <c r="E78" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="197"/>
-      <c r="G78" s="197"/>
+      <c r="F78" s="217"/>
+      <c r="G78" s="217"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -11968,25 +12364,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="220"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12835,12 +13231,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="194">
+      <c r="E41" s="214">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="195"/>
-      <c r="G41" s="196"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="216"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -12856,11 +13252,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="197" t="s">
+      <c r="E43" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -13004,25 +13400,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14362,12 +14758,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="194">
+      <c r="E60" s="214">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="195"/>
-      <c r="G60" s="196"/>
+      <c r="F60" s="215"/>
+      <c r="G60" s="216"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -14383,11 +14779,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="197" t="s">
+      <c r="E62" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="197"/>
-      <c r="G62" s="197"/>
+      <c r="F62" s="217"/>
+      <c r="G62" s="217"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -14528,25 +14924,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15947,12 +16343,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="194">
+      <c r="E61" s="214">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="195"/>
-      <c r="G61" s="196"/>
+      <c r="F61" s="215"/>
+      <c r="G61" s="216"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -15968,11 +16364,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="197" t="s">
+      <c r="E63" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="197"/>
-      <c r="G63" s="197"/>
+      <c r="F63" s="217"/>
+      <c r="G63" s="217"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -16113,25 +16509,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17359,7 +17755,7 @@
       <c r="E52" s="20">
         <v>0</v>
       </c>
-      <c r="F52" s="128" t="s">
+      <c r="F52" s="126" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="86">
@@ -17581,12 +17977,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="194">
+      <c r="E64" s="214">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="195"/>
-      <c r="G64" s="196"/>
+      <c r="F64" s="215"/>
+      <c r="G64" s="216"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -17602,11 +17998,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="197" t="s">
+      <c r="E66" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="197"/>
-      <c r="G66" s="197"/>
+      <c r="F66" s="217"/>
+      <c r="G66" s="217"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -17729,8 +18125,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17738,7 +18134,7 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="206" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
     <col min="7" max="7" width="18" style="56" customWidth="1"/>
@@ -17747,25 +18143,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17779,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>2</v>
@@ -17896,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
         <v>44650</v>
       </c>
@@ -17904,7 +18300,7 @@
         <v>289</v>
       </c>
       <c r="C8" s="82"/>
-      <c r="D8" s="126" t="s">
+      <c r="D8" s="199" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="20">
@@ -17925,7 +18321,7 @@
         <v>290</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="20">
@@ -17950,7 +18346,7 @@
         <v>291</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="20">
@@ -17975,7 +18371,7 @@
         <v>292</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="20">
@@ -18000,7 +18396,7 @@
         <v>293</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="20">
@@ -18025,7 +18421,7 @@
         <v>294</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="20">
@@ -18100,7 +18496,7 @@
         <v>297</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="20">
@@ -18117,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44655</v>
       </c>
@@ -18125,7 +18521,7 @@
         <v>298</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="20">
@@ -18146,7 +18542,7 @@
         <v>299</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="20">
@@ -18171,7 +18567,7 @@
         <v>300</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="20">
@@ -18221,7 +18617,7 @@
         <v>302</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="20">
@@ -18246,7 +18642,7 @@
         <v>303</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="20">
@@ -18263,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44658</v>
       </c>
@@ -18271,7 +18667,7 @@
         <v>304</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="20">
@@ -18284,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44658</v>
       </c>
@@ -18292,7 +18688,7 @@
         <v>305</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="20">
@@ -18313,7 +18709,7 @@
         <v>306</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="20">
@@ -18338,7 +18734,7 @@
         <v>307</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="20">
@@ -18363,7 +18759,7 @@
         <v>308</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="20">
@@ -18388,7 +18784,7 @@
         <v>309</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="20">
@@ -18413,7 +18809,7 @@
         <v>310</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="20">
@@ -18438,7 +18834,7 @@
         <v>311</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E30" s="20">
@@ -18463,7 +18859,7 @@
         <v>312</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="20">
@@ -18488,7 +18884,7 @@
         <v>313</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="20">
@@ -18512,7 +18908,7 @@
         <v>314</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="20">
@@ -18536,7 +18932,7 @@
         <v>315</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="20">
@@ -18560,7 +18956,7 @@
         <v>316</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="20">
@@ -18585,7 +18981,7 @@
         <v>317</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="20">
@@ -18610,17 +19006,21 @@
         <v>318</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="20">
         <v>7615</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
+      <c r="F37" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G37" s="198">
+        <v>7615</v>
+      </c>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>7615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18631,17 +19031,21 @@
         <v>319</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="20">
         <v>5791</v>
       </c>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G38" s="89">
+        <v>5791</v>
+      </c>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>5791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18652,17 +19056,21 @@
         <v>320</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="20">
         <v>10777</v>
       </c>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
+      <c r="F39" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G39" s="89">
+        <v>10777</v>
+      </c>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>10777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18698,17 +19106,21 @@
         <v>322</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="20">
         <v>4970</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G41" s="89">
+        <v>4970</v>
+      </c>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>4970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18719,17 +19131,21 @@
         <v>323</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="20">
         <v>7957</v>
       </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
+      <c r="F42" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G42" s="89">
+        <v>7957</v>
+      </c>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>7957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18740,7 +19156,7 @@
         <v>324</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="20">
@@ -18765,17 +19181,21 @@
         <v>325</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="20">
         <v>2351</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G44" s="198">
+        <v>2351</v>
+      </c>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>2351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18786,17 +19206,21 @@
         <v>326</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="20">
         <v>14835</v>
       </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
+      <c r="F45" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G45" s="89">
+        <v>14835</v>
+      </c>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>14835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18807,17 +19231,21 @@
         <v>327</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E46" s="20">
         <v>22221</v>
       </c>
-      <c r="F46" s="85"/>
-      <c r="G46" s="86"/>
+      <c r="F46" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G46" s="89">
+        <v>22221</v>
+      </c>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>22221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18828,17 +19256,21 @@
         <v>328</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="20">
         <v>8065</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="F47" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G47" s="89">
+        <v>8065</v>
+      </c>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>8065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18849,17 +19281,21 @@
         <v>329</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="20">
         <v>7600</v>
       </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="86"/>
+      <c r="F48" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G48" s="198">
+        <v>7600</v>
+      </c>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>7600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18870,13 +19306,13 @@
         <v>330</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E49" s="20">
         <v>1446</v>
       </c>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="189" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="86">
@@ -18895,17 +19331,21 @@
         <v>331</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="20">
         <v>1954</v>
       </c>
-      <c r="F50" s="85"/>
-      <c r="G50" s="86"/>
+      <c r="F50" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G50" s="198">
+        <v>1954</v>
+      </c>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>1954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18922,8 +19362,8 @@
       <c r="E51" s="20">
         <v>0</v>
       </c>
-      <c r="F51" s="85"/>
-      <c r="G51" s="86"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="84"/>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18937,17 +19377,21 @@
         <v>333</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E52" s="20">
         <v>43123</v>
       </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="86"/>
+      <c r="F52" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G52" s="89">
+        <v>43123</v>
+      </c>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
-        <v>43123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18964,8 +19408,8 @@
       <c r="E53" s="20">
         <v>0</v>
       </c>
-      <c r="F53" s="85"/>
-      <c r="G53" s="86"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="84"/>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18979,17 +19423,21 @@
         <v>335</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="20">
         <v>6108</v>
       </c>
-      <c r="F54" s="85"/>
-      <c r="G54" s="86"/>
+      <c r="F54" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G54" s="89">
+        <v>6108</v>
+      </c>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>6108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19000,17 +19448,21 @@
         <v>336</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="20">
         <v>12525</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="86"/>
+      <c r="F55" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G55" s="198">
+        <v>12525</v>
+      </c>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>12525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19021,7 +19473,7 @@
         <v>337</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="20">
@@ -19046,17 +19498,21 @@
         <v>338</v>
       </c>
       <c r="C57" s="24"/>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E57" s="20">
         <v>2640</v>
       </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="86"/>
+      <c r="F57" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G57" s="89">
+        <v>2640</v>
+      </c>
       <c r="H57" s="18">
         <f t="shared" si="0"/>
-        <v>2640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -19067,24 +19523,28 @@
         <v>339</v>
       </c>
       <c r="C58" s="24"/>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="20">
         <v>51659</v>
       </c>
-      <c r="F58" s="85"/>
-      <c r="G58" s="86"/>
+      <c r="F58" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G58" s="89">
+        <v>51659</v>
+      </c>
       <c r="H58" s="18">
         <f t="shared" si="0"/>
-        <v>51659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="13"/>
       <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
       <c r="G59" s="22"/>
@@ -19097,7 +19557,7 @@
       <c r="A60" s="31"/>
       <c r="B60" s="100"/>
       <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
+      <c r="D60" s="200"/>
       <c r="E60" s="34">
         <v>0</v>
       </c>
@@ -19112,7 +19572,7 @@
     <row r="61" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="201"/>
       <c r="E61" s="39">
         <f>SUM(E4:E60)</f>
         <v>938122</v>
@@ -19120,18 +19580,18 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>727931</v>
+        <v>938122</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>210191</v>
+        <v>0</v>
       </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="201"/>
       <c r="E62" s="41"/>
       <c r="F62" s="42"/>
       <c r="G62" s="43"/>
@@ -19141,7 +19601,7 @@
     <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="201"/>
       <c r="E63" s="45" t="s">
         <v>6</v>
       </c>
@@ -19155,7 +19615,7 @@
     <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="201"/>
       <c r="E64" s="45"/>
       <c r="F64" s="42"/>
       <c r="G64" s="46"/>
@@ -19165,19 +19625,19 @@
     <row r="65" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="194">
+      <c r="D65" s="201"/>
+      <c r="E65" s="214">
         <f>E61-G61</f>
-        <v>210191</v>
-      </c>
-      <c r="F65" s="195"/>
-      <c r="G65" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="215"/>
+      <c r="G65" s="216"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="201"/>
       <c r="E66" s="41"/>
       <c r="F66" s="42"/>
       <c r="G66" s="43"/>
@@ -19186,19 +19646,19 @@
     <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="197" t="s">
+      <c r="D67" s="201"/>
+      <c r="E67" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="197"/>
-      <c r="G67" s="197"/>
+      <c r="F67" s="217"/>
+      <c r="G67" s="217"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="111"/>
       <c r="B68" s="112"/>
       <c r="C68" s="113"/>
-      <c r="D68" s="114"/>
+      <c r="D68" s="202"/>
       <c r="E68" s="115"/>
       <c r="F68" s="116"/>
       <c r="G68" s="117"/>
@@ -19208,7 +19668,7 @@
       <c r="A69" s="101"/>
       <c r="B69" s="102"/>
       <c r="C69" s="103"/>
-      <c r="D69" s="49"/>
+      <c r="D69" s="203"/>
       <c r="E69" s="50"/>
       <c r="F69" s="51"/>
       <c r="G69" s="50"/>
@@ -19219,7 +19679,7 @@
       <c r="A70" s="118"/>
       <c r="B70" s="119"/>
       <c r="C70" s="120"/>
-      <c r="D70" s="121"/>
+      <c r="D70" s="204"/>
       <c r="E70" s="122"/>
       <c r="F70" s="123"/>
       <c r="G70" s="124"/>
@@ -19230,7 +19690,7 @@
       <c r="A71" s="118"/>
       <c r="B71" s="119"/>
       <c r="C71" s="120"/>
-      <c r="D71" s="121"/>
+      <c r="D71" s="204"/>
       <c r="E71" s="122"/>
       <c r="F71" s="123"/>
       <c r="G71" s="124"/>
@@ -19241,7 +19701,7 @@
       <c r="A72" s="118"/>
       <c r="B72" s="119"/>
       <c r="C72" s="120"/>
-      <c r="D72" s="121"/>
+      <c r="D72" s="204"/>
       <c r="E72" s="122"/>
       <c r="F72" s="123"/>
       <c r="G72" s="124"/>
@@ -19252,7 +19712,7 @@
       <c r="A73" s="118"/>
       <c r="B73" s="119"/>
       <c r="C73" s="120"/>
-      <c r="D73" s="121"/>
+      <c r="D73" s="204"/>
       <c r="E73" s="122"/>
       <c r="F73" s="123"/>
       <c r="G73" s="124"/>
@@ -19263,7 +19723,7 @@
       <c r="A74" s="118"/>
       <c r="B74" s="119"/>
       <c r="C74" s="120"/>
-      <c r="D74" s="121"/>
+      <c r="D74" s="204"/>
       <c r="E74" s="122"/>
       <c r="F74" s="123"/>
       <c r="G74" s="124"/>
@@ -19274,7 +19734,7 @@
       <c r="A75" s="118"/>
       <c r="B75" s="119"/>
       <c r="C75" s="120"/>
-      <c r="D75" s="121"/>
+      <c r="D75" s="204"/>
       <c r="E75" s="122"/>
       <c r="F75" s="123"/>
       <c r="G75" s="124"/>
@@ -19285,7 +19745,7 @@
       <c r="A76" s="118"/>
       <c r="B76" s="119"/>
       <c r="C76" s="120"/>
-      <c r="D76" s="121"/>
+      <c r="D76" s="204"/>
       <c r="E76" s="122"/>
       <c r="F76" s="123"/>
       <c r="G76" s="124"/>
@@ -19296,7 +19756,7 @@
       <c r="A77" s="118"/>
       <c r="B77" s="119"/>
       <c r="C77" s="120"/>
-      <c r="D77" s="121"/>
+      <c r="D77" s="204"/>
       <c r="E77" s="122"/>
       <c r="F77" s="123"/>
       <c r="G77" s="124"/>
@@ -19307,7 +19767,7 @@
       <c r="A78" s="118"/>
       <c r="B78" s="119"/>
       <c r="C78" s="120"/>
-      <c r="D78" s="121"/>
+      <c r="D78" s="204"/>
       <c r="E78" s="122"/>
       <c r="F78" s="123"/>
       <c r="G78" s="124"/>
@@ -19318,7 +19778,7 @@
       <c r="A79" s="118"/>
       <c r="B79" s="119"/>
       <c r="C79" s="120"/>
-      <c r="D79" s="121"/>
+      <c r="D79" s="204"/>
       <c r="E79" s="122"/>
       <c r="F79" s="123"/>
       <c r="G79" s="124"/>
@@ -19328,7 +19788,7 @@
       <c r="A80" s="105"/>
       <c r="B80" s="106"/>
       <c r="C80" s="107"/>
-      <c r="D80" s="104"/>
+      <c r="D80" s="205"/>
       <c r="E80" s="108"/>
       <c r="F80" s="109"/>
       <c r="G80" s="110"/>
@@ -19355,8 +19815,8 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19373,25 +19833,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="203"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19435,11 +19895,15 @@
       <c r="E4" s="15">
         <v>9440</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="163"/>
+      <c r="F4" s="190">
+        <v>44767</v>
+      </c>
+      <c r="G4" s="191">
+        <v>9440</v>
+      </c>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H38" si="0">E4-G4</f>
-        <v>9440</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -19458,7 +19922,9 @@
         <v>0</v>
       </c>
       <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19522,17 +19988,22 @@
         <v>344</v>
       </c>
       <c r="C8" s="82"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="138" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="20">
         <v>129286</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="F8" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G8" s="89">
+        <f>108430+20856</f>
+        <v>129286</v>
+      </c>
       <c r="H8" s="75">
         <f t="shared" si="0"/>
-        <v>129286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19543,17 +20014,21 @@
         <v>345</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="20">
         <v>65178</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
+      <c r="F9" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G9" s="89">
+        <v>65178</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>65178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -19564,17 +20039,21 @@
         <v>346</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="20">
         <v>9568</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="F10" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G10" s="198">
+        <v>9568</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>9568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -19585,17 +20064,21 @@
         <v>347</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="20">
         <v>22022</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="F11" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G11" s="89">
+        <v>22022</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>22022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -19606,17 +20089,21 @@
         <v>348</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="20">
         <v>10275</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="F12" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G12" s="89">
+        <v>10275</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>10275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -19627,17 +20114,21 @@
         <v>349</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="20">
         <v>12858</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G13" s="89">
+        <v>12858</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>12858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -19698,17 +20189,21 @@
         <v>352</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="20">
         <v>31898</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="F16" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G16" s="89">
+        <v>31898</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>31898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
@@ -19719,14 +20214,16 @@
         <v>353</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="138" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="20">
         <v>0</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19740,7 +20237,7 @@
         <v>354</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="20">
@@ -19765,17 +20262,21 @@
         <v>355</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="20">
         <v>80</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="F19" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G19" s="198">
+        <v>80</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -19792,11 +20293,15 @@
       <c r="E20" s="20">
         <v>9963</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="F20" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G20" s="89">
+        <v>9963</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>9963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -19807,17 +20312,21 @@
         <v>357</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="26" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="20">
         <v>1273</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
+      <c r="F21" s="197">
+        <v>44767</v>
+      </c>
+      <c r="G21" s="198">
+        <v>1273</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>1273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -19853,17 +20362,21 @@
         <v>359</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="20">
         <v>29340</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
+      <c r="F23" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G23" s="89">
+        <v>29340</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>29340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -19874,7 +20387,7 @@
         <v>360</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="139" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="20">
@@ -19974,17 +20487,21 @@
         <v>364</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="20">
         <v>132</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
+      <c r="F28" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G28" s="89">
+        <v>132</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20032,7 +20549,7 @@
       <c r="G30" s="22">
         <v>7416</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20070,15 +20587,20 @@
         <v>368</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="20">
         <v>11890</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
+      <c r="F32" s="88">
+        <v>257</v>
+      </c>
+      <c r="G32" s="89">
+        <v>11890</v>
+      </c>
       <c r="H32" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -20103,6 +20625,7 @@
         <v>8000</v>
       </c>
       <c r="H33" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -20114,15 +20637,20 @@
         <v>370</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="20">
         <v>1140</v>
       </c>
-      <c r="F34" s="164"/>
-      <c r="G34" s="86"/>
+      <c r="F34" s="194">
+        <v>44767</v>
+      </c>
+      <c r="G34" s="89">
+        <v>1140</v>
+      </c>
       <c r="H34" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -20159,17 +20687,21 @@
         <v>372</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="141" t="s">
+      <c r="D36" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="20">
         <v>1843</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
+      <c r="F36" s="88">
+        <v>44767</v>
+      </c>
+      <c r="G36" s="89">
+        <v>1843</v>
+      </c>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>1843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -20207,7 +20739,7 @@
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="36"/>
-      <c r="H38" s="29">
+      <c r="H38" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20224,11 +20756,11 @@
       <c r="F39" s="39"/>
       <c r="G39" s="39">
         <f>SUM(G4:G38)</f>
-        <v>143597</v>
+        <v>489783</v>
       </c>
       <c r="H39" s="40">
         <f>SUM(H4:H38)</f>
-        <v>333156</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -20270,12 +20802,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="194">
+      <c r="E43" s="214">
         <f>E39-G39</f>
-        <v>346186</v>
-      </c>
-      <c r="F43" s="195"/>
-      <c r="G43" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="215"/>
+      <c r="G43" s="216"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -20291,11 +20823,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="197" t="s">
+      <c r="E45" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="197"/>
-      <c r="G45" s="197"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="217"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -20469,10 +21001,10 @@
     <col min="4" max="4" width="18.28515625" style="114" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="114" customWidth="1"/>
     <col min="6" max="9" width="11.42578125" style="114"/>
-    <col min="10" max="10" width="14.85546875" style="138" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="136" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="115" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="142"/>
+    <col min="13" max="13" width="11.42578125" style="140"/>
     <col min="14" max="15" width="11.42578125" style="114"/>
     <col min="16" max="16" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="114" bestFit="1" customWidth="1"/>
@@ -20481,143 +21013,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="204"/>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
+      <c r="A1" s="224"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="156" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="N2" s="143" t="s">
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="N2" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="144" t="s">
+      <c r="O2" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="145">
+      <c r="P2" s="143">
         <v>67001.67</v>
       </c>
-      <c r="Q2" s="146">
+      <c r="Q2" s="144">
         <v>44706</v>
       </c>
-      <c r="R2" s="145">
+      <c r="R2" s="143">
         <v>67001.67</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="133" t="s">
+      <c r="E3" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="J3" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="139" t="s">
+      <c r="K3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="133" t="s">
+      <c r="L3" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="143" t="s">
+      <c r="N3" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="144" t="s">
+      <c r="O3" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="145">
+      <c r="P3" s="143">
         <v>5256</v>
       </c>
-      <c r="Q3" s="146">
+      <c r="Q3" s="144">
         <v>44706</v>
       </c>
-      <c r="R3" s="145">
+      <c r="R3" s="143">
         <v>5256</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="130">
+      <c r="B4" s="128">
         <v>44704</v>
       </c>
-      <c r="C4" s="135">
+      <c r="C4" s="133">
         <v>44707</v>
       </c>
-      <c r="D4" s="131">
+      <c r="D4" s="129">
         <v>50868</v>
       </c>
-      <c r="E4" s="131">
+      <c r="E4" s="129">
         <f>D4</f>
         <v>50868</v>
       </c>
-      <c r="I4" s="130">
+      <c r="I4" s="128">
         <v>44690</v>
       </c>
-      <c r="J4" s="135">
+      <c r="J4" s="133">
         <v>44693</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="129">
         <v>67500</v>
       </c>
-      <c r="L4" s="131">
+      <c r="L4" s="129">
         <f>K4</f>
         <v>67500</v>
       </c>
-      <c r="M4" s="142" t="s">
+      <c r="M4" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="143" t="s">
+      <c r="N4" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="144" t="s">
+      <c r="O4" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="145">
+      <c r="P4" s="143">
         <v>40472.6</v>
       </c>
-      <c r="Q4" s="146">
+      <c r="Q4" s="144">
         <v>44706</v>
       </c>
-      <c r="R4" s="145">
+      <c r="R4" s="143">
         <v>40472.6</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="130">
+      <c r="B5" s="128">
         <v>44705</v>
       </c>
-      <c r="C5" s="136">
+      <c r="C5" s="134">
         <v>44707</v>
       </c>
       <c r="D5" s="20">
@@ -20630,7 +21162,7 @@
       <c r="I5" s="81">
         <v>44691</v>
       </c>
-      <c r="J5" s="136">
+      <c r="J5" s="134">
         <v>44693</v>
       </c>
       <c r="K5" s="20">
@@ -20640,27 +21172,27 @@
         <f>L4+K5</f>
         <v>142189</v>
       </c>
-      <c r="N5" s="143" t="s">
+      <c r="N5" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="144" t="s">
+      <c r="O5" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="145">
+      <c r="P5" s="143">
         <v>3906</v>
       </c>
-      <c r="Q5" s="146">
+      <c r="Q5" s="144">
         <v>44706</v>
       </c>
-      <c r="R5" s="145">
+      <c r="R5" s="143">
         <v>3906</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="130">
+      <c r="B6" s="128">
         <v>44706</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="134">
         <v>44707</v>
       </c>
       <c r="D6" s="20">
@@ -20673,7 +21205,7 @@
       <c r="I6" s="81">
         <v>44692</v>
       </c>
-      <c r="J6" s="136">
+      <c r="J6" s="134">
         <v>44693</v>
       </c>
       <c r="K6" s="20">
@@ -20683,27 +21215,27 @@
         <f>L5+K6</f>
         <v>207018</v>
       </c>
-      <c r="N6" s="143" t="s">
+      <c r="N6" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="144" t="s">
+      <c r="O6" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="145">
+      <c r="P6" s="143">
         <v>33820.800000000003</v>
       </c>
-      <c r="Q6" s="146">
+      <c r="Q6" s="144">
         <v>44706</v>
       </c>
-      <c r="R6" s="145">
+      <c r="R6" s="143">
         <v>33820.800000000003</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="130">
+      <c r="B7" s="128">
         <v>44707</v>
       </c>
-      <c r="C7" s="136">
+      <c r="C7" s="134">
         <v>44711</v>
       </c>
       <c r="D7" s="20">
@@ -20716,7 +21248,7 @@
       <c r="I7" s="81">
         <v>44693</v>
       </c>
-      <c r="J7" s="136">
+      <c r="J7" s="134">
         <v>44697</v>
       </c>
       <c r="K7" s="20">
@@ -20726,27 +21258,27 @@
         <f t="shared" ref="L7:L18" si="1">L6+K7</f>
         <v>247093</v>
       </c>
-      <c r="N7" s="143" t="s">
+      <c r="N7" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="144" t="s">
+      <c r="O7" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="145">
+      <c r="P7" s="143">
         <v>36277.25</v>
       </c>
-      <c r="Q7" s="146">
+      <c r="Q7" s="144">
         <v>44706</v>
       </c>
-      <c r="R7" s="145">
+      <c r="R7" s="143">
         <v>36277.25</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130">
+      <c r="B8" s="128">
         <v>44708</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="134">
         <v>44711</v>
       </c>
       <c r="D8" s="20">
@@ -20759,7 +21291,7 @@
       <c r="I8" s="81">
         <v>44694</v>
       </c>
-      <c r="J8" s="136">
+      <c r="J8" s="134">
         <v>44697</v>
       </c>
       <c r="K8" s="20">
@@ -20769,27 +21301,27 @@
         <f t="shared" si="1"/>
         <v>303144</v>
       </c>
-      <c r="N8" s="143" t="s">
+      <c r="N8" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="144" t="s">
+      <c r="O8" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="145">
+      <c r="P8" s="143">
         <v>61531.34</v>
       </c>
-      <c r="Q8" s="146">
+      <c r="Q8" s="144">
         <v>44706</v>
       </c>
-      <c r="R8" s="145">
+      <c r="R8" s="143">
         <v>61531.34</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="130">
+      <c r="B9" s="128">
         <v>44709</v>
       </c>
-      <c r="C9" s="136">
+      <c r="C9" s="134">
         <v>44711</v>
       </c>
       <c r="D9" s="20">
@@ -20802,7 +21334,7 @@
       <c r="I9" s="81">
         <v>44695</v>
       </c>
-      <c r="J9" s="136">
+      <c r="J9" s="134">
         <v>44697</v>
       </c>
       <c r="K9" s="20">
@@ -20812,27 +21344,27 @@
         <f t="shared" si="1"/>
         <v>346594</v>
       </c>
-      <c r="N9" s="143" t="s">
+      <c r="N9" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="144" t="s">
+      <c r="O9" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="145">
+      <c r="P9" s="143">
         <v>12189.9</v>
       </c>
-      <c r="Q9" s="146">
+      <c r="Q9" s="144">
         <v>44706</v>
       </c>
-      <c r="R9" s="145">
+      <c r="R9" s="143">
         <v>12189.9</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="130">
+      <c r="B10" s="128">
         <v>44710</v>
       </c>
-      <c r="C10" s="136">
+      <c r="C10" s="134">
         <v>44711</v>
       </c>
       <c r="D10" s="20">
@@ -20845,7 +21377,7 @@
       <c r="I10" s="81">
         <v>44696</v>
       </c>
-      <c r="J10" s="136">
+      <c r="J10" s="134">
         <v>44697</v>
       </c>
       <c r="K10" s="20">
@@ -20855,27 +21387,27 @@
         <f t="shared" si="1"/>
         <v>398929</v>
       </c>
-      <c r="N10" s="143" t="s">
+      <c r="N10" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="144" t="s">
+      <c r="O10" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="145">
+      <c r="P10" s="143">
         <v>64256.75</v>
       </c>
-      <c r="Q10" s="146">
+      <c r="Q10" s="144">
         <v>44706</v>
       </c>
-      <c r="R10" s="145">
+      <c r="R10" s="143">
         <v>64256.75</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="130">
+      <c r="B11" s="128">
         <v>44711</v>
       </c>
-      <c r="C11" s="136">
+      <c r="C11" s="134">
         <v>44714</v>
       </c>
       <c r="D11" s="20">
@@ -20888,7 +21420,7 @@
       <c r="I11" s="81">
         <v>44697</v>
       </c>
-      <c r="J11" s="136">
+      <c r="J11" s="134">
         <v>44701</v>
       </c>
       <c r="K11" s="20">
@@ -20898,27 +21430,27 @@
         <f t="shared" si="1"/>
         <v>468120</v>
       </c>
-      <c r="N11" s="143" t="s">
+      <c r="N11" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="144" t="s">
+      <c r="O11" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="145">
+      <c r="P11" s="143">
         <v>53375.8</v>
       </c>
-      <c r="Q11" s="146">
+      <c r="Q11" s="144">
         <v>44706</v>
       </c>
-      <c r="R11" s="145">
+      <c r="R11" s="143">
         <v>53375.8</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="130">
+      <c r="B12" s="128">
         <v>44712</v>
       </c>
-      <c r="C12" s="136">
+      <c r="C12" s="134">
         <v>44714</v>
       </c>
       <c r="D12" s="20">
@@ -20931,7 +21463,7 @@
       <c r="I12" s="81">
         <v>44698</v>
       </c>
-      <c r="J12" s="136">
+      <c r="J12" s="134">
         <v>44701</v>
       </c>
       <c r="K12" s="20">
@@ -20941,27 +21473,27 @@
         <f t="shared" si="1"/>
         <v>518275</v>
       </c>
-      <c r="N12" s="143" t="s">
+      <c r="N12" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="144" t="s">
+      <c r="O12" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="145">
+      <c r="P12" s="143">
         <v>126366.49</v>
       </c>
-      <c r="Q12" s="146">
+      <c r="Q12" s="144">
         <v>44706</v>
       </c>
-      <c r="R12" s="145">
+      <c r="R12" s="143">
         <v>126366.49</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="130">
+      <c r="B13" s="128">
         <v>44713</v>
       </c>
-      <c r="C13" s="136">
+      <c r="C13" s="134">
         <v>44714</v>
       </c>
       <c r="D13" s="22">
@@ -20974,7 +21506,7 @@
       <c r="I13" s="81">
         <v>44699</v>
       </c>
-      <c r="J13" s="136">
+      <c r="J13" s="134">
         <v>44701</v>
       </c>
       <c r="K13" s="22">
@@ -20984,27 +21516,27 @@
         <f t="shared" si="1"/>
         <v>573502</v>
       </c>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="144" t="s">
+      <c r="O13" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="145">
+      <c r="P13" s="143">
         <v>6102</v>
       </c>
-      <c r="Q13" s="146">
+      <c r="Q13" s="144">
         <v>44706</v>
       </c>
-      <c r="R13" s="145">
+      <c r="R13" s="143">
         <v>6102</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="130">
+      <c r="B14" s="128">
         <v>44714</v>
       </c>
-      <c r="C14" s="136">
+      <c r="C14" s="134">
         <v>44718</v>
       </c>
       <c r="D14" s="20">
@@ -21017,7 +21549,7 @@
       <c r="I14" s="81">
         <v>44700</v>
       </c>
-      <c r="J14" s="136">
+      <c r="J14" s="134">
         <v>44701</v>
       </c>
       <c r="K14" s="20">
@@ -21027,27 +21559,27 @@
         <f t="shared" si="1"/>
         <v>620604</v>
       </c>
-      <c r="N14" s="143" t="s">
+      <c r="N14" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="144" t="s">
+      <c r="O14" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="145">
+      <c r="P14" s="143">
         <v>4812</v>
       </c>
-      <c r="Q14" s="146">
+      <c r="Q14" s="144">
         <v>44706</v>
       </c>
-      <c r="R14" s="145">
+      <c r="R14" s="143">
         <v>4812</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="130">
+      <c r="B15" s="128">
         <v>44715</v>
       </c>
-      <c r="C15" s="136">
+      <c r="C15" s="134">
         <v>44718</v>
       </c>
       <c r="D15" s="20">
@@ -21060,7 +21592,7 @@
       <c r="I15" s="81">
         <v>44701</v>
       </c>
-      <c r="J15" s="136">
+      <c r="J15" s="134">
         <v>44704</v>
       </c>
       <c r="K15" s="20">
@@ -21070,27 +21602,27 @@
         <f t="shared" si="1"/>
         <v>713738</v>
       </c>
-      <c r="N15" s="143" t="s">
+      <c r="N15" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="144" t="s">
+      <c r="O15" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="P15" s="145">
+      <c r="P15" s="143">
         <v>10160.6</v>
       </c>
-      <c r="Q15" s="146">
+      <c r="Q15" s="144">
         <v>44706</v>
       </c>
-      <c r="R15" s="145">
+      <c r="R15" s="143">
         <v>10160.6</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="130">
+      <c r="B16" s="128">
         <v>44716</v>
       </c>
-      <c r="C16" s="136">
+      <c r="C16" s="134">
         <v>44718</v>
       </c>
       <c r="D16" s="20">
@@ -21103,7 +21635,7 @@
       <c r="I16" s="81">
         <v>44702</v>
       </c>
-      <c r="J16" s="136">
+      <c r="J16" s="134">
         <v>44704</v>
       </c>
       <c r="K16" s="20">
@@ -21113,27 +21645,27 @@
         <f t="shared" si="1"/>
         <v>736046</v>
       </c>
-      <c r="N16" s="143" t="s">
+      <c r="N16" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="144" t="s">
+      <c r="O16" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="145">
+      <c r="P16" s="143">
         <v>75337.5</v>
       </c>
-      <c r="Q16" s="146">
+      <c r="Q16" s="144">
         <v>44706</v>
       </c>
-      <c r="R16" s="145">
+      <c r="R16" s="143">
         <v>75337.5</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130">
+      <c r="B17" s="128">
         <v>44717</v>
       </c>
-      <c r="C17" s="136">
+      <c r="C17" s="134">
         <v>44718</v>
       </c>
       <c r="D17" s="20">
@@ -21146,7 +21678,7 @@
       <c r="I17" s="81">
         <v>44703</v>
       </c>
-      <c r="J17" s="136">
+      <c r="J17" s="134">
         <v>44704</v>
       </c>
       <c r="K17" s="20">
@@ -21156,27 +21688,27 @@
         <f t="shared" si="1"/>
         <v>759582</v>
       </c>
-      <c r="N17" s="143" t="s">
+      <c r="N17" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="144" t="s">
+      <c r="O17" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="145">
+      <c r="P17" s="143">
         <v>29920.44</v>
       </c>
-      <c r="Q17" s="146">
+      <c r="Q17" s="144">
         <v>44706</v>
       </c>
-      <c r="R17" s="145">
+      <c r="R17" s="143">
         <v>29920.44</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="130">
+      <c r="B18" s="128">
         <v>44718</v>
       </c>
-      <c r="C18" s="136">
+      <c r="C18" s="134">
         <v>44722</v>
       </c>
       <c r="D18" s="20">
@@ -21187,33 +21719,33 @@
         <v>788103.5</v>
       </c>
       <c r="I18" s="81"/>
-      <c r="J18" s="136"/>
+      <c r="J18" s="134"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="155">
+      <c r="L18" s="153">
         <f t="shared" si="1"/>
         <v>759582</v>
       </c>
-      <c r="N18" s="143" t="s">
+      <c r="N18" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="144" t="s">
+      <c r="O18" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="145">
+      <c r="P18" s="143">
         <v>72246.7</v>
       </c>
-      <c r="Q18" s="146">
+      <c r="Q18" s="144">
         <v>44706</v>
       </c>
-      <c r="R18" s="145">
+      <c r="R18" s="143">
         <v>72246.7</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="130">
+      <c r="B19" s="128">
         <v>44719</v>
       </c>
-      <c r="C19" s="136">
+      <c r="C19" s="134">
         <v>44722</v>
       </c>
       <c r="D19" s="20">
@@ -21223,32 +21755,32 @@
         <f t="shared" si="2"/>
         <v>846287.5</v>
       </c>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="N19" s="143" t="s">
+      <c r="I19" s="147"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="N19" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="144" t="s">
+      <c r="O19" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="145">
+      <c r="P19" s="143">
         <v>3036</v>
       </c>
-      <c r="Q19" s="146">
+      <c r="Q19" s="144">
         <v>44706</v>
       </c>
-      <c r="R19" s="145">
+      <c r="R19" s="143">
         <v>3036</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="121"/>
-      <c r="B20" s="130">
+      <c r="B20" s="128">
         <v>44720</v>
       </c>
-      <c r="C20" s="136">
+      <c r="C20" s="134">
         <v>44720</v>
       </c>
       <c r="D20" s="20">
@@ -21261,32 +21793,32 @@
       <c r="F20" s="121"/>
       <c r="G20" s="121"/>
       <c r="H20" s="121"/>
-      <c r="I20" s="152" t="s">
+      <c r="I20" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="153"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
-      <c r="N20" s="143" t="s">
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="N20" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="144" t="s">
+      <c r="O20" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="145">
+      <c r="P20" s="143">
         <v>1627.2</v>
       </c>
-      <c r="Q20" s="146">
+      <c r="Q20" s="144">
         <v>44706</v>
       </c>
-      <c r="R20" s="145">
+      <c r="R20" s="143">
         <v>1627.2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="121"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="136"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20">
         <f t="shared" si="2"/>
@@ -21296,31 +21828,31 @@
       <c r="G21" s="121"/>
       <c r="H21" s="121"/>
       <c r="I21" s="101"/>
-      <c r="J21" s="137"/>
+      <c r="J21" s="135"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
-      <c r="N21" s="143" t="s">
+      <c r="N21" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="144" t="s">
+      <c r="O21" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="145">
+      <c r="P21" s="143">
         <v>1238.8</v>
       </c>
-      <c r="Q21" s="146">
+      <c r="Q21" s="144">
         <v>44706</v>
       </c>
-      <c r="R21" s="145">
+      <c r="R21" s="143">
         <v>1238.8</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="121"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="136"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="2"/>
         <v>850488.5</v>
       </c>
@@ -21328,65 +21860,65 @@
       <c r="G22" s="121"/>
       <c r="H22" s="121"/>
       <c r="I22" s="101"/>
-      <c r="J22" s="137"/>
+      <c r="J22" s="135"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
-      <c r="N22" s="143" t="s">
+      <c r="N22" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="O22" s="144" t="s">
+      <c r="O22" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="P22" s="145">
+      <c r="P22" s="143">
         <v>62762.55</v>
       </c>
-      <c r="Q22" s="146">
+      <c r="Q22" s="144">
         <v>44706</v>
       </c>
-      <c r="R22" s="147">
+      <c r="R22" s="145">
         <v>50646.16</v>
       </c>
-      <c r="S22" s="161">
+      <c r="S22" s="159">
         <f>P22-R22</f>
         <v>12116.39</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="121"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="136"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="121"/>
       <c r="G23" s="121"/>
       <c r="H23" s="121"/>
       <c r="I23" s="101"/>
-      <c r="J23" s="137"/>
+      <c r="J23" s="135"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
-      <c r="R23" s="148">
+      <c r="R23" s="146">
         <f>SUM(R2:R22)</f>
         <v>759581.99999999988</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="121"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="136"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="121"/>
       <c r="G24" s="121"/>
       <c r="H24" s="121"/>
       <c r="I24" s="101"/>
-      <c r="J24" s="137"/>
+      <c r="J24" s="135"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="121"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="136"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="20"/>
       <c r="E25" s="22">
         <v>850487.81</v>
@@ -21395,22 +21927,22 @@
       <c r="G25" s="121"/>
       <c r="H25" s="121"/>
       <c r="I25" s="101"/>
-      <c r="J25" s="137"/>
+      <c r="J25" s="135"/>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
     </row>
     <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21424,22 +21956,22 @@
     <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="162">
+      <c r="K39" s="160">
         <v>12116.39</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K40" s="163">
+      <c r="K40" s="161">
         <v>46744</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="163">
+      <c r="K41" s="161">
         <v>14500.7</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K42" s="163">
+      <c r="K42" s="161">
         <v>41351.199999999997</v>
       </c>
     </row>
@@ -21452,7 +21984,7 @@
       <c r="F43" s="121"/>
       <c r="G43" s="121"/>
       <c r="H43" s="121"/>
-      <c r="K43" s="163">
+      <c r="K43" s="161">
         <v>5624</v>
       </c>
     </row>
@@ -21466,8 +21998,8 @@
       <c r="G44" s="121"/>
       <c r="H44" s="121"/>
       <c r="I44" s="101"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="163">
+      <c r="J44" s="135"/>
+      <c r="K44" s="161">
         <v>45618</v>
       </c>
       <c r="L44" s="60"/>
@@ -21482,8 +22014,8 @@
       <c r="G45" s="121"/>
       <c r="H45" s="121"/>
       <c r="I45" s="101"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="163">
+      <c r="J45" s="135"/>
+      <c r="K45" s="161">
         <v>35193.4</v>
       </c>
       <c r="L45" s="60"/>
@@ -21498,8 +22030,8 @@
       <c r="G46" s="121"/>
       <c r="H46" s="121"/>
       <c r="I46" s="101"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="163">
+      <c r="J46" s="135"/>
+      <c r="K46" s="161">
         <v>69268.88</v>
       </c>
       <c r="L46" s="60"/>
@@ -21514,8 +22046,8 @@
       <c r="G47" s="121"/>
       <c r="H47" s="121"/>
       <c r="I47" s="101"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="163">
+      <c r="J47" s="135"/>
+      <c r="K47" s="161">
         <v>25197.4</v>
       </c>
       <c r="L47" s="60"/>
@@ -21530,8 +22062,8 @@
       <c r="G48" s="121"/>
       <c r="H48" s="121"/>
       <c r="I48" s="101"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="163">
+      <c r="J48" s="135"/>
+      <c r="K48" s="161">
         <v>58580.5</v>
       </c>
       <c r="L48" s="60"/>
@@ -21546,8 +22078,8 @@
       <c r="G49" s="121"/>
       <c r="H49" s="121"/>
       <c r="I49" s="101"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="163">
+      <c r="J49" s="135"/>
+      <c r="K49" s="161">
         <v>8932</v>
       </c>
       <c r="L49" s="60"/>
@@ -21562,8 +22094,8 @@
       <c r="G50" s="121"/>
       <c r="H50" s="121"/>
       <c r="I50" s="101"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="163">
+      <c r="J50" s="135"/>
+      <c r="K50" s="161">
         <v>51784.4</v>
       </c>
       <c r="L50" s="60"/>
@@ -21578,8 +22110,8 @@
       <c r="G51" s="121"/>
       <c r="H51" s="121"/>
       <c r="I51" s="101"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="162">
+      <c r="J51" s="135"/>
+      <c r="K51" s="160">
         <v>15291.4</v>
       </c>
       <c r="L51" s="60"/>
@@ -21594,8 +22126,8 @@
       <c r="G52" s="121"/>
       <c r="H52" s="121"/>
       <c r="I52" s="101"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="162">
+      <c r="J52" s="135"/>
+      <c r="K52" s="160">
         <v>66691.399999999994</v>
       </c>
       <c r="L52" s="60"/>
@@ -21610,8 +22142,8 @@
       <c r="G53" s="121"/>
       <c r="H53" s="121"/>
       <c r="I53" s="101"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="162">
+      <c r="J53" s="135"/>
+      <c r="K53" s="160">
         <v>70251.75</v>
       </c>
       <c r="L53" s="60"/>
@@ -21626,8 +22158,8 @@
       <c r="G54" s="121"/>
       <c r="H54" s="121"/>
       <c r="I54" s="101"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="162">
+      <c r="J54" s="135"/>
+      <c r="K54" s="160">
         <v>13507</v>
       </c>
       <c r="L54" s="60"/>
@@ -21642,8 +22174,8 @@
       <c r="G55" s="121"/>
       <c r="H55" s="121"/>
       <c r="I55" s="101"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="162">
+      <c r="J55" s="135"/>
+      <c r="K55" s="160">
         <v>494</v>
       </c>
       <c r="L55" s="60"/>
@@ -21658,8 +22190,8 @@
       <c r="G56" s="121"/>
       <c r="H56" s="121"/>
       <c r="I56" s="101"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="162">
+      <c r="J56" s="135"/>
+      <c r="K56" s="160">
         <v>66113.67</v>
       </c>
       <c r="L56" s="60"/>
@@ -21674,8 +22206,8 @@
       <c r="G57" s="121"/>
       <c r="H57" s="121"/>
       <c r="I57" s="101"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="162">
+      <c r="J57" s="135"/>
+      <c r="K57" s="160">
         <v>907.2</v>
       </c>
       <c r="L57" s="60"/>
@@ -21690,8 +22222,8 @@
       <c r="G58" s="121"/>
       <c r="H58" s="121"/>
       <c r="I58" s="101"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="162">
+      <c r="J58" s="135"/>
+      <c r="K58" s="160">
         <v>1956</v>
       </c>
       <c r="L58" s="60"/>
@@ -21706,36 +22238,36 @@
       <c r="G59" s="121"/>
       <c r="H59" s="121"/>
       <c r="I59" s="101"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="162">
+      <c r="J59" s="135"/>
+      <c r="K59" s="160">
         <v>48025.599999999999</v>
       </c>
       <c r="L59" s="60"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K60" s="162">
+      <c r="K60" s="160">
         <v>133204.96</v>
       </c>
       <c r="L60" s="60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K61" s="162">
+      <c r="K61" s="160">
         <v>19133.36</v>
       </c>
-      <c r="L61" s="129"/>
+      <c r="L61" s="127"/>
     </row>
     <row r="62" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K62" s="162">
+      <c r="K62" s="160">
         <v>0</v>
       </c>
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="206">
+      <c r="K63" s="226">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="207"/>
+      <c r="L63" s="227"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/CREDITOS  4 CARNES   ZAVALETA   JULIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="REMISIONES  MAYO   2022   " sheetId="14" r:id="rId8"/>
     <sheet name="DEPOSITOS   ODELPA   Y  NORMA L" sheetId="8" r:id="rId9"/>
     <sheet name="  REMISIONES   JUNIO  2022   " sheetId="5" r:id="rId10"/>
-    <sheet name="DEPOSITOS A ODELPA   De Zavalet" sheetId="17" r:id="rId11"/>
+    <sheet name="DEPOS  A NLP  ODELPA De Zaval" sheetId="17" r:id="rId11"/>
     <sheet name="  REMISIONES    JULIO   2022   " sheetId="9" r:id="rId12"/>
     <sheet name="DEPOSITOS A ODELPA   Zavaleta  " sheetId="16" r:id="rId13"/>
     <sheet name="Hoja5" sheetId="10" r:id="rId14"/>
@@ -1207,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1635,6 +1635,7 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1728,7 +1729,7 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1738,13 +1739,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF990033"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
@@ -1987,14 +1988,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>23190</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>451089</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>451090</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>284922</xdr:rowOff>
     </xdr:to>
@@ -3502,24 +3503,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="221"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4665,12 +4666,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="214">
+      <c r="D55" s="215">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="215"/>
-      <c r="F55" s="216"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="217"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4684,11 +4685,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="217" t="s">
+      <c r="D57" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="217"/>
-      <c r="F57" s="217"/>
+      <c r="E57" s="218"/>
+      <c r="F57" s="218"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4799,7 +4800,7 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -4817,25 +4818,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5928,12 +5929,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="201"/>
-      <c r="E50" s="214">
+      <c r="E50" s="215">
         <f>E46-G46</f>
         <v>74746</v>
       </c>
-      <c r="F50" s="215"/>
-      <c r="G50" s="216"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="217"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5949,11 +5950,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="201"/>
-      <c r="E52" s="217" t="s">
+      <c r="E52" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="217"/>
-      <c r="G52" s="217"/>
+      <c r="F52" s="218"/>
+      <c r="G52" s="218"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6117,10 +6118,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B1:AJ69"/>
+  <dimension ref="B1:AI69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -6132,66 +6133,67 @@
     <col min="6" max="12" width="11.42578125" style="114"/>
     <col min="13" max="14" width="39.140625" style="114" customWidth="1"/>
     <col min="15" max="15" width="31.5703125" style="114" customWidth="1"/>
-    <col min="16" max="18" width="14.7109375" style="114" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="114" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="114" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" style="114" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="114" customWidth="1"/>
-    <col min="23" max="26" width="11.42578125" style="114"/>
-    <col min="27" max="27" width="14.85546875" style="136" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="115" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="140"/>
-    <col min="31" max="32" width="11.42578125" style="114"/>
-    <col min="33" max="33" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" style="114"/>
-    <col min="35" max="35" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="11.42578125" style="114"/>
+    <col min="16" max="16" width="5.7109375" style="114" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="114" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="114" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="114" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="114" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="114" customWidth="1"/>
+    <col min="22" max="25" width="11.42578125" style="114"/>
+    <col min="26" max="26" width="14.85546875" style="136" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="115" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" style="114" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" style="140"/>
+    <col min="30" max="31" width="11.42578125" style="114"/>
+    <col min="32" max="32" width="13.85546875" style="114" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="114"/>
+    <col min="34" max="34" width="17.42578125" style="114" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="11.42578125" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="224"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
-    </row>
-    <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="Q1" s="225"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226"/>
+    </row>
+    <row r="2" spans="2:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="156" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
       <c r="E2" s="157"/>
-      <c r="S2" s="171" t="s">
+      <c r="R2" s="171" t="s">
         <v>91</v>
       </c>
+      <c r="S2" s="172"/>
       <c r="T2" s="172"/>
       <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
+      <c r="V2" s="155"/>
       <c r="W2" s="155"/>
       <c r="X2" s="155"/>
       <c r="Y2" s="155"/>
       <c r="Z2" s="155"/>
       <c r="AA2" s="155"/>
       <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="121"/>
-    </row>
-    <row r="3" spans="2:36" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="121"/>
+    </row>
+    <row r="3" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
         <v>44</v>
       </c>
@@ -6204,31 +6206,31 @@
       <c r="E3" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="130" t="s">
+      <c r="R3" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="132" t="s">
+      <c r="S3" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="137" t="s">
+      <c r="T3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="131" t="s">
+      <c r="U3" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="121"/>
-    </row>
-    <row r="4" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="121"/>
+    </row>
+    <row r="4" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="128">
         <v>44732</v>
       </c>
@@ -6242,32 +6244,32 @@
         <f>D4</f>
         <v>33921</v>
       </c>
-      <c r="S4" s="128">
+      <c r="R4" s="128">
         <v>44720</v>
       </c>
-      <c r="T4" s="133">
+      <c r="S4" s="133">
         <v>44722</v>
       </c>
+      <c r="T4" s="129">
+        <v>45730</v>
+      </c>
       <c r="U4" s="129">
+        <f>T4</f>
         <v>45730</v>
       </c>
-      <c r="V4" s="129">
-        <f>U4</f>
-        <v>45730</v>
-      </c>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="135"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="60"/>
       <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="121"/>
-    </row>
-    <row r="5" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="162"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="121"/>
+    </row>
+    <row r="5" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="128">
         <v>44733</v>
       </c>
@@ -6281,32 +6283,32 @@
         <f>E4+D5</f>
         <v>77287</v>
       </c>
-      <c r="S5" s="128">
+      <c r="R5" s="128">
         <v>44721</v>
       </c>
-      <c r="T5" s="134">
+      <c r="S5" s="134">
         <v>44722</v>
       </c>
+      <c r="T5" s="20">
+        <v>44700</v>
+      </c>
       <c r="U5" s="20">
-        <v>44700</v>
-      </c>
-      <c r="V5" s="20">
-        <f>V4+U5</f>
+        <f>U4+T5</f>
         <v>90430</v>
       </c>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="135"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="162"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="121"/>
-    </row>
-    <row r="6" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="121"/>
+    </row>
+    <row r="6" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="128">
         <v>44734</v>
       </c>
@@ -6320,32 +6322,32 @@
         <f>E5+D6</f>
         <v>79620.5</v>
       </c>
-      <c r="S6" s="128">
+      <c r="R6" s="128">
         <v>44722</v>
       </c>
-      <c r="T6" s="134">
+      <c r="S6" s="134">
         <v>44725</v>
       </c>
+      <c r="T6" s="20">
+        <v>45943</v>
+      </c>
       <c r="U6" s="20">
-        <v>45943</v>
-      </c>
-      <c r="V6" s="20">
-        <f>V5+U6</f>
+        <f>U5+T6</f>
         <v>136373</v>
       </c>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="135"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="60"/>
       <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="162"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="121"/>
-    </row>
-    <row r="7" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="166"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="121"/>
+    </row>
+    <row r="7" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="128">
         <v>44734</v>
       </c>
@@ -6359,32 +6361,32 @@
         <f t="shared" ref="E7:E36" si="0">E6+D7</f>
         <v>123411</v>
       </c>
-      <c r="S7" s="128">
+      <c r="R7" s="128">
         <v>44723</v>
       </c>
-      <c r="T7" s="134">
+      <c r="S7" s="134">
         <v>44725</v>
       </c>
+      <c r="T7" s="20">
+        <v>16613.5</v>
+      </c>
       <c r="U7" s="20">
-        <v>16613.5</v>
-      </c>
-      <c r="V7" s="20">
-        <f t="shared" ref="V7:V22" si="1">V6+U7</f>
+        <f t="shared" ref="U7:U22" si="1">U6+T7</f>
         <v>152986.5</v>
       </c>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="135"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="60"/>
       <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="165"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="166"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="121"/>
-    </row>
-    <row r="8" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="164"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="121"/>
+    </row>
+    <row r="8" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="128">
         <v>44735</v>
       </c>
@@ -6398,32 +6400,32 @@
         <f t="shared" si="0"/>
         <v>249203.5</v>
       </c>
-      <c r="S8" s="128">
+      <c r="R8" s="128">
         <v>44724</v>
       </c>
-      <c r="T8" s="134">
+      <c r="S8" s="134">
         <v>44725</v>
       </c>
+      <c r="T8" s="20">
+        <v>17154</v>
+      </c>
       <c r="U8" s="20">
-        <v>17154</v>
-      </c>
-      <c r="V8" s="20">
         <f t="shared" si="1"/>
         <v>170140.5</v>
       </c>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="135"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="60"/>
       <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="166"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="121"/>
-    </row>
-    <row r="9" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="164"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="166"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="121"/>
+    </row>
+    <row r="9" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="128">
         <v>44736</v>
       </c>
@@ -6437,32 +6439,32 @@
         <f t="shared" si="0"/>
         <v>318800.5</v>
       </c>
-      <c r="S9" s="128">
+      <c r="R9" s="128">
         <v>44725</v>
       </c>
-      <c r="T9" s="134">
+      <c r="S9" s="134">
         <v>44728</v>
       </c>
+      <c r="T9" s="20">
+        <v>50350</v>
+      </c>
       <c r="U9" s="20">
-        <v>50350</v>
-      </c>
-      <c r="V9" s="20">
         <f t="shared" si="1"/>
         <v>220490.5</v>
       </c>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="135"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="60"/>
       <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="166"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="121"/>
-    </row>
-    <row r="10" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="121"/>
+    </row>
+    <row r="10" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="128">
         <v>44737</v>
       </c>
@@ -6476,32 +6478,32 @@
         <f t="shared" si="0"/>
         <v>343688.5</v>
       </c>
-      <c r="S10" s="128">
+      <c r="R10" s="128">
         <v>44726</v>
       </c>
-      <c r="T10" s="134">
+      <c r="S10" s="134">
         <v>44728</v>
       </c>
+      <c r="T10" s="20">
+        <v>44920</v>
+      </c>
       <c r="U10" s="20">
-        <v>44920</v>
-      </c>
-      <c r="V10" s="20">
         <f t="shared" si="1"/>
         <v>265410.5</v>
       </c>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="135"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="60"/>
       <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="165"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="166"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="121"/>
-    </row>
-    <row r="11" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="165"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="121"/>
+    </row>
+    <row r="11" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="128">
         <v>44738</v>
       </c>
@@ -6515,32 +6517,32 @@
         <f t="shared" si="0"/>
         <v>345416.5</v>
       </c>
-      <c r="S11" s="128">
+      <c r="R11" s="128">
         <v>44727</v>
       </c>
-      <c r="T11" s="134">
+      <c r="S11" s="134">
         <v>44728</v>
       </c>
+      <c r="T11" s="20">
+        <v>36290.5</v>
+      </c>
       <c r="U11" s="20">
-        <v>36290.5</v>
-      </c>
-      <c r="V11" s="20">
         <f t="shared" si="1"/>
         <v>301701</v>
       </c>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="135"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="60"/>
       <c r="AB11" s="60"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="166"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="121"/>
-    </row>
-    <row r="12" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="121"/>
+    </row>
+    <row r="12" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="128">
         <v>44739</v>
       </c>
@@ -6554,32 +6556,32 @@
         <f t="shared" si="0"/>
         <v>386397</v>
       </c>
-      <c r="S12" s="128">
+      <c r="R12" s="128">
         <v>44728</v>
       </c>
-      <c r="T12" s="134">
+      <c r="S12" s="134">
         <v>44732</v>
       </c>
+      <c r="T12" s="20">
+        <v>49576</v>
+      </c>
       <c r="U12" s="20">
-        <v>49576</v>
-      </c>
-      <c r="V12" s="20">
         <f t="shared" si="1"/>
         <v>351277</v>
       </c>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="135"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="60"/>
       <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="165"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="166"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="121"/>
-    </row>
-    <row r="13" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="164"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="166"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="121"/>
+    </row>
+    <row r="13" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="128">
         <v>44740</v>
       </c>
@@ -6593,32 +6595,32 @@
         <f t="shared" si="0"/>
         <v>460385</v>
       </c>
-      <c r="S13" s="128">
+      <c r="R13" s="128">
         <v>44729</v>
       </c>
-      <c r="T13" s="134">
+      <c r="S13" s="134">
         <v>44732</v>
       </c>
-      <c r="U13" s="22">
+      <c r="T13" s="22">
         <v>48123</v>
       </c>
-      <c r="V13" s="20">
+      <c r="U13" s="20">
         <f t="shared" si="1"/>
         <v>399400</v>
       </c>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="164"/>
-      <c r="AF13" s="165"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="166"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="121"/>
-    </row>
-    <row r="14" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="164"/>
+      <c r="AE13" s="165"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="166"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="121"/>
+    </row>
+    <row r="14" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="128">
         <v>44741</v>
       </c>
@@ -6632,32 +6634,32 @@
         <f t="shared" si="0"/>
         <v>496314.5</v>
       </c>
-      <c r="S14" s="128">
+      <c r="R14" s="128">
         <v>44730</v>
       </c>
-      <c r="T14" s="134">
+      <c r="S14" s="134">
         <v>44732</v>
       </c>
+      <c r="T14" s="20">
+        <v>66300</v>
+      </c>
       <c r="U14" s="20">
-        <v>66300</v>
-      </c>
-      <c r="V14" s="20">
         <f t="shared" si="1"/>
         <v>465700</v>
       </c>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="135"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="60"/>
       <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="164"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="166"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="121"/>
-    </row>
-    <row r="15" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="164"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="166"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="121"/>
+    </row>
+    <row r="15" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="128">
         <v>44742</v>
       </c>
@@ -6671,32 +6673,32 @@
         <f t="shared" si="0"/>
         <v>557030</v>
       </c>
-      <c r="S15" s="128">
+      <c r="R15" s="128">
         <v>44731</v>
       </c>
-      <c r="T15" s="134">
+      <c r="S15" s="134">
         <v>44732</v>
       </c>
+      <c r="T15" s="20">
+        <v>75117</v>
+      </c>
       <c r="U15" s="20">
-        <v>75117</v>
-      </c>
-      <c r="V15" s="20">
         <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="135"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="165"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="166"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="121"/>
-    </row>
-    <row r="16" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="164"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="166"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="121"/>
+    </row>
+    <row r="16" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="128">
         <v>44743</v>
       </c>
@@ -6710,26 +6712,26 @@
         <f t="shared" si="0"/>
         <v>616466</v>
       </c>
-      <c r="S16" s="128"/>
-      <c r="T16" s="134"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20">
+      <c r="R16" s="128"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="245">
         <f t="shared" si="1"/>
         <v>540817</v>
       </c>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="135"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="60"/>
       <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="165"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="166"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="121"/>
-    </row>
-    <row r="17" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="164"/>
+      <c r="AE16" s="165"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="121"/>
+    </row>
+    <row r="17" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="128">
         <v>44744</v>
       </c>
@@ -6743,28 +6745,28 @@
         <f t="shared" si="0"/>
         <v>655845.5</v>
       </c>
-      <c r="S17" s="128"/>
-      <c r="T17" s="134"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="20">
+        <v>-529362.74</v>
+      </c>
       <c r="U17" s="20">
-        <v>-529362.74</v>
-      </c>
-      <c r="V17" s="20">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="135"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="60"/>
       <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="165"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="166"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="121"/>
-    </row>
-    <row r="18" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="164"/>
+      <c r="AE17" s="165"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="166"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="121"/>
+    </row>
+    <row r="18" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="128">
         <v>44745</v>
       </c>
@@ -6778,26 +6780,26 @@
         <f t="shared" si="0"/>
         <v>704057.5</v>
       </c>
-      <c r="S18" s="128"/>
-      <c r="T18" s="134"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20">
+      <c r="R18" s="128"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="166"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="121"/>
-    </row>
-    <row r="19" spans="2:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="164"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="166"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="121"/>
+    </row>
+    <row r="19" spans="2:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="128">
         <v>44746</v>
       </c>
@@ -6814,28 +6816,28 @@
       <c r="F19" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="S19" s="128"/>
-      <c r="T19" s="230" t="s">
+      <c r="R19" s="128"/>
+      <c r="S19" s="231" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="231"/>
-      <c r="V19" s="77">
+      <c r="T19" s="232"/>
+      <c r="U19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="135"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="60"/>
       <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="165"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="166"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="121"/>
-    </row>
-    <row r="20" spans="2:36" ht="21" x14ac:dyDescent="0.35">
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="165"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="166"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="121"/>
+    </row>
+    <row r="20" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="128">
         <v>44747</v>
       </c>
@@ -6849,30 +6851,30 @@
         <f t="shared" si="0"/>
         <v>729099.5</v>
       </c>
-      <c r="R20" s="121"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20">
+      <c r="Q20" s="121"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
+      <c r="V20" s="121"/>
       <c r="W20" s="121"/>
       <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="169"/>
-      <c r="AA20" s="135"/>
+      <c r="Y20" s="169"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="60"/>
       <c r="AB20" s="60"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="165"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="166"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="121"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="164"/>
+      <c r="AE20" s="165"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="166"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="121"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B21" s="128">
         <v>44748</v>
       </c>
@@ -6886,30 +6888,30 @@
         <f t="shared" si="0"/>
         <v>763849.5</v>
       </c>
-      <c r="R21" s="121"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20">
+      <c r="Q21" s="121"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
+      <c r="V21" s="121"/>
       <c r="W21" s="121"/>
       <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="135"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="60"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="165"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="166"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="121"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="164"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="166"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="121"/>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B22" s="128">
         <v>44749</v>
       </c>
@@ -6923,30 +6925,30 @@
         <f t="shared" si="0"/>
         <v>810932.5</v>
       </c>
-      <c r="R22" s="121"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="158">
+      <c r="Q22" s="121"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="158">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
       </c>
+      <c r="V22" s="121"/>
       <c r="W22" s="121"/>
       <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="135"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="60"/>
       <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="165"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="166"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="127"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="164"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="166"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="127"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B23" s="128">
         <v>44750</v>
       </c>
@@ -6960,27 +6962,27 @@
         <f t="shared" si="0"/>
         <v>898568.5</v>
       </c>
-      <c r="R23" s="121"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="134"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
+      <c r="V23" s="121"/>
       <c r="W23" s="121"/>
       <c r="X23" s="121"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="135"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="60"/>
       <c r="AB23" s="60"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="121"/>
       <c r="AE23" s="121"/>
       <c r="AF23" s="121"/>
       <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="170"/>
-      <c r="AJ23" s="121"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AH23" s="170"/>
+      <c r="AI23" s="121"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B24" s="128">
         <v>44751</v>
       </c>
@@ -6994,27 +6996,27 @@
         <f t="shared" si="0"/>
         <v>942068.5</v>
       </c>
-      <c r="R24" s="121"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="134"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
+      <c r="V24" s="121"/>
       <c r="W24" s="121"/>
       <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="135"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="60"/>
       <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="121"/>
       <c r="AE24" s="121"/>
       <c r="AF24" s="121"/>
       <c r="AG24" s="121"/>
       <c r="AH24" s="121"/>
       <c r="AI24" s="121"/>
-      <c r="AJ24" s="121"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B25" s="177">
         <v>44751</v>
       </c>
@@ -7028,20 +7030,20 @@
         <f t="shared" si="0"/>
         <v>942268.5</v>
       </c>
-      <c r="R25" s="121"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="134"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="22"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="121"/>
       <c r="W25" s="121"/>
       <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="135"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="60"/>
       <c r="AB25" s="60"/>
-      <c r="AC25" s="60"/>
-    </row>
-    <row r="26" spans="2:36" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B26" s="179">
         <v>44752</v>
       </c>
@@ -7055,6 +7057,7 @@
         <f t="shared" si="0"/>
         <v>980852</v>
       </c>
+      <c r="R26" s="155"/>
       <c r="S26" s="155"/>
       <c r="T26" s="155"/>
       <c r="U26" s="155"/>
@@ -7065,9 +7068,8 @@
       <c r="Z26" s="155"/>
       <c r="AA26" s="155"/>
       <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B27" s="179">
         <v>44753</v>
       </c>
@@ -7082,7 +7084,7 @@
         <v>1023027</v>
       </c>
     </row>
-    <row r="28" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="179">
         <v>44754</v>
       </c>
@@ -7097,7 +7099,7 @@
         <v>1057962</v>
       </c>
     </row>
-    <row r="29" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="179">
         <v>44755</v>
       </c>
@@ -7112,7 +7114,7 @@
         <v>1098686</v>
       </c>
     </row>
-    <row r="30" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="179">
         <v>44756</v>
       </c>
@@ -7130,7 +7132,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="179">
         <v>44757</v>
       </c>
@@ -7145,7 +7147,7 @@
         <v>1208748</v>
       </c>
     </row>
-    <row r="32" spans="2:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="179">
         <v>44757</v>
       </c>
@@ -7160,7 +7162,7 @@
         <v>1209684.5</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="179">
         <v>44758</v>
       </c>
@@ -7175,7 +7177,7 @@
         <v>1210694</v>
       </c>
     </row>
-    <row r="34" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="179"/>
       <c r="C34" s="178"/>
       <c r="D34" s="183"/>
@@ -7184,7 +7186,7 @@
         <v>1210694</v>
       </c>
     </row>
-    <row r="35" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="176" t="s">
         <v>96</v>
       </c>
@@ -7196,37 +7198,38 @@
         <v>0.31000000005587935</v>
       </c>
     </row>
-    <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="232" t="s">
+    <row r="36" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="233" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="233"/>
-      <c r="D36" s="234"/>
+      <c r="C36" s="234"/>
+      <c r="D36" s="235"/>
       <c r="E36" s="184">
         <f t="shared" si="0"/>
         <v>0.31000000005587935</v>
       </c>
     </row>
-    <row r="37" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="235"/>
-      <c r="C37" s="236"/>
-      <c r="D37" s="237"/>
-    </row>
-    <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB40" s="174"/>
-    </row>
-    <row r="41" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB41" s="174"/>
-    </row>
-    <row r="42" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AB42" s="174"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="AB43" s="174"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="238"/>
+    </row>
+    <row r="38" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA40" s="174"/>
+    </row>
+    <row r="41" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA41" s="174"/>
+    </row>
+    <row r="42" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA42" s="174"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AA43" s="174"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Q44" s="121"/>
       <c r="R44" s="121"/>
       <c r="S44" s="121"/>
       <c r="T44" s="121"/>
@@ -7234,10 +7237,10 @@
       <c r="V44" s="121"/>
       <c r="W44" s="121"/>
       <c r="X44" s="121"/>
-      <c r="Y44" s="121"/>
-      <c r="AB44" s="174"/>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="AA44" s="174"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Q45" s="121"/>
       <c r="R45" s="121"/>
       <c r="S45" s="121"/>
       <c r="T45" s="121"/>
@@ -7245,13 +7248,13 @@
       <c r="V45" s="121"/>
       <c r="W45" s="121"/>
       <c r="X45" s="121"/>
-      <c r="Y45" s="121"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="135"/>
-      <c r="AB45" s="174"/>
-      <c r="AC45" s="60"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y45" s="101"/>
+      <c r="Z45" s="135"/>
+      <c r="AA45" s="174"/>
+      <c r="AB45" s="60"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Q46" s="121"/>
       <c r="R46" s="121"/>
       <c r="S46" s="121"/>
       <c r="T46" s="121"/>
@@ -7259,13 +7262,13 @@
       <c r="V46" s="121"/>
       <c r="W46" s="121"/>
       <c r="X46" s="121"/>
-      <c r="Y46" s="121"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="135"/>
-      <c r="AB46" s="174"/>
-      <c r="AC46" s="60"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="135"/>
+      <c r="AA46" s="174"/>
+      <c r="AB46" s="60"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Q47" s="121"/>
       <c r="R47" s="121"/>
       <c r="S47" s="121"/>
       <c r="T47" s="121"/>
@@ -7273,13 +7276,13 @@
       <c r="V47" s="121"/>
       <c r="W47" s="121"/>
       <c r="X47" s="121"/>
-      <c r="Y47" s="121"/>
-      <c r="Z47" s="101"/>
-      <c r="AA47" s="135"/>
-      <c r="AB47" s="174"/>
-      <c r="AC47" s="60"/>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="Y47" s="101"/>
+      <c r="Z47" s="135"/>
+      <c r="AA47" s="174"/>
+      <c r="AB47" s="60"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="Q48" s="121"/>
       <c r="R48" s="121"/>
       <c r="S48" s="121"/>
       <c r="T48" s="121"/>
@@ -7287,13 +7290,13 @@
       <c r="V48" s="121"/>
       <c r="W48" s="121"/>
       <c r="X48" s="121"/>
-      <c r="Y48" s="121"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="135"/>
-      <c r="AB48" s="174"/>
-      <c r="AC48" s="60"/>
-    </row>
-    <row r="49" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="135"/>
+      <c r="AA48" s="174"/>
+      <c r="AB48" s="60"/>
+    </row>
+    <row r="49" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q49" s="121"/>
       <c r="R49" s="121"/>
       <c r="S49" s="121"/>
       <c r="T49" s="121"/>
@@ -7301,13 +7304,13 @@
       <c r="V49" s="121"/>
       <c r="W49" s="121"/>
       <c r="X49" s="121"/>
-      <c r="Y49" s="121"/>
-      <c r="Z49" s="101"/>
-      <c r="AA49" s="135"/>
-      <c r="AB49" s="174"/>
-      <c r="AC49" s="60"/>
-    </row>
-    <row r="50" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y49" s="101"/>
+      <c r="Z49" s="135"/>
+      <c r="AA49" s="174"/>
+      <c r="AB49" s="60"/>
+    </row>
+    <row r="50" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q50" s="121"/>
       <c r="R50" s="121"/>
       <c r="S50" s="121"/>
       <c r="T50" s="121"/>
@@ -7315,13 +7318,13 @@
       <c r="V50" s="121"/>
       <c r="W50" s="121"/>
       <c r="X50" s="121"/>
-      <c r="Y50" s="121"/>
-      <c r="Z50" s="101"/>
-      <c r="AA50" s="135"/>
-      <c r="AB50" s="174"/>
-      <c r="AC50" s="60"/>
-    </row>
-    <row r="51" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y50" s="101"/>
+      <c r="Z50" s="135"/>
+      <c r="AA50" s="174"/>
+      <c r="AB50" s="60"/>
+    </row>
+    <row r="51" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q51" s="121"/>
       <c r="R51" s="121"/>
       <c r="S51" s="121"/>
       <c r="T51" s="121"/>
@@ -7329,13 +7332,13 @@
       <c r="V51" s="121"/>
       <c r="W51" s="121"/>
       <c r="X51" s="121"/>
-      <c r="Y51" s="121"/>
-      <c r="Z51" s="101"/>
-      <c r="AA51" s="135"/>
-      <c r="AB51" s="174"/>
-      <c r="AC51" s="60"/>
-    </row>
-    <row r="52" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y51" s="101"/>
+      <c r="Z51" s="135"/>
+      <c r="AA51" s="174"/>
+      <c r="AB51" s="60"/>
+    </row>
+    <row r="52" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q52" s="121"/>
       <c r="R52" s="121"/>
       <c r="S52" s="121"/>
       <c r="T52" s="121"/>
@@ -7343,13 +7346,13 @@
       <c r="V52" s="121"/>
       <c r="W52" s="121"/>
       <c r="X52" s="121"/>
-      <c r="Y52" s="121"/>
-      <c r="Z52" s="101"/>
-      <c r="AA52" s="135"/>
-      <c r="AB52" s="174"/>
-      <c r="AC52" s="60"/>
-    </row>
-    <row r="53" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="135"/>
+      <c r="AA52" s="174"/>
+      <c r="AB52" s="60"/>
+    </row>
+    <row r="53" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q53" s="121"/>
       <c r="R53" s="121"/>
       <c r="S53" s="121"/>
       <c r="T53" s="121"/>
@@ -7357,13 +7360,13 @@
       <c r="V53" s="121"/>
       <c r="W53" s="121"/>
       <c r="X53" s="121"/>
-      <c r="Y53" s="121"/>
-      <c r="Z53" s="101"/>
-      <c r="AA53" s="135"/>
-      <c r="AB53" s="174"/>
-      <c r="AC53" s="60"/>
-    </row>
-    <row r="54" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y53" s="101"/>
+      <c r="Z53" s="135"/>
+      <c r="AA53" s="174"/>
+      <c r="AB53" s="60"/>
+    </row>
+    <row r="54" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q54" s="121"/>
       <c r="R54" s="121"/>
       <c r="S54" s="121"/>
       <c r="T54" s="121"/>
@@ -7371,13 +7374,13 @@
       <c r="V54" s="121"/>
       <c r="W54" s="121"/>
       <c r="X54" s="121"/>
-      <c r="Y54" s="121"/>
-      <c r="Z54" s="101"/>
-      <c r="AA54" s="135"/>
-      <c r="AB54" s="174"/>
-      <c r="AC54" s="60"/>
-    </row>
-    <row r="55" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y54" s="101"/>
+      <c r="Z54" s="135"/>
+      <c r="AA54" s="174"/>
+      <c r="AB54" s="60"/>
+    </row>
+    <row r="55" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q55" s="121"/>
       <c r="R55" s="121"/>
       <c r="S55" s="121"/>
       <c r="T55" s="121"/>
@@ -7385,13 +7388,13 @@
       <c r="V55" s="121"/>
       <c r="W55" s="121"/>
       <c r="X55" s="121"/>
-      <c r="Y55" s="121"/>
-      <c r="Z55" s="101"/>
-      <c r="AA55" s="135"/>
-      <c r="AB55" s="174"/>
-      <c r="AC55" s="60"/>
-    </row>
-    <row r="56" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y55" s="101"/>
+      <c r="Z55" s="135"/>
+      <c r="AA55" s="174"/>
+      <c r="AB55" s="60"/>
+    </row>
+    <row r="56" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q56" s="121"/>
       <c r="R56" s="121"/>
       <c r="S56" s="121"/>
       <c r="T56" s="121"/>
@@ -7399,13 +7402,13 @@
       <c r="V56" s="121"/>
       <c r="W56" s="121"/>
       <c r="X56" s="121"/>
-      <c r="Y56" s="121"/>
-      <c r="Z56" s="101"/>
-      <c r="AA56" s="135"/>
-      <c r="AB56" s="174"/>
-      <c r="AC56" s="60"/>
-    </row>
-    <row r="57" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y56" s="101"/>
+      <c r="Z56" s="135"/>
+      <c r="AA56" s="174"/>
+      <c r="AB56" s="60"/>
+    </row>
+    <row r="57" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q57" s="121"/>
       <c r="R57" s="121"/>
       <c r="S57" s="121"/>
       <c r="T57" s="121"/>
@@ -7413,13 +7416,13 @@
       <c r="V57" s="121"/>
       <c r="W57" s="121"/>
       <c r="X57" s="121"/>
-      <c r="Y57" s="121"/>
-      <c r="Z57" s="101"/>
-      <c r="AA57" s="135"/>
-      <c r="AB57" s="174"/>
-      <c r="AC57" s="60"/>
-    </row>
-    <row r="58" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y57" s="101"/>
+      <c r="Z57" s="135"/>
+      <c r="AA57" s="174"/>
+      <c r="AB57" s="60"/>
+    </row>
+    <row r="58" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q58" s="121"/>
       <c r="R58" s="121"/>
       <c r="S58" s="121"/>
       <c r="T58" s="121"/>
@@ -7427,13 +7430,13 @@
       <c r="V58" s="121"/>
       <c r="W58" s="121"/>
       <c r="X58" s="121"/>
-      <c r="Y58" s="121"/>
-      <c r="Z58" s="101"/>
-      <c r="AA58" s="135"/>
-      <c r="AB58" s="174"/>
-      <c r="AC58" s="60"/>
-    </row>
-    <row r="59" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y58" s="101"/>
+      <c r="Z58" s="135"/>
+      <c r="AA58" s="174"/>
+      <c r="AB58" s="60"/>
+    </row>
+    <row r="59" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q59" s="121"/>
       <c r="R59" s="121"/>
       <c r="S59" s="121"/>
       <c r="T59" s="121"/>
@@ -7441,13 +7444,13 @@
       <c r="V59" s="121"/>
       <c r="W59" s="121"/>
       <c r="X59" s="121"/>
-      <c r="Y59" s="121"/>
-      <c r="Z59" s="101"/>
-      <c r="AA59" s="135"/>
-      <c r="AB59" s="174"/>
-      <c r="AC59" s="60"/>
-    </row>
-    <row r="60" spans="18:29" x14ac:dyDescent="0.3">
+      <c r="Y59" s="101"/>
+      <c r="Z59" s="135"/>
+      <c r="AA59" s="174"/>
+      <c r="AB59" s="60"/>
+    </row>
+    <row r="60" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="Q60" s="121"/>
       <c r="R60" s="121"/>
       <c r="S60" s="121"/>
       <c r="T60" s="121"/>
@@ -7455,36 +7458,35 @@
       <c r="V60" s="121"/>
       <c r="W60" s="121"/>
       <c r="X60" s="121"/>
-      <c r="Y60" s="121"/>
-      <c r="Z60" s="101"/>
-      <c r="AA60" s="135"/>
-      <c r="AB60" s="174"/>
-      <c r="AC60" s="60"/>
-    </row>
-    <row r="61" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB61" s="174"/>
-      <c r="AC61" s="60"/>
-    </row>
-    <row r="62" spans="18:29" x14ac:dyDescent="0.3">
-      <c r="AB62" s="174"/>
-      <c r="AC62" s="127"/>
-    </row>
-    <row r="63" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB63" s="174"/>
-      <c r="AC63" s="121"/>
-    </row>
-    <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB64" s="228"/>
-      <c r="AC64" s="229"/>
-    </row>
-    <row r="69" spans="28:28" x14ac:dyDescent="0.3">
-      <c r="AB69" s="54"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="135"/>
+      <c r="AA60" s="174"/>
+      <c r="AB60" s="60"/>
+    </row>
+    <row r="61" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="AA61" s="174"/>
+      <c r="AB61" s="60"/>
+    </row>
+    <row r="62" spans="17:28" x14ac:dyDescent="0.3">
+      <c r="AA62" s="174"/>
+      <c r="AB62" s="127"/>
+    </row>
+    <row r="63" spans="17:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA63" s="174"/>
+      <c r="AB63" s="121"/>
+    </row>
+    <row r="64" spans="17:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA64" s="229"/>
+      <c r="AB64" s="230"/>
+    </row>
+    <row r="69" spans="27:27" x14ac:dyDescent="0.3">
+      <c r="AA69" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="R1:AC1"/>
-    <mergeCell ref="AB64:AC64"/>
-    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="AA64:AB64"/>
+    <mergeCell ref="S19:T19"/>
     <mergeCell ref="B36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7500,8 +7502,8 @@
   </sheetPr>
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7518,25 +7520,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8589,9 +8591,7 @@
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
-      <c r="B47" s="13">
-        <v>456</v>
-      </c>
+      <c r="B47" s="13"/>
       <c r="C47" s="24"/>
       <c r="D47" s="26"/>
       <c r="E47" s="20"/>
@@ -8604,9 +8604,7 @@
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
-      <c r="B48" s="13">
-        <v>457</v>
-      </c>
+      <c r="B48" s="13"/>
       <c r="C48" s="24"/>
       <c r="D48" s="26"/>
       <c r="E48" s="20"/>
@@ -8619,9 +8617,7 @@
     </row>
     <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
-      <c r="B49" s="13">
-        <v>458</v>
-      </c>
+      <c r="B49" s="13"/>
       <c r="C49" s="24"/>
       <c r="D49" s="26"/>
       <c r="E49" s="20"/>
@@ -8634,9 +8630,7 @@
     </row>
     <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
-      <c r="B50" s="13">
-        <v>459</v>
-      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="24"/>
       <c r="D50" s="26"/>
       <c r="E50" s="20"/>
@@ -8649,9 +8643,7 @@
     </row>
     <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
-      <c r="B51" s="13">
-        <v>460</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="24"/>
       <c r="D51" s="26"/>
       <c r="E51" s="20"/>
@@ -8664,9 +8656,7 @@
     </row>
     <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
-      <c r="B52" s="13">
-        <v>461</v>
-      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="24"/>
       <c r="D52" s="26"/>
       <c r="E52" s="20"/>
@@ -8679,9 +8669,7 @@
     </row>
     <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
-      <c r="B53" s="13">
-        <v>462</v>
-      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="24"/>
       <c r="D53" s="26"/>
       <c r="E53" s="20"/>
@@ -8694,9 +8682,7 @@
     </row>
     <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
-      <c r="B54" s="13">
-        <v>463</v>
-      </c>
+      <c r="B54" s="13"/>
       <c r="C54" s="24"/>
       <c r="D54" s="26"/>
       <c r="E54" s="20"/>
@@ -8709,9 +8695,7 @@
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
-      <c r="B55" s="13">
-        <v>464</v>
-      </c>
+      <c r="B55" s="13"/>
       <c r="C55" s="24"/>
       <c r="D55" s="26"/>
       <c r="E55" s="20"/>
@@ -8724,9 +8708,7 @@
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
-      <c r="B56" s="13">
-        <v>465</v>
-      </c>
+      <c r="B56" s="13"/>
       <c r="C56" s="24"/>
       <c r="D56" s="26"/>
       <c r="E56" s="20"/>
@@ -8739,9 +8721,7 @@
     </row>
     <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
-      <c r="B57" s="13">
-        <v>466</v>
-      </c>
+      <c r="B57" s="13"/>
       <c r="C57" s="24"/>
       <c r="D57" s="26"/>
       <c r="E57" s="20"/>
@@ -8754,9 +8734,7 @@
     </row>
     <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
-      <c r="B58" s="13">
-        <v>467</v>
-      </c>
+      <c r="B58" s="13"/>
       <c r="C58" s="24"/>
       <c r="D58" s="26"/>
       <c r="E58" s="20"/>
@@ -8769,9 +8747,7 @@
     </row>
     <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
-      <c r="B59" s="13">
-        <v>468</v>
-      </c>
+      <c r="B59" s="13"/>
       <c r="C59" s="24"/>
       <c r="D59" s="26"/>
       <c r="E59" s="20"/>
@@ -8784,9 +8760,7 @@
     </row>
     <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
-      <c r="B60" s="13">
-        <v>469</v>
-      </c>
+      <c r="B60" s="13"/>
       <c r="C60" s="24"/>
       <c r="D60" s="26"/>
       <c r="E60" s="20"/>
@@ -8799,9 +8773,7 @@
     </row>
     <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
-      <c r="B61" s="13">
-        <v>470</v>
-      </c>
+      <c r="B61" s="13"/>
       <c r="C61" s="24"/>
       <c r="D61" s="26"/>
       <c r="E61" s="20"/>
@@ -8924,12 +8896,12 @@
       <c r="B70" s="37"/>
       <c r="C70" s="38"/>
       <c r="D70" s="201"/>
-      <c r="E70" s="214">
+      <c r="E70" s="215">
         <f>E66-G66</f>
         <v>148970</v>
       </c>
-      <c r="F70" s="215"/>
-      <c r="G70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="217"/>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -8945,11 +8917,11 @@
       <c r="B72" s="37"/>
       <c r="C72" s="38"/>
       <c r="D72" s="201"/>
-      <c r="E72" s="217" t="s">
+      <c r="E72" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="217"/>
-      <c r="G72" s="217"/>
+      <c r="F72" s="218"/>
+      <c r="G72" s="218"/>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -9115,8 +9087,8 @@
   </sheetPr>
   <dimension ref="B1:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9126,7 +9098,7 @@
     <col min="3" max="3" width="11.42578125" style="114"/>
     <col min="4" max="4" width="15" style="114" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="114" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="244"/>
+    <col min="6" max="6" width="11.42578125" style="213"/>
     <col min="7" max="12" width="11.42578125" style="114"/>
     <col min="13" max="14" width="39.140625" style="114" customWidth="1"/>
     <col min="15" max="15" width="31.5703125" style="114" customWidth="1"/>
@@ -9148,18 +9120,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="R1" s="224"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
-      <c r="Y1" s="225"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="225"/>
-      <c r="AB1" s="225"/>
-      <c r="AC1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="226"/>
+      <c r="T1" s="226"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="226"/>
+      <c r="W1" s="226"/>
+      <c r="X1" s="226"/>
+      <c r="Y1" s="226"/>
+      <c r="Z1" s="226"/>
+      <c r="AA1" s="226"/>
+      <c r="AB1" s="226"/>
+      <c r="AC1" s="226"/>
     </row>
     <row r="2" spans="2:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="156" t="s">
@@ -9282,7 +9254,7 @@
         <f>E4+D5</f>
         <v>121232</v>
       </c>
-      <c r="F5" s="244" t="s">
+      <c r="F5" s="213" t="s">
         <v>105</v>
       </c>
       <c r="S5" s="128">
@@ -9324,7 +9296,7 @@
         <f t="shared" ref="E6:E12" si="0">E5+D6</f>
         <v>193535.5</v>
       </c>
-      <c r="F6" s="244" t="s">
+      <c r="F6" s="213" t="s">
         <v>107</v>
       </c>
       <c r="S6" s="128">
@@ -9366,7 +9338,7 @@
         <f t="shared" si="0"/>
         <v>229640.5</v>
       </c>
-      <c r="F7" s="244" t="s">
+      <c r="F7" s="213" t="s">
         <v>107</v>
       </c>
       <c r="S7" s="128">
@@ -9408,7 +9380,7 @@
         <f t="shared" si="0"/>
         <v>233150.5</v>
       </c>
-      <c r="F8" s="244" t="s">
+      <c r="F8" s="213" t="s">
         <v>107</v>
       </c>
       <c r="S8" s="128">
@@ -9450,7 +9422,7 @@
         <f t="shared" si="0"/>
         <v>250706.5</v>
       </c>
-      <c r="F9" s="244" t="s">
+      <c r="F9" s="213" t="s">
         <v>46</v>
       </c>
       <c r="S9" s="128">
@@ -9492,7 +9464,7 @@
         <f t="shared" si="0"/>
         <v>292346.5</v>
       </c>
-      <c r="F10" s="244" t="s">
+      <c r="F10" s="213" t="s">
         <v>46</v>
       </c>
       <c r="S10" s="128">
@@ -9609,7 +9581,7 @@
         <v>50983</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" ref="E7:E36" si="2">E12+D13</f>
+        <f t="shared" ref="E13:E36" si="2">E12+D13</f>
         <v>437318</v>
       </c>
       <c r="S13" s="128">
@@ -9802,10 +9774,10 @@
       </c>
       <c r="F19" s="186"/>
       <c r="S19" s="128"/>
-      <c r="T19" s="230" t="s">
+      <c r="T19" s="231" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="231"/>
+      <c r="U19" s="232"/>
       <c r="V19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -10103,20 +10075,20 @@
       </c>
     </row>
     <row r="36" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="238" t="s">
+      <c r="B36" s="239" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="239"/>
-      <c r="D36" s="240"/>
+      <c r="C36" s="240"/>
+      <c r="D36" s="241"/>
       <c r="E36" s="184">
         <f t="shared" si="2"/>
         <v>-1314888.83</v>
       </c>
     </row>
     <row r="37" spans="2:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="241"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="243"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="244"/>
     </row>
     <row r="38" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:29" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10380,8 +10352,8 @@
       <c r="AC63" s="121"/>
     </row>
     <row r="64" spans="18:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AB64" s="228"/>
-      <c r="AC64" s="229"/>
+      <c r="AB64" s="229"/>
+      <c r="AC64" s="230"/>
     </row>
     <row r="69" spans="28:28" x14ac:dyDescent="0.3">
       <c r="AB69" s="54"/>
@@ -10450,25 +10422,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12198,12 +12170,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="214">
+      <c r="E76" s="215">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="215"/>
-      <c r="G76" s="216"/>
+      <c r="F76" s="216"/>
+      <c r="G76" s="217"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -12219,11 +12191,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="217" t="s">
+      <c r="E78" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="217"/>
-      <c r="G78" s="217"/>
+      <c r="F78" s="218"/>
+      <c r="G78" s="218"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -12364,25 +12336,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="221"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13231,12 +13203,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="214">
+      <c r="E41" s="215">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="215"/>
-      <c r="G41" s="216"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="217"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -13252,11 +13224,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="217" t="s">
+      <c r="E43" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="217"/>
-      <c r="G43" s="217"/>
+      <c r="F43" s="218"/>
+      <c r="G43" s="218"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -13400,25 +13372,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14758,12 +14730,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="214">
+      <c r="E60" s="215">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="215"/>
-      <c r="G60" s="216"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="217"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -14779,11 +14751,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="217" t="s">
+      <c r="E62" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="217"/>
-      <c r="G62" s="217"/>
+      <c r="F62" s="218"/>
+      <c r="G62" s="218"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -14924,25 +14896,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16343,12 +16315,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="214">
+      <c r="E61" s="215">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="215"/>
-      <c r="G61" s="216"/>
+      <c r="F61" s="216"/>
+      <c r="G61" s="217"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -16364,11 +16336,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="217" t="s">
+      <c r="E63" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="217"/>
-      <c r="G63" s="217"/>
+      <c r="F63" s="218"/>
+      <c r="G63" s="218"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -16509,25 +16481,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17977,12 +17949,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="214">
+      <c r="E64" s="215">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="215"/>
-      <c r="G64" s="216"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="217"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -17998,11 +17970,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="217" t="s">
+      <c r="E66" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="217"/>
-      <c r="G66" s="217"/>
+      <c r="F66" s="218"/>
+      <c r="G66" s="218"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -18143,25 +18115,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19626,12 +19598,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="201"/>
-      <c r="E65" s="214">
+      <c r="E65" s="215">
         <f>E61-G61</f>
         <v>0</v>
       </c>
-      <c r="F65" s="215"/>
-      <c r="G65" s="216"/>
+      <c r="F65" s="216"/>
+      <c r="G65" s="217"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -19647,11 +19619,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="201"/>
-      <c r="E67" s="217" t="s">
+      <c r="E67" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="217"/>
-      <c r="G67" s="217"/>
+      <c r="F67" s="218"/>
+      <c r="G67" s="218"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -19815,7 +19787,7 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -19833,25 +19805,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -20802,12 +20774,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="214">
+      <c r="E43" s="215">
         <f>E39-G39</f>
         <v>0</v>
       </c>
-      <c r="F43" s="215"/>
-      <c r="G43" s="216"/>
+      <c r="F43" s="216"/>
+      <c r="G43" s="217"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -20823,11 +20795,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="217" t="s">
+      <c r="E45" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="217"/>
-      <c r="G45" s="217"/>
+      <c r="F45" s="218"/>
+      <c r="G45" s="218"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -20990,8 +20962,8 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -21013,18 +20985,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="224"/>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
+      <c r="A1" s="225"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
     </row>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="156" t="s">
@@ -22263,11 +22235,11 @@
       <c r="L62" s="121"/>
     </row>
     <row r="63" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K63" s="226">
+      <c r="K63" s="227">
         <f>SUM(K39:K62)</f>
         <v>850487.21</v>
       </c>
-      <c r="L63" s="227"/>
+      <c r="L63" s="228"/>
     </row>
     <row r="68" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K68" s="54"/>
